--- a/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="311">
   <si>
     <t>ID</t>
   </si>
@@ -369,6 +369,585 @@
   <si>
     <t>课桌面照
 度均匀度</t>
+  </si>
+  <si>
+    <t>{.id1}</t>
+  </si>
+  <si>
+    <t>{.schoolName}</t>
+  </si>
+  <si>
+    <t>{.province}</t>
+  </si>
+  <si>
+    <t>{.city}</t>
+  </si>
+  <si>
+    <t>{.district}</t>
+  </si>
+  <si>
+    <t>{.county}</t>
+  </si>
+  <si>
+    <t>{.point}</t>
+  </si>
+  <si>
+    <t>{.name1}</t>
+  </si>
+  <si>
+    <t>{.name2}</t>
+  </si>
+  <si>
+    <t>{.date}</t>
+  </si>
+  <si>
+    <t>{.a11}</t>
+  </si>
+  <si>
+    <t>{.b1}</t>
+  </si>
+  <si>
+    <t>{.b2}</t>
+  </si>
+  <si>
+    <t>{.b3}</t>
+  </si>
+  <si>
+    <t>{.b4}</t>
+  </si>
+  <si>
+    <t>{.b5}</t>
+  </si>
+  <si>
+    <t>{.b51}</t>
+  </si>
+  <si>
+    <t>{.c1}</t>
+  </si>
+  <si>
+    <t>{.c11}</t>
+  </si>
+  <si>
+    <t>{.c21}</t>
+  </si>
+  <si>
+    <t>{.c22}</t>
+  </si>
+  <si>
+    <t>{.c3}</t>
+  </si>
+  <si>
+    <t>{.c4}</t>
+  </si>
+  <si>
+    <t>{.c51}</t>
+  </si>
+  <si>
+    <t>{.c52}</t>
+  </si>
+  <si>
+    <t>{.d1}</t>
+  </si>
+  <si>
+    <t>{.e1}</t>
+  </si>
+  <si>
+    <t>{.e21}</t>
+  </si>
+  <si>
+    <t>{.e3}</t>
+  </si>
+  <si>
+    <t>{.e4}</t>
+  </si>
+  <si>
+    <t>{.e5}</t>
+  </si>
+  <si>
+    <t>{.e6}</t>
+  </si>
+  <si>
+    <t>{.e7}</t>
+  </si>
+  <si>
+    <t>{.e8}</t>
+  </si>
+  <si>
+    <t>{.g0}</t>
+  </si>
+  <si>
+    <t>{.g01}</t>
+  </si>
+  <si>
+    <t>{.type}</t>
+  </si>
+  <si>
+    <t>{.pg111}</t>
+  </si>
+  <si>
+    <t>{.pg211}</t>
+  </si>
+  <si>
+    <t>{.pg221}</t>
+  </si>
+  <si>
+    <t>{.pg231}</t>
+  </si>
+  <si>
+    <t>{.pg311}</t>
+  </si>
+  <si>
+    <t>{.pg321}</t>
+  </si>
+  <si>
+    <t>{.pg331}</t>
+  </si>
+  <si>
+    <t>{.pg341}</t>
+  </si>
+  <si>
+    <t>{.pg411}</t>
+  </si>
+  <si>
+    <t>{.pg421}</t>
+  </si>
+  <si>
+    <t>{.pg511}</t>
+  </si>
+  <si>
+    <t>{.pg521}</t>
+  </si>
+  <si>
+    <t>{.pg531}</t>
+  </si>
+  <si>
+    <t>{.pg541}</t>
+  </si>
+  <si>
+    <t>{.pg551}</t>
+  </si>
+  <si>
+    <t>{.pg561}</t>
+  </si>
+  <si>
+    <t>{.pg571}</t>
+  </si>
+  <si>
+    <t>{.pg581}</t>
+  </si>
+  <si>
+    <t>{.pg591}</t>
+  </si>
+  <si>
+    <t>{.pg501}</t>
+  </si>
+  <si>
+    <t>{.pg611}</t>
+  </si>
+  <si>
+    <t>{.pg621}</t>
+  </si>
+  <si>
+    <t>{.pg631}</t>
+  </si>
+  <si>
+    <t>{.pg651}</t>
+  </si>
+  <si>
+    <t>{.pg641}</t>
+  </si>
+  <si>
+    <t>{.pg711}</t>
+  </si>
+  <si>
+    <t>{.pg721}</t>
+  </si>
+  <si>
+    <t>{.pg811}</t>
+  </si>
+  <si>
+    <t>{.pg821}</t>
+  </si>
+  <si>
+    <t>{.pg831}</t>
+  </si>
+  <si>
+    <t>{.pg841}</t>
+  </si>
+  <si>
+    <t>{.pg851}</t>
+  </si>
+  <si>
+    <t>{.pg861}</t>
+  </si>
+  <si>
+    <t>{.pg871}</t>
+  </si>
+  <si>
+    <t>{.pg881}</t>
+  </si>
+  <si>
+    <t>{.pg891}</t>
+  </si>
+  <si>
+    <t>{.pg801}</t>
+  </si>
+  <si>
+    <t>{.pg911}</t>
+  </si>
+  <si>
+    <t>{.pg921}</t>
+  </si>
+  <si>
+    <t>{.pg112}</t>
+  </si>
+  <si>
+    <t>{.pg212}</t>
+  </si>
+  <si>
+    <t>{.pg222}</t>
+  </si>
+  <si>
+    <t>{.pg232}</t>
+  </si>
+  <si>
+    <t>{.pg312}</t>
+  </si>
+  <si>
+    <t>{.pg322}</t>
+  </si>
+  <si>
+    <t>{.pg332}</t>
+  </si>
+  <si>
+    <t>{.pg342}</t>
+  </si>
+  <si>
+    <t>{.pg412}</t>
+  </si>
+  <si>
+    <t>{.pg422}</t>
+  </si>
+  <si>
+    <t>{.pg512}</t>
+  </si>
+  <si>
+    <t>{.pg522}</t>
+  </si>
+  <si>
+    <t>{.pg532}</t>
+  </si>
+  <si>
+    <t>{.pg542}</t>
+  </si>
+  <si>
+    <t>{.pg552}</t>
+  </si>
+  <si>
+    <t>{.pg562}</t>
+  </si>
+  <si>
+    <t>{.pg572}</t>
+  </si>
+  <si>
+    <t>{.pg582}</t>
+  </si>
+  <si>
+    <t>{.pg592}</t>
+  </si>
+  <si>
+    <t>{.pg502}</t>
+  </si>
+  <si>
+    <t>{.pg612}</t>
+  </si>
+  <si>
+    <t>{.pg622}</t>
+  </si>
+  <si>
+    <t>{.pg632}</t>
+  </si>
+  <si>
+    <t>{.pg652}</t>
+  </si>
+  <si>
+    <t>{.pg642}</t>
+  </si>
+  <si>
+    <t>{.pg712}</t>
+  </si>
+  <si>
+    <t>{.pg722}</t>
+  </si>
+  <si>
+    <t>{.pg812}</t>
+  </si>
+  <si>
+    <t>{.pg822}</t>
+  </si>
+  <si>
+    <t>{.pg832}</t>
+  </si>
+  <si>
+    <t>{.pg842}</t>
+  </si>
+  <si>
+    <t>{.pg852}</t>
+  </si>
+  <si>
+    <t>{.pg862}</t>
+  </si>
+  <si>
+    <t>{.pg872}</t>
+  </si>
+  <si>
+    <t>{.pg882}</t>
+  </si>
+  <si>
+    <t>{.pg892}</t>
+  </si>
+  <si>
+    <t>{.pg802}</t>
+  </si>
+  <si>
+    <t>{.pg912}</t>
+  </si>
+  <si>
+    <t>{.pg922}</t>
+  </si>
+  <si>
+    <t>{.pg113}</t>
+  </si>
+  <si>
+    <t>{.pg213}</t>
+  </si>
+  <si>
+    <t>{.pg223}</t>
+  </si>
+  <si>
+    <t>{.pg233}</t>
+  </si>
+  <si>
+    <t>{.pg313}</t>
+  </si>
+  <si>
+    <t>{.pg323}</t>
+  </si>
+  <si>
+    <t>{.pg333}</t>
+  </si>
+  <si>
+    <t>{.pg343}</t>
+  </si>
+  <si>
+    <t>{.pg413}</t>
+  </si>
+  <si>
+    <t>{.pg423}</t>
+  </si>
+  <si>
+    <t>{.pg513}</t>
+  </si>
+  <si>
+    <t>{.pg523}</t>
+  </si>
+  <si>
+    <t>{.pg533}</t>
+  </si>
+  <si>
+    <t>{.pg543}</t>
+  </si>
+  <si>
+    <t>{.pg553}</t>
+  </si>
+  <si>
+    <t>{.pg563}</t>
+  </si>
+  <si>
+    <t>{.pg573}</t>
+  </si>
+  <si>
+    <t>{.pg583}</t>
+  </si>
+  <si>
+    <t>{.pg593}</t>
+  </si>
+  <si>
+    <t>{.pg503}</t>
+  </si>
+  <si>
+    <t>{.pg613}</t>
+  </si>
+  <si>
+    <t>{.pg623}</t>
+  </si>
+  <si>
+    <t>{.pg633}</t>
+  </si>
+  <si>
+    <t>{.pg653}</t>
+  </si>
+  <si>
+    <t>{.pg643}</t>
+  </si>
+  <si>
+    <t>{.pg713}</t>
+  </si>
+  <si>
+    <t>{.pg723}</t>
+  </si>
+  <si>
+    <t>{.pg813}</t>
+  </si>
+  <si>
+    <t>{.pg823}</t>
+  </si>
+  <si>
+    <t>{.pg833}</t>
+  </si>
+  <si>
+    <t>{.pg843}</t>
+  </si>
+  <si>
+    <t>{.pg853}</t>
+  </si>
+  <si>
+    <t>{.pg863}</t>
+  </si>
+  <si>
+    <t>{.pg873}</t>
+  </si>
+  <si>
+    <t>{.pg883}</t>
+  </si>
+  <si>
+    <t>{.pg893}</t>
+  </si>
+  <si>
+    <t>{.pg803}</t>
+  </si>
+  <si>
+    <t>{.pg913}</t>
+  </si>
+  <si>
+    <t>{.pg923}</t>
+  </si>
+  <si>
+    <t>{.pg114}</t>
+  </si>
+  <si>
+    <t>{.pg214}</t>
+  </si>
+  <si>
+    <t>{.pg224}</t>
+  </si>
+  <si>
+    <t>{.pg234}</t>
+  </si>
+  <si>
+    <t>{.pg314}</t>
+  </si>
+  <si>
+    <t>{.pg324}</t>
+  </si>
+  <si>
+    <t>{.pg334}</t>
+  </si>
+  <si>
+    <t>{.pg344}</t>
+  </si>
+  <si>
+    <t>{.pg414}</t>
+  </si>
+  <si>
+    <t>{.pg424}</t>
+  </si>
+  <si>
+    <t>{.pg514}</t>
+  </si>
+  <si>
+    <t>{.pg524}</t>
+  </si>
+  <si>
+    <t>{.pg534}</t>
+  </si>
+  <si>
+    <t>{.pg544}</t>
+  </si>
+  <si>
+    <t>{.pg554}</t>
+  </si>
+  <si>
+    <t>{.pg564}</t>
+  </si>
+  <si>
+    <t>{.pg574}</t>
+  </si>
+  <si>
+    <t>{.pg584}</t>
+  </si>
+  <si>
+    <t>{.pg594}</t>
+  </si>
+  <si>
+    <t>{.pg504}</t>
+  </si>
+  <si>
+    <t>{.pg614}</t>
+  </si>
+  <si>
+    <t>{.pg624}</t>
+  </si>
+  <si>
+    <t>{.pg634}</t>
+  </si>
+  <si>
+    <t>{.pg654}</t>
+  </si>
+  <si>
+    <t>{.pg644}</t>
+  </si>
+  <si>
+    <t>{.pg714}</t>
+  </si>
+  <si>
+    <t>{.pg724}</t>
+  </si>
+  <si>
+    <t>{.pg814}</t>
+  </si>
+  <si>
+    <t>{.pg824}</t>
+  </si>
+  <si>
+    <t>{.pg834}</t>
+  </si>
+  <si>
+    <t>{.pg844}</t>
+  </si>
+  <si>
+    <t>{.pg854}</t>
+  </si>
+  <si>
+    <t>{.pg864}</t>
+  </si>
+  <si>
+    <t>{.pg874}</t>
+  </si>
+  <si>
+    <t>{.pg884}</t>
+  </si>
+  <si>
+    <t>{.pg894}</t>
+  </si>
+  <si>
+    <t>{.pg804}</t>
+  </si>
+  <si>
+    <t>{.pg914}</t>
+  </si>
+  <si>
+    <t>{.pg924}</t>
   </si>
 </sst>
 </file>
@@ -376,13 +955,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,35 +982,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,11 +1041,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,17 +1056,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,29 +1104,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,29 +1119,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,19 +1149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,13 +1179,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +1209,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,61 +1311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,49 +1329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,6 +1361,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -809,11 +1400,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,192 +1455,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,6 +1612,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1057,31 +1633,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,182 +1982,180 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:GL3"/>
+  <dimension ref="A1:GL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="BV10" sqref="BV10"/>
+    <sheetView tabSelected="1" topLeftCell="EZ1" workbookViewId="0">
+      <selection activeCell="GK10" sqref="GK10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="14.6083333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.65" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.1" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.6" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.775" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.33333333333333" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.15" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.0916666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="22.225" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22.7083333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.2333333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="21" max="21" width="18.2333333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.8333333333333" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.0416666666667" style="2" customWidth="1"/>
-    <col min="24" max="24" width="13.3333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="18.8666666666667" style="2" customWidth="1"/>
-    <col min="26" max="26" width="19.3166666666667" style="2" customWidth="1"/>
-    <col min="27" max="27" width="15.9333333333333" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11.475" style="2" customWidth="1"/>
-    <col min="29" max="29" width="17.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="10.625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="13.6416666666667" style="2" customWidth="1"/>
-    <col min="32" max="32" width="13.0416666666667" style="2" customWidth="1"/>
-    <col min="33" max="33" width="17.3916666666667" style="2" customWidth="1"/>
-    <col min="34" max="34" width="14.0083333333333" style="2" customWidth="1"/>
-    <col min="35" max="35" width="19.2" style="2" customWidth="1"/>
-    <col min="36" max="36" width="10.5" style="2" customWidth="1"/>
-    <col min="37" max="37" width="19" style="2" customWidth="1"/>
-    <col min="38" max="38" width="18.8333333333333" style="2" customWidth="1"/>
-    <col min="39" max="39" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="40" max="40" width="18.2333333333333" style="2" customWidth="1"/>
-    <col min="41" max="41" width="18.1166666666667" style="2" customWidth="1"/>
-    <col min="42" max="42" width="17.875" style="2" customWidth="1"/>
-    <col min="43" max="43" width="8" style="2" customWidth="1"/>
-    <col min="44" max="45" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="46" max="46" width="15.2" style="2" customWidth="1"/>
-    <col min="47" max="48" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="49" max="50" width="17.4" style="2" customWidth="1"/>
-    <col min="51" max="51" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="52" max="53" width="17.4" style="2" customWidth="1"/>
-    <col min="54" max="54" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="55" max="56" width="17.4" style="2" customWidth="1"/>
-    <col min="57" max="57" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="58" max="58" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="59" max="62" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="63" max="63" width="18.4" style="2" customWidth="1"/>
-    <col min="64" max="64" width="8" style="2" customWidth="1"/>
-    <col min="65" max="65" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="66" max="74" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="75" max="75" width="18.4" style="2" customWidth="1"/>
-    <col min="76" max="76" width="8" style="2" customWidth="1"/>
-    <col min="77" max="77" width="15.2" style="2" customWidth="1"/>
-    <col min="78" max="78" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="79" max="80" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="81" max="81" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="82" max="82" width="8" style="2" customWidth="1"/>
-    <col min="83" max="84" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="85" max="85" width="15.2" style="2" customWidth="1"/>
-    <col min="86" max="87" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="88" max="89" width="17.4" style="2" customWidth="1"/>
-    <col min="90" max="90" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="91" max="92" width="17.4" style="2" customWidth="1"/>
-    <col min="93" max="93" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="94" max="95" width="17.4" style="2" customWidth="1"/>
-    <col min="96" max="96" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="97" max="97" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="98" max="101" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="102" max="102" width="18.4" style="2" customWidth="1"/>
-    <col min="103" max="103" width="8" style="2" customWidth="1"/>
-    <col min="104" max="104" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="105" max="113" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="114" max="114" width="18.4" style="2" customWidth="1"/>
-    <col min="115" max="115" width="8" style="2" customWidth="1"/>
-    <col min="116" max="116" width="15.2" style="2" customWidth="1"/>
-    <col min="117" max="117" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="118" max="119" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="120" max="120" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="121" max="121" width="8" style="2" customWidth="1"/>
-    <col min="122" max="123" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="124" max="124" width="15.2" style="2" customWidth="1"/>
-    <col min="125" max="126" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="127" max="128" width="17.4" style="2" customWidth="1"/>
-    <col min="129" max="129" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="130" max="131" width="17.4" style="2" customWidth="1"/>
-    <col min="132" max="132" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="133" max="134" width="17.4" style="2" customWidth="1"/>
-    <col min="135" max="135" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="136" max="136" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="137" max="140" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="141" max="141" width="18.4" style="2" customWidth="1"/>
-    <col min="142" max="142" width="8" style="2" customWidth="1"/>
-    <col min="143" max="143" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="144" max="152" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="153" max="153" width="18.4" style="2" customWidth="1"/>
-    <col min="154" max="154" width="8" style="2" customWidth="1"/>
-    <col min="155" max="155" width="15.2" style="2" customWidth="1"/>
-    <col min="156" max="156" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="157" max="158" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="159" max="159" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="160" max="160" width="8" style="2" customWidth="1"/>
-    <col min="161" max="162" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="163" max="163" width="15.2" style="2" customWidth="1"/>
-    <col min="164" max="165" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="166" max="167" width="17.4" style="2" customWidth="1"/>
-    <col min="168" max="168" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="169" max="170" width="17.4" style="2" customWidth="1"/>
-    <col min="171" max="171" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="172" max="173" width="17.4" style="2" customWidth="1"/>
-    <col min="174" max="174" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="175" max="175" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="176" max="179" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="180" max="180" width="18.4" style="2" customWidth="1"/>
-    <col min="181" max="181" width="8" style="2" customWidth="1"/>
-    <col min="182" max="182" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="183" max="191" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="192" max="192" width="18.4" style="2" customWidth="1"/>
-    <col min="193" max="193" width="8" style="2" customWidth="1"/>
-    <col min="194" max="194" width="15.2" style="2" customWidth="1"/>
-    <col min="195" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="14.6083333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.65" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.6" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.1" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.6" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.775" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.825" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.8916666666667" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.3333333333333" style="6" customWidth="1"/>
+    <col min="12" max="12" width="17.15" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14.9666666666667" style="6" customWidth="1"/>
+    <col min="14" max="14" width="19.8" style="6" customWidth="1"/>
+    <col min="15" max="15" width="17.5083333333333" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.0916666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="22.225" style="3" customWidth="1"/>
+    <col min="18" max="18" width="22.7083333333333" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.2333333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="20.1666666666667" style="3" customWidth="1"/>
+    <col min="21" max="21" width="18.2333333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="13.0416666666667" style="3" customWidth="1"/>
+    <col min="24" max="24" width="13.3333333333333" style="3" customWidth="1"/>
+    <col min="25" max="25" width="18.8666666666667" style="3" customWidth="1"/>
+    <col min="26" max="26" width="19.3166666666667" style="3" customWidth="1"/>
+    <col min="27" max="27" width="15.9333333333333" style="3" customWidth="1"/>
+    <col min="28" max="28" width="11.475" style="3" customWidth="1"/>
+    <col min="29" max="29" width="17.625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="10.625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="13.6416666666667" style="3" customWidth="1"/>
+    <col min="32" max="32" width="13.0416666666667" style="3" customWidth="1"/>
+    <col min="33" max="33" width="17.3916666666667" style="3" customWidth="1"/>
+    <col min="34" max="34" width="14.0083333333333" style="3" customWidth="1"/>
+    <col min="35" max="35" width="19.2" style="3" customWidth="1"/>
+    <col min="36" max="36" width="10.5" style="3" customWidth="1"/>
+    <col min="37" max="37" width="19" style="3" customWidth="1"/>
+    <col min="38" max="38" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="39" max="41" width="14.8333333333333" style="3" customWidth="1"/>
+    <col min="42" max="42" width="12.8333333333333" style="3" customWidth="1"/>
+    <col min="43" max="43" width="8.83333333333333" style="3" customWidth="1"/>
+    <col min="44" max="45" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="46" max="46" width="16.8333333333333" style="3" customWidth="1"/>
+    <col min="47" max="48" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="49" max="50" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="51" max="51" width="8.6" style="3" customWidth="1"/>
+    <col min="52" max="53" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="54" max="54" width="8.6" style="3" customWidth="1"/>
+    <col min="55" max="56" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="57" max="57" width="8.6" style="3" customWidth="1"/>
+    <col min="58" max="58" width="11.6" style="3" customWidth="1"/>
+    <col min="59" max="62" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="63" max="63" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="64" max="64" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="65" max="65" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="66" max="74" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="75" max="75" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="76" max="76" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="77" max="77" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="78" max="78" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="79" max="80" width="22.2666666666667" style="3" customWidth="1"/>
+    <col min="81" max="81" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="82" max="82" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="83" max="84" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="85" max="85" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="86" max="87" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="88" max="89" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="90" max="90" width="8.6" style="3" customWidth="1"/>
+    <col min="91" max="92" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="93" max="93" width="8.6" style="3" customWidth="1"/>
+    <col min="94" max="95" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="96" max="96" width="8.6" style="3" customWidth="1"/>
+    <col min="97" max="97" width="11.6" style="3" customWidth="1"/>
+    <col min="98" max="101" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="102" max="102" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="103" max="103" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="104" max="104" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="105" max="113" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="114" max="114" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="115" max="115" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="116" max="116" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="117" max="117" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="118" max="119" width="22.2666666666667" style="3" customWidth="1"/>
+    <col min="120" max="120" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="121" max="121" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="122" max="123" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="124" max="124" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="125" max="126" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="127" max="128" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="129" max="129" width="8.6" style="3" customWidth="1"/>
+    <col min="130" max="131" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="132" max="132" width="8.6" style="3" customWidth="1"/>
+    <col min="133" max="134" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="135" max="135" width="8.6" style="3" customWidth="1"/>
+    <col min="136" max="136" width="11.6" style="3" customWidth="1"/>
+    <col min="137" max="140" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="141" max="141" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="142" max="142" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="143" max="143" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="144" max="152" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="153" max="153" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="154" max="154" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="155" max="155" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="156" max="156" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="157" max="158" width="22.2666666666667" style="3" customWidth="1"/>
+    <col min="159" max="159" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="160" max="160" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="161" max="162" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="163" max="163" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="164" max="165" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="166" max="167" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="168" max="168" width="8.6" style="3" customWidth="1"/>
+    <col min="169" max="170" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="171" max="171" width="8.6" style="3" customWidth="1"/>
+    <col min="172" max="173" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="174" max="174" width="8.6" style="3" customWidth="1"/>
+    <col min="175" max="175" width="11.6" style="3" customWidth="1"/>
+    <col min="176" max="179" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="180" max="180" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="181" max="181" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="182" max="182" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="183" max="191" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="192" max="192" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="193" max="193" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="194" max="194" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="195" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:194">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:194">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="9"/>
@@ -1595,190 +2166,190 @@
       <c r="S1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
       <c r="AB1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
       <c r="AJ1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13"/>
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="13"/>
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="13"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="13"/>
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13"/>
+      <c r="EX1" s="13"/>
+      <c r="EY1" s="13"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="13"/>
+      <c r="FF1" s="13"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="13"/>
+      <c r="FK1" s="13"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
+      <c r="FO1" s="13"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="13"/>
+      <c r="FR1" s="13"/>
+      <c r="FS1" s="13"/>
+      <c r="FT1" s="13"/>
+      <c r="FU1" s="13"/>
+      <c r="FV1" s="13"/>
+      <c r="FW1" s="13"/>
+      <c r="FX1" s="13"/>
+      <c r="FY1" s="13"/>
+      <c r="FZ1" s="13"/>
+      <c r="GA1" s="13"/>
+      <c r="GB1" s="13"/>
+      <c r="GC1" s="13"/>
+      <c r="GD1" s="13"/>
+      <c r="GE1" s="13"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="13"/>
+      <c r="GH1" s="13"/>
+      <c r="GI1" s="13"/>
+      <c r="GJ1" s="13"/>
+      <c r="GK1" s="13"/>
+      <c r="GL1" s="13"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:194">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -1787,98 +2358,98 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="9"/>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="T2" s="9"/>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11" t="s">
+      <c r="V2" s="10"/>
+      <c r="W2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11" t="s">
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="8" t="s">
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AR2" s="9"/>
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AV2" s="9"/>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AX2" s="9"/>
@@ -1890,18 +2461,18 @@
       <c r="BD2" s="9"/>
       <c r="BE2" s="9"/>
       <c r="BF2" s="9"/>
-      <c r="BG2" s="8" t="s">
+      <c r="BG2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="BH2" s="9"/>
       <c r="BI2" s="9"/>
       <c r="BJ2" s="9"/>
       <c r="BK2" s="9"/>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="8" t="s">
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="9" t="s">
         <v>46</v>
       </c>
       <c r="BO2" s="9"/>
@@ -1915,25 +2486,25 @@
       <c r="BW2" s="9"/>
       <c r="BX2" s="9"/>
       <c r="BY2" s="9"/>
-      <c r="BZ2" s="10" t="s">
+      <c r="BZ2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="8" t="s">
+      <c r="CA2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="CB2" s="9"/>
       <c r="CC2" s="9"/>
-      <c r="CD2" s="8" t="s">
+      <c r="CD2" s="9" t="s">
         <v>49</v>
       </c>
       <c r="CE2" s="9"/>
       <c r="CF2" s="9"/>
       <c r="CG2" s="9"/>
-      <c r="CH2" s="8" t="s">
+      <c r="CH2" s="9" t="s">
         <v>50</v>
       </c>
       <c r="CI2" s="9"/>
-      <c r="CJ2" s="8" t="s">
+      <c r="CJ2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="CK2" s="9"/>
@@ -1945,18 +2516,18 @@
       <c r="CQ2" s="9"/>
       <c r="CR2" s="9"/>
       <c r="CS2" s="9"/>
-      <c r="CT2" s="8" t="s">
+      <c r="CT2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="CU2" s="9"/>
       <c r="CV2" s="9"/>
       <c r="CW2" s="9"/>
       <c r="CX2" s="9"/>
-      <c r="CY2" s="8" t="s">
+      <c r="CY2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="CZ2" s="9"/>
-      <c r="DA2" s="8" t="s">
+      <c r="DA2" s="9" t="s">
         <v>54</v>
       </c>
       <c r="DB2" s="9"/>
@@ -1970,25 +2541,25 @@
       <c r="DJ2" s="9"/>
       <c r="DK2" s="9"/>
       <c r="DL2" s="9"/>
-      <c r="DM2" s="10" t="s">
+      <c r="DM2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="DN2" s="8" t="s">
+      <c r="DN2" s="9" t="s">
         <v>56</v>
       </c>
       <c r="DO2" s="9"/>
       <c r="DP2" s="9"/>
-      <c r="DQ2" s="8" t="s">
+      <c r="DQ2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="DR2" s="9"/>
       <c r="DS2" s="9"/>
       <c r="DT2" s="9"/>
-      <c r="DU2" s="8" t="s">
+      <c r="DU2" s="9" t="s">
         <v>58</v>
       </c>
       <c r="DV2" s="9"/>
-      <c r="DW2" s="8" t="s">
+      <c r="DW2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="DX2" s="9"/>
@@ -2000,18 +2571,18 @@
       <c r="ED2" s="9"/>
       <c r="EE2" s="9"/>
       <c r="EF2" s="9"/>
-      <c r="EG2" s="8" t="s">
+      <c r="EG2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="EH2" s="9"/>
       <c r="EI2" s="9"/>
       <c r="EJ2" s="9"/>
       <c r="EK2" s="9"/>
-      <c r="EL2" s="8" t="s">
+      <c r="EL2" s="9" t="s">
         <v>61</v>
       </c>
       <c r="EM2" s="9"/>
-      <c r="EN2" s="8" t="s">
+      <c r="EN2" s="9" t="s">
         <v>62</v>
       </c>
       <c r="EO2" s="9"/>
@@ -2025,25 +2596,25 @@
       <c r="EW2" s="9"/>
       <c r="EX2" s="9"/>
       <c r="EY2" s="9"/>
-      <c r="EZ2" s="10" t="s">
+      <c r="EZ2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="FA2" s="8" t="s">
+      <c r="FA2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="FB2" s="9"/>
       <c r="FC2" s="9"/>
-      <c r="FD2" s="8" t="s">
+      <c r="FD2" s="9" t="s">
         <v>65</v>
       </c>
       <c r="FE2" s="9"/>
       <c r="FF2" s="9"/>
       <c r="FG2" s="9"/>
-      <c r="FH2" s="8" t="s">
+      <c r="FH2" s="9" t="s">
         <v>66</v>
       </c>
       <c r="FI2" s="9"/>
-      <c r="FJ2" s="8" t="s">
+      <c r="FJ2" s="9" t="s">
         <v>67</v>
       </c>
       <c r="FK2" s="9"/>
@@ -2055,18 +2626,18 @@
       <c r="FQ2" s="9"/>
       <c r="FR2" s="9"/>
       <c r="FS2" s="9"/>
-      <c r="FT2" s="8" t="s">
+      <c r="FT2" s="9" t="s">
         <v>68</v>
       </c>
       <c r="FU2" s="9"/>
       <c r="FV2" s="9"/>
       <c r="FW2" s="9"/>
       <c r="FX2" s="9"/>
-      <c r="FY2" s="8" t="s">
+      <c r="FY2" s="9" t="s">
         <v>69</v>
       </c>
       <c r="FZ2" s="9"/>
-      <c r="GA2" s="8" t="s">
+      <c r="GA2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="GB2" s="9"/>
@@ -2081,10 +2652,10 @@
       <c r="GK2" s="9"/>
       <c r="GL2" s="9"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43" customHeight="1" spans="1:194">
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:194">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -2093,516 +2664,1098 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="15" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="15" t="s">
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="15" t="s">
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN3" s="15" t="s">
+      <c r="AN3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AO3" s="15" t="s">
+      <c r="AO3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AP3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AR3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AS3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AT3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AU3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AV3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AW3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AX3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="AY3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AZ3" s="10" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="10" t="s">
+      <c r="BA3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BB3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="BC3" s="10" t="s">
+      <c r="BC3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="BD3" s="10" t="s">
+      <c r="BD3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="BE3" s="10" t="s">
+      <c r="BE3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="BF3" s="10" t="s">
+      <c r="BF3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="BG3" s="10" t="s">
+      <c r="BG3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="BH3" s="10" t="s">
+      <c r="BH3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="BI3" s="10" t="s">
+      <c r="BI3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="BJ3" s="10" t="s">
+      <c r="BJ3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="BK3" s="10" t="s">
+      <c r="BK3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="BL3" s="10" t="s">
+      <c r="BL3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="BM3" s="10" t="s">
+      <c r="BM3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="BN3" s="10" t="s">
+      <c r="BN3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="BO3" s="10" t="s">
+      <c r="BO3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="BP3" s="10" t="s">
+      <c r="BP3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="BQ3" s="10" t="s">
+      <c r="BQ3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BR3" s="10" t="s">
+      <c r="BR3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="BS3" s="10" t="s">
+      <c r="BS3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="10" t="s">
+      <c r="BT3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="BU3" s="10" t="s">
+      <c r="BU3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="BV3" s="10" t="s">
+      <c r="BV3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BW3" s="10" t="s">
+      <c r="BW3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BX3" s="10" t="s">
+      <c r="BX3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="BY3" s="10" t="s">
+      <c r="BY3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="BZ3" s="10" t="s">
+      <c r="BZ3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="CA3" s="10" t="s">
+      <c r="CA3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="CB3" s="10" t="s">
+      <c r="CB3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="CC3" s="10" t="s">
+      <c r="CC3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CD3" s="10" t="s">
+      <c r="CD3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CE3" s="10" t="s">
+      <c r="CE3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="CF3" s="10" t="s">
+      <c r="CF3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CG3" s="10" t="s">
+      <c r="CG3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="10" t="s">
+      <c r="CH3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CI3" s="10" t="s">
+      <c r="CI3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CJ3" s="10" t="s">
+      <c r="CJ3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="CK3" s="10" t="s">
+      <c r="CK3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="CL3" s="10" t="s">
+      <c r="CL3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="CM3" s="10" t="s">
+      <c r="CM3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CN3" s="10" t="s">
+      <c r="CN3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="CO3" s="10" t="s">
+      <c r="CO3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="CP3" s="10" t="s">
+      <c r="CP3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="CQ3" s="10" t="s">
+      <c r="CQ3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="CR3" s="10" t="s">
+      <c r="CR3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="CS3" s="10" t="s">
+      <c r="CS3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CT3" s="10" t="s">
+      <c r="CT3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="CU3" s="10" t="s">
+      <c r="CU3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="CV3" s="10" t="s">
+      <c r="CV3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="CW3" s="10" t="s">
+      <c r="CW3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="CX3" s="10" t="s">
+      <c r="CX3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="CY3" s="10" t="s">
+      <c r="CY3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="CZ3" s="10" t="s">
+      <c r="CZ3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="DA3" s="10" t="s">
+      <c r="DA3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="DB3" s="10" t="s">
+      <c r="DB3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="DC3" s="10" t="s">
+      <c r="DC3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="DD3" s="10" t="s">
+      <c r="DD3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="DE3" s="10" t="s">
+      <c r="DE3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="DF3" s="10" t="s">
+      <c r="DF3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="DG3" s="10" t="s">
+      <c r="DG3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="DH3" s="10" t="s">
+      <c r="DH3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="DI3" s="10" t="s">
+      <c r="DI3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="DJ3" s="10" t="s">
+      <c r="DJ3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="DK3" s="10" t="s">
+      <c r="DK3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="DL3" s="10" t="s">
+      <c r="DL3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="DM3" s="10" t="s">
+      <c r="DM3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="DN3" s="10" t="s">
+      <c r="DN3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="DO3" s="10" t="s">
+      <c r="DO3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="DP3" s="10" t="s">
+      <c r="DP3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="DQ3" s="10" t="s">
+      <c r="DQ3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="DR3" s="10" t="s">
+      <c r="DR3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="DS3" s="10" t="s">
+      <c r="DS3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="DT3" s="10" t="s">
+      <c r="DT3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="DU3" s="10" t="s">
+      <c r="DU3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="DV3" s="10" t="s">
+      <c r="DV3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="DW3" s="10" t="s">
+      <c r="DW3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="DX3" s="10" t="s">
+      <c r="DX3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="DY3" s="10" t="s">
+      <c r="DY3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="DZ3" s="10" t="s">
+      <c r="DZ3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="EA3" s="10" t="s">
+      <c r="EA3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="EB3" s="10" t="s">
+      <c r="EB3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="EC3" s="10" t="s">
+      <c r="EC3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="ED3" s="10" t="s">
+      <c r="ED3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="EE3" s="10" t="s">
+      <c r="EE3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="EF3" s="10" t="s">
+      <c r="EF3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="EG3" s="10" t="s">
+      <c r="EG3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="EH3" s="10" t="s">
+      <c r="EH3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="EI3" s="10" t="s">
+      <c r="EI3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="EJ3" s="10" t="s">
+      <c r="EJ3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="EK3" s="10" t="s">
+      <c r="EK3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="EL3" s="10" t="s">
+      <c r="EL3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="EM3" s="10" t="s">
+      <c r="EM3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="EN3" s="10" t="s">
+      <c r="EN3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="EO3" s="10" t="s">
+      <c r="EO3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="EP3" s="10" t="s">
+      <c r="EP3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="EQ3" s="10" t="s">
+      <c r="EQ3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="ER3" s="10" t="s">
+      <c r="ER3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="ES3" s="10" t="s">
+      <c r="ES3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="ET3" s="10" t="s">
+      <c r="ET3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="EU3" s="10" t="s">
+      <c r="EU3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="EV3" s="10" t="s">
+      <c r="EV3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="EW3" s="10" t="s">
+      <c r="EW3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="EX3" s="10" t="s">
+      <c r="EX3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="EY3" s="10" t="s">
+      <c r="EY3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="EZ3" s="10" t="s">
+      <c r="EZ3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="FA3" s="10" t="s">
+      <c r="FA3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="FB3" s="10" t="s">
+      <c r="FB3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="FC3" s="10" t="s">
+      <c r="FC3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="FD3" s="10" t="s">
+      <c r="FD3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="FE3" s="10" t="s">
+      <c r="FE3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="FF3" s="10" t="s">
+      <c r="FF3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="FG3" s="10" t="s">
+      <c r="FG3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="FH3" s="10" t="s">
+      <c r="FH3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="FI3" s="10" t="s">
+      <c r="FI3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="FJ3" s="10" t="s">
+      <c r="FJ3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="FK3" s="10" t="s">
+      <c r="FK3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="FL3" s="10" t="s">
+      <c r="FL3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="FM3" s="10" t="s">
+      <c r="FM3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="FN3" s="10" t="s">
+      <c r="FN3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="FO3" s="10" t="s">
+      <c r="FO3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="FP3" s="10" t="s">
+      <c r="FP3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="FQ3" s="10" t="s">
+      <c r="FQ3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="FR3" s="10" t="s">
+      <c r="FR3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="FS3" s="10" t="s">
+      <c r="FS3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="FT3" s="10" t="s">
+      <c r="FT3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="FU3" s="10" t="s">
+      <c r="FU3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="FV3" s="10" t="s">
+      <c r="FV3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="FW3" s="10" t="s">
+      <c r="FW3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="FX3" s="10" t="s">
+      <c r="FX3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="FY3" s="10" t="s">
+      <c r="FY3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="FZ3" s="10" t="s">
+      <c r="FZ3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="GA3" s="10" t="s">
+      <c r="GA3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="GB3" s="10" t="s">
+      <c r="GB3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="GC3" s="10" t="s">
+      <c r="GC3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="GD3" s="10" t="s">
+      <c r="GD3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="GE3" s="10" t="s">
+      <c r="GE3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="GF3" s="10" t="s">
+      <c r="GF3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="GG3" s="10" t="s">
+      <c r="GG3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="GH3" s="10" t="s">
+      <c r="GH3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="GI3" s="10" t="s">
+      <c r="GI3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="GJ3" s="10" t="s">
+      <c r="GJ3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="GK3" s="10" t="s">
+      <c r="GK3" s="12" t="s">
         <v>104</v>
       </c>
       <c r="GL3" s="16" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:194">
+      <c r="A4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="BF4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ4" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BK4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BM4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="BP4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BR4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="BU4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BV4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BW4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY4" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BZ4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CB4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="CC4" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CD4" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="CE4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="CH4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="CI4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="CK4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="CM4" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="CN4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="CO4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CP4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR4" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="CS4" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="CV4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="CW4" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="CX4" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="CY4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="CZ4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="DA4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="DB4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="DC4" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="DD4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="DE4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="DF4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="DG4" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="DH4" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="DI4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="DJ4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="DK4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="DL4" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="DM4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="DN4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="DO4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DP4" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="DQ4" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="DR4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="DS4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="DT4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="DU4" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="DV4" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="DW4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="DX4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="DY4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DZ4" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="EA4" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="EB4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="EC4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="ED4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="EE4" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF4" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="EG4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="EH4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="EI4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="EJ4" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="EK4" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="EL4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="EM4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EO4" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="EP4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="EQ4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="ER4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="ES4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="ET4" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="EU4" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="EV4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="EW4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="EX4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="EY4" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="EZ4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="FA4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="FB4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="FC4" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="FD4" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="FE4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="FF4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="FG4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="FH4" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="FI4" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="FJ4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="FK4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="FL4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="FM4" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="FN4" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="FO4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="FP4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="FQ4" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FR4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="FS4" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="FT4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="FU4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="FV4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="FW4" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="FX4" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="FY4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="FZ4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GA4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GB4" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="GC4" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="GD4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GE4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="GF4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="GG4" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="GH4" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="GI4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="GJ4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="GK4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="GL4" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
@@ -955,11 +955,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -990,74 +990,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,24 +1004,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,9 +1019,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,24 +1088,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1146,6 +1146,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1173,7 +1185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,25 +1197,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,7 +1215,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,7 +1269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,13 +1293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,25 +1311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,49 +1329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,11 +1358,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,6 +1406,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1415,17 +1430,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,185 +1455,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1630,32 +1621,32 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1985,7 +1976,7 @@
   <dimension ref="A1:GL4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EZ1" workbookViewId="0">
-      <selection activeCell="GK10" sqref="GK10"/>
+      <selection activeCell="FC7" sqref="FC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -2125,7 +2116,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -2152,7 +2143,7 @@
       <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
@@ -2163,193 +2154,193 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13" t="s">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13" t="s">
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
-      <c r="DF1" s="13"/>
-      <c r="DG1" s="13"/>
-      <c r="DH1" s="13"/>
-      <c r="DI1" s="13"/>
-      <c r="DJ1" s="13"/>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13"/>
-      <c r="DN1" s="13"/>
-      <c r="DO1" s="13"/>
-      <c r="DP1" s="13"/>
-      <c r="DQ1" s="13"/>
-      <c r="DR1" s="13"/>
-      <c r="DS1" s="13"/>
-      <c r="DT1" s="13"/>
-      <c r="DU1" s="13"/>
-      <c r="DV1" s="13"/>
-      <c r="DW1" s="13"/>
-      <c r="DX1" s="13"/>
-      <c r="DY1" s="13"/>
-      <c r="DZ1" s="13"/>
-      <c r="EA1" s="13"/>
-      <c r="EB1" s="13"/>
-      <c r="EC1" s="13"/>
-      <c r="ED1" s="13"/>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="13"/>
-      <c r="EG1" s="13"/>
-      <c r="EH1" s="13"/>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="13"/>
-      <c r="EK1" s="13"/>
-      <c r="EL1" s="13"/>
-      <c r="EM1" s="13"/>
-      <c r="EN1" s="13"/>
-      <c r="EO1" s="13"/>
-      <c r="EP1" s="13"/>
-      <c r="EQ1" s="13"/>
-      <c r="ER1" s="13"/>
-      <c r="ES1" s="13"/>
-      <c r="ET1" s="13"/>
-      <c r="EU1" s="13"/>
-      <c r="EV1" s="13"/>
-      <c r="EW1" s="13"/>
-      <c r="EX1" s="13"/>
-      <c r="EY1" s="13"/>
-      <c r="EZ1" s="13"/>
-      <c r="FA1" s="13"/>
-      <c r="FB1" s="13"/>
-      <c r="FC1" s="13"/>
-      <c r="FD1" s="13"/>
-      <c r="FE1" s="13"/>
-      <c r="FF1" s="13"/>
-      <c r="FG1" s="13"/>
-      <c r="FH1" s="13"/>
-      <c r="FI1" s="13"/>
-      <c r="FJ1" s="13"/>
-      <c r="FK1" s="13"/>
-      <c r="FL1" s="13"/>
-      <c r="FM1" s="13"/>
-      <c r="FN1" s="13"/>
-      <c r="FO1" s="13"/>
-      <c r="FP1" s="13"/>
-      <c r="FQ1" s="13"/>
-      <c r="FR1" s="13"/>
-      <c r="FS1" s="13"/>
-      <c r="FT1" s="13"/>
-      <c r="FU1" s="13"/>
-      <c r="FV1" s="13"/>
-      <c r="FW1" s="13"/>
-      <c r="FX1" s="13"/>
-      <c r="FY1" s="13"/>
-      <c r="FZ1" s="13"/>
-      <c r="GA1" s="13"/>
-      <c r="GB1" s="13"/>
-      <c r="GC1" s="13"/>
-      <c r="GD1" s="13"/>
-      <c r="GE1" s="13"/>
-      <c r="GF1" s="13"/>
-      <c r="GG1" s="13"/>
-      <c r="GH1" s="13"/>
-      <c r="GI1" s="13"/>
-      <c r="GJ1" s="13"/>
-      <c r="GK1" s="13"/>
-      <c r="GL1" s="13"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="12"/>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="12"/>
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="12"/>
+      <c r="CA1" s="12"/>
+      <c r="CB1" s="12"/>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="12"/>
+      <c r="CE1" s="12"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="12"/>
+      <c r="CH1" s="12"/>
+      <c r="CI1" s="12"/>
+      <c r="CJ1" s="12"/>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="12"/>
+      <c r="CN1" s="12"/>
+      <c r="CO1" s="12"/>
+      <c r="CP1" s="12"/>
+      <c r="CQ1" s="12"/>
+      <c r="CR1" s="12"/>
+      <c r="CS1" s="12"/>
+      <c r="CT1" s="12"/>
+      <c r="CU1" s="12"/>
+      <c r="CV1" s="12"/>
+      <c r="CW1" s="12"/>
+      <c r="CX1" s="12"/>
+      <c r="CY1" s="12"/>
+      <c r="CZ1" s="12"/>
+      <c r="DA1" s="12"/>
+      <c r="DB1" s="12"/>
+      <c r="DC1" s="12"/>
+      <c r="DD1" s="12"/>
+      <c r="DE1" s="12"/>
+      <c r="DF1" s="12"/>
+      <c r="DG1" s="12"/>
+      <c r="DH1" s="12"/>
+      <c r="DI1" s="12"/>
+      <c r="DJ1" s="12"/>
+      <c r="DK1" s="12"/>
+      <c r="DL1" s="12"/>
+      <c r="DM1" s="12"/>
+      <c r="DN1" s="12"/>
+      <c r="DO1" s="12"/>
+      <c r="DP1" s="12"/>
+      <c r="DQ1" s="12"/>
+      <c r="DR1" s="12"/>
+      <c r="DS1" s="12"/>
+      <c r="DT1" s="12"/>
+      <c r="DU1" s="12"/>
+      <c r="DV1" s="12"/>
+      <c r="DW1" s="12"/>
+      <c r="DX1" s="12"/>
+      <c r="DY1" s="12"/>
+      <c r="DZ1" s="12"/>
+      <c r="EA1" s="12"/>
+      <c r="EB1" s="12"/>
+      <c r="EC1" s="12"/>
+      <c r="ED1" s="12"/>
+      <c r="EE1" s="12"/>
+      <c r="EF1" s="12"/>
+      <c r="EG1" s="12"/>
+      <c r="EH1" s="12"/>
+      <c r="EI1" s="12"/>
+      <c r="EJ1" s="12"/>
+      <c r="EK1" s="12"/>
+      <c r="EL1" s="12"/>
+      <c r="EM1" s="12"/>
+      <c r="EN1" s="12"/>
+      <c r="EO1" s="12"/>
+      <c r="EP1" s="12"/>
+      <c r="EQ1" s="12"/>
+      <c r="ER1" s="12"/>
+      <c r="ES1" s="12"/>
+      <c r="ET1" s="12"/>
+      <c r="EU1" s="12"/>
+      <c r="EV1" s="12"/>
+      <c r="EW1" s="12"/>
+      <c r="EX1" s="12"/>
+      <c r="EY1" s="12"/>
+      <c r="EZ1" s="12"/>
+      <c r="FA1" s="12"/>
+      <c r="FB1" s="12"/>
+      <c r="FC1" s="12"/>
+      <c r="FD1" s="12"/>
+      <c r="FE1" s="12"/>
+      <c r="FF1" s="12"/>
+      <c r="FG1" s="12"/>
+      <c r="FH1" s="12"/>
+      <c r="FI1" s="12"/>
+      <c r="FJ1" s="12"/>
+      <c r="FK1" s="12"/>
+      <c r="FL1" s="12"/>
+      <c r="FM1" s="12"/>
+      <c r="FN1" s="12"/>
+      <c r="FO1" s="12"/>
+      <c r="FP1" s="12"/>
+      <c r="FQ1" s="12"/>
+      <c r="FR1" s="12"/>
+      <c r="FS1" s="12"/>
+      <c r="FT1" s="12"/>
+      <c r="FU1" s="12"/>
+      <c r="FV1" s="12"/>
+      <c r="FW1" s="12"/>
+      <c r="FX1" s="12"/>
+      <c r="FY1" s="12"/>
+      <c r="FZ1" s="12"/>
+      <c r="GA1" s="12"/>
+      <c r="GB1" s="12"/>
+      <c r="GC1" s="12"/>
+      <c r="GD1" s="12"/>
+      <c r="GE1" s="12"/>
+      <c r="GF1" s="12"/>
+      <c r="GG1" s="12"/>
+      <c r="GH1" s="12"/>
+      <c r="GI1" s="12"/>
+      <c r="GJ1" s="12"/>
+      <c r="GK1" s="12"/>
+      <c r="GL1" s="12"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:194">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -2358,19 +2349,19 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="9" t="s">
@@ -2381,64 +2372,64 @@
         <v>22</v>
       </c>
       <c r="T2" s="9"/>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AH2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AK2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AL2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="14" t="s">
+      <c r="AM2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AN2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
       <c r="AQ2" s="9" t="s">
         <v>41</v>
       </c>
@@ -2468,10 +2459,10 @@
       <c r="BI2" s="9"/>
       <c r="BJ2" s="9"/>
       <c r="BK2" s="9"/>
-      <c r="BL2" s="10" t="s">
+      <c r="BL2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="10"/>
+      <c r="BM2" s="9"/>
       <c r="BN2" s="9" t="s">
         <v>46</v>
       </c>
@@ -2486,7 +2477,7 @@
       <c r="BW2" s="9"/>
       <c r="BX2" s="9"/>
       <c r="BY2" s="9"/>
-      <c r="BZ2" s="12" t="s">
+      <c r="BZ2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="CA2" s="9" t="s">
@@ -2541,7 +2532,7 @@
       <c r="DJ2" s="9"/>
       <c r="DK2" s="9"/>
       <c r="DL2" s="9"/>
-      <c r="DM2" s="12" t="s">
+      <c r="DM2" s="11" t="s">
         <v>55</v>
       </c>
       <c r="DN2" s="9" t="s">
@@ -2596,7 +2587,7 @@
       <c r="EW2" s="9"/>
       <c r="EX2" s="9"/>
       <c r="EY2" s="9"/>
-      <c r="EZ2" s="12" t="s">
+      <c r="EZ2" s="11" t="s">
         <v>63</v>
       </c>
       <c r="FA2" s="9" t="s">
@@ -2655,7 +2646,7 @@
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:194">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -2664,526 +2655,526 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="14" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="14" t="s">
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="14" t="s">
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AN3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AO3" s="14" t="s">
+      <c r="AO3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AP3" s="14" t="s">
+      <c r="AP3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="15" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="15" t="s">
+      <c r="AR3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AS3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AT3" s="15" t="s">
+      <c r="AT3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AU3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AV3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AW3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AX3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AY3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="AZ3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BA3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BB3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BC3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BD3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BE3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="BF3" s="12" t="s">
+      <c r="BF3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="BG3" s="12" t="s">
+      <c r="BG3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="BH3" s="12" t="s">
+      <c r="BH3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="BI3" s="12" t="s">
+      <c r="BI3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BJ3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="BK3" s="12" t="s">
+      <c r="BK3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="BL3" s="12" t="s">
+      <c r="BL3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="BM3" s="12" t="s">
+      <c r="BM3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="BN3" s="12" t="s">
+      <c r="BN3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="BO3" s="12" t="s">
+      <c r="BO3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="BP3" s="12" t="s">
+      <c r="BP3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="BQ3" s="12" t="s">
+      <c r="BQ3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="BR3" s="12" t="s">
+      <c r="BR3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="BS3" s="12" t="s">
+      <c r="BS3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="12" t="s">
+      <c r="BT3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="BU3" s="12" t="s">
+      <c r="BU3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="BV3" s="12" t="s">
+      <c r="BV3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BW3" s="12" t="s">
+      <c r="BW3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BX3" s="12" t="s">
+      <c r="BX3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="BY3" s="12" t="s">
+      <c r="BY3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="BZ3" s="12" t="s">
+      <c r="BZ3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="CA3" s="12" t="s">
+      <c r="CA3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="CB3" s="12" t="s">
+      <c r="CB3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="CC3" s="12" t="s">
+      <c r="CC3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="CD3" s="12" t="s">
+      <c r="CD3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="CE3" s="12" t="s">
+      <c r="CE3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="CF3" s="12" t="s">
+      <c r="CF3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="CG3" s="12" t="s">
+      <c r="CG3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="12" t="s">
+      <c r="CH3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="CI3" s="12" t="s">
+      <c r="CI3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="CJ3" s="12" t="s">
+      <c r="CJ3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="CK3" s="12" t="s">
+      <c r="CK3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="CL3" s="12" t="s">
+      <c r="CL3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="CM3" s="12" t="s">
+      <c r="CM3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="CN3" s="12" t="s">
+      <c r="CN3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="CO3" s="12" t="s">
+      <c r="CO3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="CP3" s="12" t="s">
+      <c r="CP3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="CQ3" s="12" t="s">
+      <c r="CQ3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="CR3" s="12" t="s">
+      <c r="CR3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="CS3" s="12" t="s">
+      <c r="CS3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="CT3" s="12" t="s">
+      <c r="CT3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="CU3" s="12" t="s">
+      <c r="CU3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="CV3" s="12" t="s">
+      <c r="CV3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="CW3" s="12" t="s">
+      <c r="CW3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="CX3" s="12" t="s">
+      <c r="CX3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="CY3" s="12" t="s">
+      <c r="CY3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="CZ3" s="12" t="s">
+      <c r="CZ3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="DA3" s="12" t="s">
+      <c r="DA3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="DB3" s="12" t="s">
+      <c r="DB3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="DC3" s="12" t="s">
+      <c r="DC3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="DD3" s="12" t="s">
+      <c r="DD3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="DE3" s="12" t="s">
+      <c r="DE3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="DF3" s="12" t="s">
+      <c r="DF3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="DG3" s="12" t="s">
+      <c r="DG3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="DH3" s="12" t="s">
+      <c r="DH3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="DI3" s="12" t="s">
+      <c r="DI3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="DJ3" s="12" t="s">
+      <c r="DJ3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="DK3" s="12" t="s">
+      <c r="DK3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="DL3" s="12" t="s">
+      <c r="DL3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="DM3" s="12" t="s">
+      <c r="DM3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="DN3" s="12" t="s">
+      <c r="DN3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="DO3" s="12" t="s">
+      <c r="DO3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="DP3" s="12" t="s">
+      <c r="DP3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="DQ3" s="12" t="s">
+      <c r="DQ3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="DR3" s="12" t="s">
+      <c r="DR3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="DS3" s="12" t="s">
+      <c r="DS3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="DT3" s="12" t="s">
+      <c r="DT3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="DU3" s="12" t="s">
+      <c r="DU3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="DV3" s="12" t="s">
+      <c r="DV3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="DW3" s="12" t="s">
+      <c r="DW3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="DX3" s="12" t="s">
+      <c r="DX3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="DY3" s="12" t="s">
+      <c r="DY3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="DZ3" s="12" t="s">
+      <c r="DZ3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="EA3" s="12" t="s">
+      <c r="EA3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="EB3" s="12" t="s">
+      <c r="EB3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="EC3" s="12" t="s">
+      <c r="EC3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="ED3" s="12" t="s">
+      <c r="ED3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="EE3" s="12" t="s">
+      <c r="EE3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="EF3" s="12" t="s">
+      <c r="EF3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="EG3" s="12" t="s">
+      <c r="EG3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="EH3" s="12" t="s">
+      <c r="EH3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="EI3" s="12" t="s">
+      <c r="EI3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="EJ3" s="12" t="s">
+      <c r="EJ3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="EK3" s="12" t="s">
+      <c r="EK3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="EL3" s="12" t="s">
+      <c r="EL3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="EM3" s="12" t="s">
+      <c r="EM3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="EN3" s="12" t="s">
+      <c r="EN3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="EO3" s="12" t="s">
+      <c r="EO3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="EP3" s="12" t="s">
+      <c r="EP3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="EQ3" s="12" t="s">
+      <c r="EQ3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="ER3" s="12" t="s">
+      <c r="ER3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="ES3" s="12" t="s">
+      <c r="ES3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="ET3" s="12" t="s">
+      <c r="ET3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="EU3" s="12" t="s">
+      <c r="EU3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="EV3" s="12" t="s">
+      <c r="EV3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="EW3" s="12" t="s">
+      <c r="EW3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="EX3" s="12" t="s">
+      <c r="EX3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="EY3" s="12" t="s">
+      <c r="EY3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="EZ3" s="12" t="s">
+      <c r="EZ3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="FA3" s="12" t="s">
+      <c r="FA3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="FB3" s="12" t="s">
+      <c r="FB3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="FC3" s="12" t="s">
+      <c r="FC3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="FD3" s="12" t="s">
+      <c r="FD3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="FE3" s="12" t="s">
+      <c r="FE3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="FF3" s="12" t="s">
+      <c r="FF3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="FG3" s="12" t="s">
+      <c r="FG3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="FH3" s="12" t="s">
+      <c r="FH3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="FI3" s="12" t="s">
+      <c r="FI3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="FJ3" s="12" t="s">
+      <c r="FJ3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="FK3" s="12" t="s">
+      <c r="FK3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="FL3" s="12" t="s">
+      <c r="FL3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="FM3" s="12" t="s">
+      <c r="FM3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="FN3" s="12" t="s">
+      <c r="FN3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="FO3" s="12" t="s">
+      <c r="FO3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="FP3" s="12" t="s">
+      <c r="FP3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="FQ3" s="12" t="s">
+      <c r="FQ3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="FR3" s="12" t="s">
+      <c r="FR3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="FS3" s="12" t="s">
+      <c r="FS3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="FT3" s="12" t="s">
+      <c r="FT3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="FU3" s="12" t="s">
+      <c r="FU3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="FV3" s="12" t="s">
+      <c r="FV3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="FW3" s="12" t="s">
+      <c r="FW3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="FX3" s="12" t="s">
+      <c r="FX3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="FY3" s="12" t="s">
+      <c r="FY3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="FZ3" s="12" t="s">
+      <c r="FZ3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="GA3" s="12" t="s">
+      <c r="GA3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="GB3" s="12" t="s">
+      <c r="GB3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="GC3" s="12" t="s">
+      <c r="GC3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="GD3" s="12" t="s">
+      <c r="GD3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="GE3" s="12" t="s">
+      <c r="GE3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="GF3" s="12" t="s">
+      <c r="GF3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="GG3" s="12" t="s">
+      <c r="GG3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="GH3" s="12" t="s">
+      <c r="GH3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="GI3" s="12" t="s">
+      <c r="GI3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="GJ3" s="12" t="s">
+      <c r="GJ3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="GK3" s="12" t="s">
+      <c r="GK3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="GL3" s="16" t="s">
+      <c r="GL3" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:194">
+    <row r="4" s="2" customFormat="1" ht="18" spans="1:194">
       <c r="A4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3195,10 +3186,10 @@
       <c r="F4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="2" t="s">
         <v>125</v>
       </c>
@@ -3208,10 +3199,10 @@
       <c r="K4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>129</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -3223,10 +3214,10 @@
       <c r="P4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>134</v>
       </c>
       <c r="S4" s="2" t="s">
@@ -3238,10 +3229,10 @@
       <c r="U4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="10" t="s">
         <v>139</v>
       </c>
       <c r="X4" s="2" t="s">
@@ -3253,10 +3244,10 @@
       <c r="Z4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" s="10" t="s">
         <v>144</v>
       </c>
       <c r="AC4" s="2" t="s">
@@ -3268,10 +3259,10 @@
       <c r="AE4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="10" t="s">
         <v>149</v>
       </c>
       <c r="AH4" s="2" t="s">
@@ -3283,10 +3274,10 @@
       <c r="AJ4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AK4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AL4" s="10" t="s">
         <v>154</v>
       </c>
       <c r="AM4" s="2" t="s">
@@ -3298,10 +3289,10 @@
       <c r="AO4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AP4" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>159</v>
       </c>
       <c r="AR4" s="2" t="s">
@@ -3313,10 +3304,10 @@
       <c r="AT4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AU4" s="11" t="s">
+      <c r="AU4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AV4" s="11" t="s">
+      <c r="AV4" s="10" t="s">
         <v>164</v>
       </c>
       <c r="AW4" s="2" t="s">
@@ -3328,10 +3319,10 @@
       <c r="AY4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AZ4" s="11" t="s">
+      <c r="AZ4" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="BA4" s="11" t="s">
+      <c r="BA4" s="10" t="s">
         <v>169</v>
       </c>
       <c r="BB4" s="2" t="s">
@@ -3343,10 +3334,10 @@
       <c r="BD4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BE4" s="11" t="s">
+      <c r="BE4" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="BF4" s="11" t="s">
+      <c r="BF4" s="10" t="s">
         <v>174</v>
       </c>
       <c r="BG4" s="2" t="s">
@@ -3358,10 +3349,10 @@
       <c r="BI4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="BJ4" s="11" t="s">
+      <c r="BJ4" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BK4" s="10" t="s">
         <v>179</v>
       </c>
       <c r="BL4" s="2" t="s">
@@ -3373,10 +3364,10 @@
       <c r="BN4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="BO4" s="11" t="s">
+      <c r="BO4" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BP4" s="10" t="s">
         <v>184</v>
       </c>
       <c r="BQ4" s="2" t="s">
@@ -3388,10 +3379,10 @@
       <c r="BS4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BT4" s="11" t="s">
+      <c r="BT4" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="BU4" s="11" t="s">
+      <c r="BU4" s="10" t="s">
         <v>189</v>
       </c>
       <c r="BV4" s="2" t="s">
@@ -3403,7 +3394,7 @@
       <c r="BX4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BY4" s="11" t="s">
+      <c r="BY4" s="10" t="s">
         <v>193</v>
       </c>
       <c r="BZ4" s="2" t="s">
@@ -3415,10 +3406,10 @@
       <c r="CB4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="CC4" s="11" t="s">
+      <c r="CC4" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="CD4" s="11" t="s">
+      <c r="CD4" s="10" t="s">
         <v>198</v>
       </c>
       <c r="CE4" s="2" t="s">
@@ -3430,10 +3421,10 @@
       <c r="CG4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="CH4" s="11" t="s">
+      <c r="CH4" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="CI4" s="11" t="s">
+      <c r="CI4" s="10" t="s">
         <v>203</v>
       </c>
       <c r="CJ4" s="2" t="s">
@@ -3445,10 +3436,10 @@
       <c r="CL4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CM4" s="11" t="s">
+      <c r="CM4" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="CN4" s="11" t="s">
+      <c r="CN4" s="10" t="s">
         <v>208</v>
       </c>
       <c r="CO4" s="2" t="s">
@@ -3460,10 +3451,10 @@
       <c r="CQ4" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="CR4" s="11" t="s">
+      <c r="CR4" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="CS4" s="11" t="s">
+      <c r="CS4" s="10" t="s">
         <v>213</v>
       </c>
       <c r="CT4" s="2" t="s">
@@ -3475,10 +3466,10 @@
       <c r="CV4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="CW4" s="11" t="s">
+      <c r="CW4" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="CX4" s="11" t="s">
+      <c r="CX4" s="10" t="s">
         <v>218</v>
       </c>
       <c r="CY4" s="2" t="s">
@@ -3490,10 +3481,10 @@
       <c r="DA4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="DB4" s="11" t="s">
+      <c r="DB4" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="DC4" s="11" t="s">
+      <c r="DC4" s="10" t="s">
         <v>223</v>
       </c>
       <c r="DD4" s="2" t="s">
@@ -3505,10 +3496,10 @@
       <c r="DF4" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="DG4" s="11" t="s">
+      <c r="DG4" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="DH4" s="11" t="s">
+      <c r="DH4" s="10" t="s">
         <v>228</v>
       </c>
       <c r="DI4" s="2" t="s">
@@ -3520,7 +3511,7 @@
       <c r="DK4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="DL4" s="11" t="s">
+      <c r="DL4" s="10" t="s">
         <v>232</v>
       </c>
       <c r="DM4" s="2" t="s">
@@ -3532,10 +3523,10 @@
       <c r="DO4" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="DP4" s="11" t="s">
+      <c r="DP4" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="DQ4" s="11" t="s">
+      <c r="DQ4" s="10" t="s">
         <v>237</v>
       </c>
       <c r="DR4" s="2" t="s">
@@ -3547,10 +3538,10 @@
       <c r="DT4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="DU4" s="11" t="s">
+      <c r="DU4" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="DV4" s="11" t="s">
+      <c r="DV4" s="10" t="s">
         <v>242</v>
       </c>
       <c r="DW4" s="2" t="s">
@@ -3562,10 +3553,10 @@
       <c r="DY4" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="DZ4" s="11" t="s">
+      <c r="DZ4" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="EA4" s="11" t="s">
+      <c r="EA4" s="10" t="s">
         <v>247</v>
       </c>
       <c r="EB4" s="2" t="s">
@@ -3577,10 +3568,10 @@
       <c r="ED4" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="EE4" s="11" t="s">
+      <c r="EE4" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="EF4" s="11" t="s">
+      <c r="EF4" s="10" t="s">
         <v>252</v>
       </c>
       <c r="EG4" s="2" t="s">
@@ -3592,10 +3583,10 @@
       <c r="EI4" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="EJ4" s="11" t="s">
+      <c r="EJ4" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="EK4" s="11" t="s">
+      <c r="EK4" s="10" t="s">
         <v>257</v>
       </c>
       <c r="EL4" s="2" t="s">
@@ -3607,10 +3598,10 @@
       <c r="EN4" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="EO4" s="11" t="s">
+      <c r="EO4" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="EP4" s="11" t="s">
+      <c r="EP4" s="10" t="s">
         <v>262</v>
       </c>
       <c r="EQ4" s="2" t="s">
@@ -3622,10 +3613,10 @@
       <c r="ES4" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="ET4" s="11" t="s">
+      <c r="ET4" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="EU4" s="11" t="s">
+      <c r="EU4" s="10" t="s">
         <v>267</v>
       </c>
       <c r="EV4" s="2" t="s">
@@ -3637,7 +3628,7 @@
       <c r="EX4" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="EY4" s="11" t="s">
+      <c r="EY4" s="10" t="s">
         <v>271</v>
       </c>
       <c r="EZ4" s="2" t="s">
@@ -3649,10 +3640,10 @@
       <c r="FB4" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="FC4" s="11" t="s">
+      <c r="FC4" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="FD4" s="11" t="s">
+      <c r="FD4" s="10" t="s">
         <v>276</v>
       </c>
       <c r="FE4" s="2" t="s">
@@ -3664,10 +3655,10 @@
       <c r="FG4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="FH4" s="11" t="s">
+      <c r="FH4" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="FI4" s="11" t="s">
+      <c r="FI4" s="10" t="s">
         <v>281</v>
       </c>
       <c r="FJ4" s="2" t="s">
@@ -3679,10 +3670,10 @@
       <c r="FL4" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="FM4" s="11" t="s">
+      <c r="FM4" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="FN4" s="11" t="s">
+      <c r="FN4" s="10" t="s">
         <v>286</v>
       </c>
       <c r="FO4" s="2" t="s">
@@ -3694,10 +3685,10 @@
       <c r="FQ4" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="FR4" s="11" t="s">
+      <c r="FR4" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="FS4" s="11" t="s">
+      <c r="FS4" s="10" t="s">
         <v>291</v>
       </c>
       <c r="FT4" s="2" t="s">
@@ -3709,10 +3700,10 @@
       <c r="FV4" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="FW4" s="11" t="s">
+      <c r="FW4" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="FX4" s="11" t="s">
+      <c r="FX4" s="10" t="s">
         <v>296</v>
       </c>
       <c r="FY4" s="2" t="s">
@@ -3724,10 +3715,10 @@
       <c r="GA4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="GB4" s="11" t="s">
+      <c r="GB4" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="GC4" s="11" t="s">
+      <c r="GC4" s="10" t="s">
         <v>301</v>
       </c>
       <c r="GD4" s="2" t="s">
@@ -3739,10 +3730,10 @@
       <c r="GF4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="GG4" s="11" t="s">
+      <c r="GG4" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="GH4" s="11" t="s">
+      <c r="GH4" s="10" t="s">
         <v>306</v>
       </c>
       <c r="GI4" s="2" t="s">
@@ -3754,7 +3745,7 @@
       <c r="GK4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="GL4" s="11" t="s">
+      <c r="GL4" s="10" t="s">
         <v>310</v>
       </c>
     </row>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="405">
   <si>
     <t>ID</t>
   </si>
@@ -227,6 +227,54 @@
   </si>
   <si>
     <t>教室四课桌面平均照度</t>
+  </si>
+  <si>
+    <t>教室五班级基本情况</t>
+  </si>
+  <si>
+    <t>教室五教室人均面积</t>
+  </si>
+  <si>
+    <t>教室五课桌椅分配符合率</t>
+  </si>
+  <si>
+    <t>教室五黑板尺寸</t>
+  </si>
+  <si>
+    <t>教室五黑板反射比</t>
+  </si>
+  <si>
+    <t>教室五黑板面平均照度</t>
+  </si>
+  <si>
+    <t>教室五黑板面照度均匀度</t>
+  </si>
+  <si>
+    <t>教室五课桌面平均照度</t>
+  </si>
+  <si>
+    <t>教室六班级基本情况</t>
+  </si>
+  <si>
+    <t>教室六教室人均面积</t>
+  </si>
+  <si>
+    <t>教室六课桌椅分配符合率</t>
+  </si>
+  <si>
+    <t>教室六黑板尺寸</t>
+  </si>
+  <si>
+    <t>教室六黑板反射比</t>
+  </si>
+  <si>
+    <t>教室六黑板面平均照度</t>
+  </si>
+  <si>
+    <t>教室六黑板面照度均匀度</t>
+  </si>
+  <si>
+    <t>教室六课桌面平均照度</t>
   </si>
   <si>
     <t>是否建立食品安全管理规章制度？</t>
@@ -948,6 +996,240 @@
   </si>
   <si>
     <t>{.pg924}</t>
+  </si>
+  <si>
+    <t>{.pg115}</t>
+  </si>
+  <si>
+    <t>{.pg215}</t>
+  </si>
+  <si>
+    <t>{.pg225}</t>
+  </si>
+  <si>
+    <t>{.pg235}</t>
+  </si>
+  <si>
+    <t>{.pg315}</t>
+  </si>
+  <si>
+    <t>{.pg325}</t>
+  </si>
+  <si>
+    <t>{.pg335}</t>
+  </si>
+  <si>
+    <t>{.pg345}</t>
+  </si>
+  <si>
+    <t>{.pg415}</t>
+  </si>
+  <si>
+    <t>{.pg425}</t>
+  </si>
+  <si>
+    <t>{.pg515}</t>
+  </si>
+  <si>
+    <t>{.pg525}</t>
+  </si>
+  <si>
+    <t>{.pg535}</t>
+  </si>
+  <si>
+    <t>{.pg545}</t>
+  </si>
+  <si>
+    <t>{.pg555}</t>
+  </si>
+  <si>
+    <t>{.pg565}</t>
+  </si>
+  <si>
+    <t>{.pg575}</t>
+  </si>
+  <si>
+    <t>{.pg585}</t>
+  </si>
+  <si>
+    <t>{.pg595}</t>
+  </si>
+  <si>
+    <t>{.pg505}</t>
+  </si>
+  <si>
+    <t>{.pg615}</t>
+  </si>
+  <si>
+    <t>{.pg625}</t>
+  </si>
+  <si>
+    <t>{.pg635}</t>
+  </si>
+  <si>
+    <t>{.pg655}</t>
+  </si>
+  <si>
+    <t>{.pg645}</t>
+  </si>
+  <si>
+    <t>{.pg715}</t>
+  </si>
+  <si>
+    <t>{.pg725}</t>
+  </si>
+  <si>
+    <t>{.pg815}</t>
+  </si>
+  <si>
+    <t>{.pg825}</t>
+  </si>
+  <si>
+    <t>{.pg835}</t>
+  </si>
+  <si>
+    <t>{.pg845}</t>
+  </si>
+  <si>
+    <t>{.pg855}</t>
+  </si>
+  <si>
+    <t>{.pg865}</t>
+  </si>
+  <si>
+    <t>{.pg875}</t>
+  </si>
+  <si>
+    <t>{.pg885}</t>
+  </si>
+  <si>
+    <t>{.pg895}</t>
+  </si>
+  <si>
+    <t>{.pg805}</t>
+  </si>
+  <si>
+    <t>{.pg915}</t>
+  </si>
+  <si>
+    <t>{.pg925}</t>
+  </si>
+  <si>
+    <t>{.pg116}</t>
+  </si>
+  <si>
+    <t>{.pg216}</t>
+  </si>
+  <si>
+    <t>{.pg226}</t>
+  </si>
+  <si>
+    <t>{.pg236}</t>
+  </si>
+  <si>
+    <t>{.pg316}</t>
+  </si>
+  <si>
+    <t>{.pg326}</t>
+  </si>
+  <si>
+    <t>{.pg336}</t>
+  </si>
+  <si>
+    <t>{.pg346}</t>
+  </si>
+  <si>
+    <t>{.pg416}</t>
+  </si>
+  <si>
+    <t>{.pg426}</t>
+  </si>
+  <si>
+    <t>{.pg516}</t>
+  </si>
+  <si>
+    <t>{.pg526}</t>
+  </si>
+  <si>
+    <t>{.pg536}</t>
+  </si>
+  <si>
+    <t>{.pg546}</t>
+  </si>
+  <si>
+    <t>{.pg556}</t>
+  </si>
+  <si>
+    <t>{.pg566}</t>
+  </si>
+  <si>
+    <t>{.pg576}</t>
+  </si>
+  <si>
+    <t>{.pg586}</t>
+  </si>
+  <si>
+    <t>{.pg596}</t>
+  </si>
+  <si>
+    <t>{.pg506}</t>
+  </si>
+  <si>
+    <t>{.pg616}</t>
+  </si>
+  <si>
+    <t>{.pg626}</t>
+  </si>
+  <si>
+    <t>{.pg636}</t>
+  </si>
+  <si>
+    <t>{.pg656}</t>
+  </si>
+  <si>
+    <t>{.pg646}</t>
+  </si>
+  <si>
+    <t>{.pg716}</t>
+  </si>
+  <si>
+    <t>{.pg726}</t>
+  </si>
+  <si>
+    <t>{.pg816}</t>
+  </si>
+  <si>
+    <t>{.pg826}</t>
+  </si>
+  <si>
+    <t>{.pg836}</t>
+  </si>
+  <si>
+    <t>{.pg846}</t>
+  </si>
+  <si>
+    <t>{.pg856}</t>
+  </si>
+  <si>
+    <t>{.pg866}</t>
+  </si>
+  <si>
+    <t>{.pg876}</t>
+  </si>
+  <si>
+    <t>{.pg886}</t>
+  </si>
+  <si>
+    <t>{.pg896}</t>
+  </si>
+  <si>
+    <t>{.pg806}</t>
+  </si>
+  <si>
+    <t>{.pg916}</t>
+  </si>
+  <si>
+    <t>{.pg926}</t>
   </si>
 </sst>
 </file>
@@ -955,11 +1237,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -990,39 +1272,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,7 +1288,51 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,14 +1355,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,25 +1385,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,23 +1399,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1133,10 +1408,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1149,7 +1431,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,19 +1473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,7 +1491,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,25 +1563,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,67 +1593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,42 +1605,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1359,16 +1641,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1378,15 +1667,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,15 +1686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1426,6 +1697,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,153 +1735,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1624,12 +1919,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1645,7 +1934,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1973,10 +2268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:GL4"/>
+  <dimension ref="A1:JL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EZ1" workbookViewId="0">
-      <selection activeCell="FC7" sqref="FC7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="JK9" sqref="JK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1989,13 +2284,13 @@
     <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.6" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.3333333333333" style="6" customWidth="1"/>
-    <col min="12" max="12" width="17.15" style="8" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="6" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="6" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.825" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.8916666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.3333333333333" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.15" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.9666666666667" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.8" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.5083333333333" style="3" customWidth="1"/>
     <col min="16" max="16" width="15.0916666666667" style="3" customWidth="1"/>
     <col min="17" max="17" width="22.225" style="3" customWidth="1"/>
     <col min="18" max="18" width="22.7083333333333" style="3" customWidth="1"/>
@@ -2106,1655 +2401,2350 @@
     <col min="192" max="192" width="22.1333333333333" style="3" customWidth="1"/>
     <col min="193" max="193" width="9.46666666666667" style="3" customWidth="1"/>
     <col min="194" max="194" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="195" max="16384" width="11" style="3"/>
+    <col min="195" max="195" width="16.2416666666667" style="3" customWidth="1"/>
+    <col min="196" max="196" width="16.525" style="3" customWidth="1"/>
+    <col min="197" max="197" width="14.025" style="3" customWidth="1"/>
+    <col min="198" max="198" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="199" max="199" width="13.325" style="3" customWidth="1"/>
+    <col min="200" max="200" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="201" max="201" width="15.5583333333333" style="3" customWidth="1"/>
+    <col min="202" max="202" width="16.1166666666667" style="3" customWidth="1"/>
+    <col min="203" max="203" width="12.6416666666667" style="3" customWidth="1"/>
+    <col min="204" max="204" width="13.475" style="3" customWidth="1"/>
+    <col min="205" max="205" width="16.25" style="3" customWidth="1"/>
+    <col min="206" max="206" width="16.8" style="3" customWidth="1"/>
+    <col min="207" max="207" width="11.525" style="3" customWidth="1"/>
+    <col min="208" max="208" width="15.1333333333333" style="3" customWidth="1"/>
+    <col min="209" max="209" width="13.4666666666667" style="3" customWidth="1"/>
+    <col min="210" max="210" width="11.8083333333333" style="3" customWidth="1"/>
+    <col min="211" max="211" width="15.4166666666667" style="3" customWidth="1"/>
+    <col min="212" max="212" width="15.8333333333333" style="3" customWidth="1"/>
+    <col min="213" max="213" width="12.3583333333333" style="3" customWidth="1"/>
+    <col min="214" max="214" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="215" max="215" width="13.8916666666667" style="3" customWidth="1"/>
+    <col min="216" max="216" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="217" max="217" width="13.475" style="3" customWidth="1"/>
+    <col min="218" max="218" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="219" max="219" width="14.725" style="3" customWidth="1"/>
+    <col min="220" max="220" width="14.1583333333333" style="3" customWidth="1"/>
+    <col min="221" max="221" width="15.4166666666667" style="3" customWidth="1"/>
+    <col min="222" max="222" width="14.4416666666667" style="3" customWidth="1"/>
+    <col min="223" max="223" width="14.3083333333333" style="3" customWidth="1"/>
+    <col min="224" max="224" width="15" style="3" customWidth="1"/>
+    <col min="225" max="225" width="13.75" style="3" customWidth="1"/>
+    <col min="226" max="226" width="14.725" style="3" customWidth="1"/>
+    <col min="227" max="227" width="14.8583333333333" style="3" customWidth="1"/>
+    <col min="228" max="228" width="12.6416666666667" style="3" customWidth="1"/>
+    <col min="229" max="229" width="13.475" style="3" customWidth="1"/>
+    <col min="230" max="230" width="13.1916666666667" style="3" customWidth="1"/>
+    <col min="231" max="231" width="13.75" style="3" customWidth="1"/>
+    <col min="232" max="232" width="10.4083333333333" style="3" customWidth="1"/>
+    <col min="233" max="233" width="11.9416666666667" style="3" customWidth="1"/>
+    <col min="234" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:194">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:272">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="12" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12" t="s">
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12"/>
-      <c r="CW1" s="12"/>
-      <c r="CX1" s="12"/>
-      <c r="CY1" s="12"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="12"/>
-      <c r="DC1" s="12"/>
-      <c r="DD1" s="12"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12"/>
-      <c r="DI1" s="12"/>
-      <c r="DJ1" s="12"/>
-      <c r="DK1" s="12"/>
-      <c r="DL1" s="12"/>
-      <c r="DM1" s="12"/>
-      <c r="DN1" s="12"/>
-      <c r="DO1" s="12"/>
-      <c r="DP1" s="12"/>
-      <c r="DQ1" s="12"/>
-      <c r="DR1" s="12"/>
-      <c r="DS1" s="12"/>
-      <c r="DT1" s="12"/>
-      <c r="DU1" s="12"/>
-      <c r="DV1" s="12"/>
-      <c r="DW1" s="12"/>
-      <c r="DX1" s="12"/>
-      <c r="DY1" s="12"/>
-      <c r="DZ1" s="12"/>
-      <c r="EA1" s="12"/>
-      <c r="EB1" s="12"/>
-      <c r="EC1" s="12"/>
-      <c r="ED1" s="12"/>
-      <c r="EE1" s="12"/>
-      <c r="EF1" s="12"/>
-      <c r="EG1" s="12"/>
-      <c r="EH1" s="12"/>
-      <c r="EI1" s="12"/>
-      <c r="EJ1" s="12"/>
-      <c r="EK1" s="12"/>
-      <c r="EL1" s="12"/>
-      <c r="EM1" s="12"/>
-      <c r="EN1" s="12"/>
-      <c r="EO1" s="12"/>
-      <c r="EP1" s="12"/>
-      <c r="EQ1" s="12"/>
-      <c r="ER1" s="12"/>
-      <c r="ES1" s="12"/>
-      <c r="ET1" s="12"/>
-      <c r="EU1" s="12"/>
-      <c r="EV1" s="12"/>
-      <c r="EW1" s="12"/>
-      <c r="EX1" s="12"/>
-      <c r="EY1" s="12"/>
-      <c r="EZ1" s="12"/>
-      <c r="FA1" s="12"/>
-      <c r="FB1" s="12"/>
-      <c r="FC1" s="12"/>
-      <c r="FD1" s="12"/>
-      <c r="FE1" s="12"/>
-      <c r="FF1" s="12"/>
-      <c r="FG1" s="12"/>
-      <c r="FH1" s="12"/>
-      <c r="FI1" s="12"/>
-      <c r="FJ1" s="12"/>
-      <c r="FK1" s="12"/>
-      <c r="FL1" s="12"/>
-      <c r="FM1" s="12"/>
-      <c r="FN1" s="12"/>
-      <c r="FO1" s="12"/>
-      <c r="FP1" s="12"/>
-      <c r="FQ1" s="12"/>
-      <c r="FR1" s="12"/>
-      <c r="FS1" s="12"/>
-      <c r="FT1" s="12"/>
-      <c r="FU1" s="12"/>
-      <c r="FV1" s="12"/>
-      <c r="FW1" s="12"/>
-      <c r="FX1" s="12"/>
-      <c r="FY1" s="12"/>
-      <c r="FZ1" s="12"/>
-      <c r="GA1" s="12"/>
-      <c r="GB1" s="12"/>
-      <c r="GC1" s="12"/>
-      <c r="GD1" s="12"/>
-      <c r="GE1" s="12"/>
-      <c r="GF1" s="12"/>
-      <c r="GG1" s="12"/>
-      <c r="GH1" s="12"/>
-      <c r="GI1" s="12"/>
-      <c r="GJ1" s="12"/>
-      <c r="GK1" s="12"/>
-      <c r="GL1" s="12"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11"/>
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+      <c r="ET1" s="11"/>
+      <c r="EU1" s="11"/>
+      <c r="EV1" s="11"/>
+      <c r="EW1" s="11"/>
+      <c r="EX1" s="11"/>
+      <c r="EY1" s="11"/>
+      <c r="EZ1" s="11"/>
+      <c r="FA1" s="11"/>
+      <c r="FB1" s="11"/>
+      <c r="FC1" s="11"/>
+      <c r="FD1" s="11"/>
+      <c r="FE1" s="11"/>
+      <c r="FF1" s="11"/>
+      <c r="FG1" s="11"/>
+      <c r="FH1" s="11"/>
+      <c r="FI1" s="11"/>
+      <c r="FJ1" s="11"/>
+      <c r="FK1" s="11"/>
+      <c r="FL1" s="11"/>
+      <c r="FM1" s="11"/>
+      <c r="FN1" s="11"/>
+      <c r="FO1" s="11"/>
+      <c r="FP1" s="11"/>
+      <c r="FQ1" s="11"/>
+      <c r="FR1" s="11"/>
+      <c r="FS1" s="11"/>
+      <c r="FT1" s="11"/>
+      <c r="FU1" s="11"/>
+      <c r="FV1" s="11"/>
+      <c r="FW1" s="11"/>
+      <c r="FX1" s="11"/>
+      <c r="FY1" s="11"/>
+      <c r="FZ1" s="11"/>
+      <c r="GA1" s="11"/>
+      <c r="GB1" s="11"/>
+      <c r="GC1" s="11"/>
+      <c r="GD1" s="11"/>
+      <c r="GE1" s="11"/>
+      <c r="GF1" s="11"/>
+      <c r="GG1" s="11"/>
+      <c r="GH1" s="11"/>
+      <c r="GI1" s="11"/>
+      <c r="GJ1" s="11"/>
+      <c r="GK1" s="11"/>
+      <c r="GL1" s="11"/>
+      <c r="GM1" s="11"/>
+      <c r="GN1" s="11"/>
+      <c r="GO1" s="11"/>
+      <c r="GP1" s="11"/>
+      <c r="GQ1" s="11"/>
+      <c r="GR1" s="11"/>
+      <c r="GS1" s="11"/>
+      <c r="GT1" s="11"/>
+      <c r="GU1" s="11"/>
+      <c r="GV1" s="11"/>
+      <c r="GW1" s="11"/>
+      <c r="GX1" s="11"/>
+      <c r="GY1" s="11"/>
+      <c r="GZ1" s="11"/>
+      <c r="HA1" s="11"/>
+      <c r="HB1" s="11"/>
+      <c r="HC1" s="11"/>
+      <c r="HD1" s="11"/>
+      <c r="HE1" s="11"/>
+      <c r="HF1" s="11"/>
+      <c r="HG1" s="11"/>
+      <c r="HH1" s="11"/>
+      <c r="HI1" s="11"/>
+      <c r="HJ1" s="11"/>
+      <c r="HK1" s="11"/>
+      <c r="HL1" s="11"/>
+      <c r="HM1" s="11"/>
+      <c r="HN1" s="11"/>
+      <c r="HO1" s="11"/>
+      <c r="HP1" s="11"/>
+      <c r="HQ1" s="11"/>
+      <c r="HR1" s="11"/>
+      <c r="HS1" s="11"/>
+      <c r="HT1" s="11"/>
+      <c r="HU1" s="11"/>
+      <c r="HV1" s="11"/>
+      <c r="HW1" s="11"/>
+      <c r="HX1" s="11"/>
+      <c r="HY1" s="11"/>
+      <c r="HZ1" s="11"/>
+      <c r="IA1" s="11"/>
+      <c r="IB1" s="11"/>
+      <c r="IC1" s="11"/>
+      <c r="ID1" s="11"/>
+      <c r="IE1" s="11"/>
+      <c r="IF1" s="11"/>
+      <c r="IG1" s="11"/>
+      <c r="IH1" s="11"/>
+      <c r="II1" s="11"/>
+      <c r="IJ1" s="11"/>
+      <c r="IK1" s="11"/>
+      <c r="IL1" s="11"/>
+      <c r="IM1" s="11"/>
+      <c r="IN1" s="11"/>
+      <c r="IO1" s="11"/>
+      <c r="IP1" s="11"/>
+      <c r="IQ1" s="11"/>
+      <c r="IR1" s="11"/>
+      <c r="IS1" s="11"/>
+      <c r="IT1" s="11"/>
+      <c r="IU1" s="11"/>
+      <c r="IV1" s="11"/>
+      <c r="IW1" s="11"/>
+      <c r="IX1" s="11"/>
+      <c r="IY1" s="11"/>
+      <c r="IZ1" s="11"/>
+      <c r="JA1" s="11"/>
+      <c r="JB1" s="11"/>
+      <c r="JC1" s="11"/>
+      <c r="JD1" s="11"/>
+      <c r="JE1" s="11"/>
+      <c r="JF1" s="11"/>
+      <c r="JG1" s="11"/>
+      <c r="JH1" s="11"/>
+      <c r="JI1" s="11"/>
+      <c r="JJ1" s="11"/>
+      <c r="JK1" s="11"/>
+      <c r="JL1" s="11"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:194">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
+    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:272">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9" t="s">
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="AM2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9" t="s">
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9" t="s">
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9" t="s">
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9" t="s">
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9" t="s">
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9"/>
-      <c r="BZ2" s="11" t="s">
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="9" t="s">
+      <c r="CA2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="CB2" s="9"/>
-      <c r="CC2" s="9"/>
-      <c r="CD2" s="9" t="s">
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="CE2" s="9"/>
-      <c r="CF2" s="9"/>
-      <c r="CG2" s="9"/>
-      <c r="CH2" s="9" t="s">
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="CI2" s="9"/>
-      <c r="CJ2" s="9" t="s">
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="CK2" s="9"/>
-      <c r="CL2" s="9"/>
-      <c r="CM2" s="9"/>
-      <c r="CN2" s="9"/>
-      <c r="CO2" s="9"/>
-      <c r="CP2" s="9"/>
-      <c r="CQ2" s="9"/>
-      <c r="CR2" s="9"/>
-      <c r="CS2" s="9"/>
-      <c r="CT2" s="9" t="s">
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12"/>
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="CU2" s="9"/>
-      <c r="CV2" s="9"/>
-      <c r="CW2" s="9"/>
-      <c r="CX2" s="9"/>
-      <c r="CY2" s="9" t="s">
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="CZ2" s="9"/>
-      <c r="DA2" s="9" t="s">
+      <c r="CZ2" s="12"/>
+      <c r="DA2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="DB2" s="9"/>
-      <c r="DC2" s="9"/>
-      <c r="DD2" s="9"/>
-      <c r="DE2" s="9"/>
-      <c r="DF2" s="9"/>
-      <c r="DG2" s="9"/>
-      <c r="DH2" s="9"/>
-      <c r="DI2" s="9"/>
-      <c r="DJ2" s="9"/>
-      <c r="DK2" s="9"/>
-      <c r="DL2" s="9"/>
-      <c r="DM2" s="11" t="s">
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12"/>
+      <c r="DM2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="DN2" s="9" t="s">
+      <c r="DN2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="DO2" s="9"/>
-      <c r="DP2" s="9"/>
-      <c r="DQ2" s="9" t="s">
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="DR2" s="9"/>
-      <c r="DS2" s="9"/>
-      <c r="DT2" s="9"/>
-      <c r="DU2" s="9" t="s">
+      <c r="DR2" s="12"/>
+      <c r="DS2" s="12"/>
+      <c r="DT2" s="12"/>
+      <c r="DU2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="DV2" s="9"/>
-      <c r="DW2" s="9" t="s">
+      <c r="DV2" s="12"/>
+      <c r="DW2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DX2" s="9"/>
-      <c r="DY2" s="9"/>
-      <c r="DZ2" s="9"/>
-      <c r="EA2" s="9"/>
-      <c r="EB2" s="9"/>
-      <c r="EC2" s="9"/>
-      <c r="ED2" s="9"/>
-      <c r="EE2" s="9"/>
-      <c r="EF2" s="9"/>
-      <c r="EG2" s="9" t="s">
+      <c r="DX2" s="12"/>
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12"/>
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12"/>
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12"/>
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="EH2" s="9"/>
-      <c r="EI2" s="9"/>
-      <c r="EJ2" s="9"/>
-      <c r="EK2" s="9"/>
-      <c r="EL2" s="9" t="s">
+      <c r="EH2" s="12"/>
+      <c r="EI2" s="12"/>
+      <c r="EJ2" s="12"/>
+      <c r="EK2" s="12"/>
+      <c r="EL2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="EM2" s="9"/>
-      <c r="EN2" s="9" t="s">
+      <c r="EM2" s="12"/>
+      <c r="EN2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="EO2" s="9"/>
-      <c r="EP2" s="9"/>
-      <c r="EQ2" s="9"/>
-      <c r="ER2" s="9"/>
-      <c r="ES2" s="9"/>
-      <c r="ET2" s="9"/>
-      <c r="EU2" s="9"/>
-      <c r="EV2" s="9"/>
-      <c r="EW2" s="9"/>
-      <c r="EX2" s="9"/>
-      <c r="EY2" s="9"/>
-      <c r="EZ2" s="11" t="s">
+      <c r="EO2" s="12"/>
+      <c r="EP2" s="12"/>
+      <c r="EQ2" s="12"/>
+      <c r="ER2" s="12"/>
+      <c r="ES2" s="12"/>
+      <c r="ET2" s="12"/>
+      <c r="EU2" s="12"/>
+      <c r="EV2" s="12"/>
+      <c r="EW2" s="12"/>
+      <c r="EX2" s="12"/>
+      <c r="EY2" s="12"/>
+      <c r="EZ2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="FA2" s="9" t="s">
+      <c r="FA2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="FB2" s="9"/>
-      <c r="FC2" s="9"/>
-      <c r="FD2" s="9" t="s">
+      <c r="FB2" s="12"/>
+      <c r="FC2" s="12"/>
+      <c r="FD2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="FE2" s="9"/>
-      <c r="FF2" s="9"/>
-      <c r="FG2" s="9"/>
-      <c r="FH2" s="9" t="s">
+      <c r="FE2" s="12"/>
+      <c r="FF2" s="12"/>
+      <c r="FG2" s="12"/>
+      <c r="FH2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="FI2" s="9"/>
-      <c r="FJ2" s="9" t="s">
+      <c r="FI2" s="12"/>
+      <c r="FJ2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="FK2" s="9"/>
-      <c r="FL2" s="9"/>
-      <c r="FM2" s="9"/>
-      <c r="FN2" s="9"/>
-      <c r="FO2" s="9"/>
-      <c r="FP2" s="9"/>
-      <c r="FQ2" s="9"/>
-      <c r="FR2" s="9"/>
-      <c r="FS2" s="9"/>
-      <c r="FT2" s="9" t="s">
+      <c r="FK2" s="12"/>
+      <c r="FL2" s="12"/>
+      <c r="FM2" s="12"/>
+      <c r="FN2" s="12"/>
+      <c r="FO2" s="12"/>
+      <c r="FP2" s="12"/>
+      <c r="FQ2" s="12"/>
+      <c r="FR2" s="12"/>
+      <c r="FS2" s="12"/>
+      <c r="FT2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="FU2" s="9"/>
-      <c r="FV2" s="9"/>
-      <c r="FW2" s="9"/>
-      <c r="FX2" s="9"/>
-      <c r="FY2" s="9" t="s">
+      <c r="FU2" s="12"/>
+      <c r="FV2" s="12"/>
+      <c r="FW2" s="12"/>
+      <c r="FX2" s="12"/>
+      <c r="FY2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="FZ2" s="9"/>
-      <c r="GA2" s="9" t="s">
+      <c r="FZ2" s="12"/>
+      <c r="GA2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="GB2" s="9"/>
-      <c r="GC2" s="9"/>
-      <c r="GD2" s="9"/>
-      <c r="GE2" s="9"/>
-      <c r="GF2" s="9"/>
-      <c r="GG2" s="9"/>
-      <c r="GH2" s="9"/>
-      <c r="GI2" s="9"/>
-      <c r="GJ2" s="9"/>
-      <c r="GK2" s="9"/>
-      <c r="GL2" s="9"/>
+      <c r="GB2" s="12"/>
+      <c r="GC2" s="12"/>
+      <c r="GD2" s="12"/>
+      <c r="GE2" s="12"/>
+      <c r="GF2" s="12"/>
+      <c r="GG2" s="12"/>
+      <c r="GH2" s="12"/>
+      <c r="GI2" s="12"/>
+      <c r="GJ2" s="12"/>
+      <c r="GK2" s="12"/>
+      <c r="GL2" s="12"/>
+      <c r="GM2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="GN2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="GO2" s="12"/>
+      <c r="GP2" s="12"/>
+      <c r="GQ2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="GR2" s="12"/>
+      <c r="GS2" s="12"/>
+      <c r="GT2" s="12"/>
+      <c r="GU2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="GV2" s="12"/>
+      <c r="GW2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="GX2" s="12"/>
+      <c r="GY2" s="12"/>
+      <c r="GZ2" s="12"/>
+      <c r="HA2" s="12"/>
+      <c r="HB2" s="12"/>
+      <c r="HC2" s="12"/>
+      <c r="HD2" s="12"/>
+      <c r="HE2" s="12"/>
+      <c r="HF2" s="12"/>
+      <c r="HG2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="HH2" s="12"/>
+      <c r="HI2" s="12"/>
+      <c r="HJ2" s="12"/>
+      <c r="HK2" s="12"/>
+      <c r="HL2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="HM2" s="12"/>
+      <c r="HN2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="HO2" s="12"/>
+      <c r="HP2" s="12"/>
+      <c r="HQ2" s="12"/>
+      <c r="HR2" s="12"/>
+      <c r="HS2" s="12"/>
+      <c r="HT2" s="12"/>
+      <c r="HU2" s="12"/>
+      <c r="HV2" s="12"/>
+      <c r="HW2" s="12"/>
+      <c r="HX2" s="12"/>
+      <c r="HY2" s="12"/>
+      <c r="HZ2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="IA2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="IB2" s="12"/>
+      <c r="IC2" s="12"/>
+      <c r="ID2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="IE2" s="12"/>
+      <c r="IF2" s="12"/>
+      <c r="IG2" s="12"/>
+      <c r="IH2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="II2" s="12"/>
+      <c r="IJ2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="IK2" s="12"/>
+      <c r="IL2" s="12"/>
+      <c r="IM2" s="12"/>
+      <c r="IN2" s="12"/>
+      <c r="IO2" s="12"/>
+      <c r="IP2" s="12"/>
+      <c r="IQ2" s="12"/>
+      <c r="IR2" s="12"/>
+      <c r="IS2" s="12"/>
+      <c r="IT2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="IU2" s="12"/>
+      <c r="IV2" s="12"/>
+      <c r="IW2" s="12"/>
+      <c r="IX2" s="12"/>
+      <c r="IY2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="IZ2" s="12"/>
+      <c r="JA2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="JB2" s="12"/>
+      <c r="JC2" s="12"/>
+      <c r="JD2" s="12"/>
+      <c r="JE2" s="12"/>
+      <c r="JF2" s="12"/>
+      <c r="JG2" s="12"/>
+      <c r="JH2" s="12"/>
+      <c r="JI2" s="12"/>
+      <c r="JJ2" s="12"/>
+      <c r="JK2" s="12"/>
+      <c r="JL2" s="12"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:194">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU3" s="11" t="s">
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:272">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="S3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="T3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AY3" s="11" t="s">
+      <c r="U3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="V3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="Z3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="BC3" s="11" t="s">
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="AN3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="BE3" s="11" t="s">
+      <c r="AO3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="BF3" s="11" t="s">
+      <c r="AP3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="BG3" s="11" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BH3" s="11" t="s">
+      <c r="AR3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="BI3" s="11" t="s">
+      <c r="AS3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="AT3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="AU3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="BL3" s="11" t="s">
+      <c r="AV3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BM3" s="11" t="s">
+      <c r="AW3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BN3" s="11" t="s">
+      <c r="AX3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="BO3" s="11" t="s">
+      <c r="AY3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="AZ3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BA3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BR3" s="11" t="s">
+      <c r="BB3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BC3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="11" t="s">
+      <c r="BD3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BU3" s="11" t="s">
+      <c r="BE3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BF3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BW3" s="11" t="s">
+      <c r="BG3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BX3" s="11" t="s">
+      <c r="BH3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BV3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BW3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BZ3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BY3" s="11" t="s">
+      <c r="CJ3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="CK3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="CM3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="CP3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="CR3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="CS3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="CT3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="CU3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BZ3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="CB3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="CD3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="CH3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="CI3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="CK3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="CL3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="CM3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="CN3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="CO3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="CP3" s="11" t="s">
+      <c r="CV3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="CY3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="DA3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="DB3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="DC3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="DD3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="DF3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="DG3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="DH3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="DI3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="DJ3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="DL3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="DM3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CQ3" s="11" t="s">
+      <c r="DN3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="CR3" s="11" t="s">
+      <c r="DO3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="CS3" s="11" t="s">
+      <c r="DP3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="CT3" s="11" t="s">
+      <c r="DQ3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="CU3" s="11" t="s">
+      <c r="DR3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="CV3" s="11" t="s">
+      <c r="DS3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="CW3" s="11" t="s">
+      <c r="DT3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="CX3" s="11" t="s">
+      <c r="DU3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="CY3" s="11" t="s">
+      <c r="DV3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="CZ3" s="11" t="s">
+      <c r="DW3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="DA3" s="11" t="s">
+      <c r="DX3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="DB3" s="11" t="s">
+      <c r="DY3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="DC3" s="11" t="s">
+      <c r="DZ3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="DD3" s="11" t="s">
+      <c r="EA3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="DE3" s="11" t="s">
+      <c r="EB3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="DF3" s="11" t="s">
+      <c r="EC3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="DG3" s="11" t="s">
+      <c r="ED3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="DH3" s="11" t="s">
+      <c r="EE3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="DI3" s="11" t="s">
+      <c r="EF3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="DJ3" s="11" t="s">
+      <c r="EG3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="DK3" s="11" t="s">
+      <c r="EH3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="EI3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="EJ3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="EK3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="EL3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="EM3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="EN3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="EO3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="EP3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="EQ3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="ER3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="ES3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="ET3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="EU3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="EV3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="EW3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="EX3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="EY3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="EZ3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="FA3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="FB3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="FC3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="FD3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="FE3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="FF3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="FG3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="FH3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="FI3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="DL3" s="11" t="s">
+      <c r="FJ3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="FK3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="FL3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="FM3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="FN3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="FO3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="FQ3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="FR3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="FS3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="FT3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="FU3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="DM3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="DN3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="DO3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="DP3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="DQ3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="DS3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="DT3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="DU3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="DV3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="DW3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="DX3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="DY3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="DZ3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="EA3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="EB3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="EC3" s="11" t="s">
+      <c r="FV3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="FW3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="FX3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="FY3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="FZ3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="GA3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="GB3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="GC3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="GD3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="GE3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="GF3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="GG3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="GH3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="GI3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="GJ3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="GK3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="GL3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="GM3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="ED3" s="11" t="s">
+      <c r="GN3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="EE3" s="11" t="s">
+      <c r="GO3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="EF3" s="11" t="s">
+      <c r="GP3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="EG3" s="11" t="s">
+      <c r="GQ3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="EH3" s="11" t="s">
+      <c r="GR3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="EI3" s="11" t="s">
+      <c r="GS3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="EJ3" s="11" t="s">
+      <c r="GT3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="EK3" s="11" t="s">
+      <c r="GU3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="EL3" s="11" t="s">
+      <c r="GV3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="EM3" s="11" t="s">
+      <c r="GW3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="EN3" s="11" t="s">
+      <c r="GX3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="EO3" s="11" t="s">
+      <c r="GY3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="EP3" s="11" t="s">
+      <c r="GZ3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="EQ3" s="11" t="s">
+      <c r="HA3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="ER3" s="11" t="s">
+      <c r="HB3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="ES3" s="11" t="s">
+      <c r="HC3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="ET3" s="11" t="s">
+      <c r="HD3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="EU3" s="11" t="s">
+      <c r="HE3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="EV3" s="11" t="s">
+      <c r="HF3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="EW3" s="11" t="s">
+      <c r="HG3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="EX3" s="11" t="s">
+      <c r="HH3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="HI3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="HJ3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="HK3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="HL3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="HM3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="HN3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="HO3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="HP3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="HQ3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="HR3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="HS3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="HT3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="HU3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="HV3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="HW3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="HX3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="HY3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="HZ3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="IA3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="IB3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="IC3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="ID3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="IE3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="IF3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="IG3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="IH3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="II3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="EY3" s="11" t="s">
+      <c r="IJ3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="IK3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="IL3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="IM3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="IN3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="IO3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="IP3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="IQ3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="IR3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="IS3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="IT3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="IU3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="EZ3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="FA3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="FB3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="FC3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="FD3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="FE3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="FF3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="FG3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="FH3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="FI3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="FJ3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="FK3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="FL3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="FM3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="FN3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="FO3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="FP3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="FQ3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="FR3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="FS3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="FT3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="FU3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="FV3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="FW3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="FX3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="FY3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="FZ3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="GA3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="GB3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="GC3" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="GD3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="GE3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="GF3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="GG3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="GH3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="GI3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="GJ3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="GK3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="GL3" s="13" t="s">
+      <c r="IV3" s="9" t="s">
         <v>117</v>
       </c>
+      <c r="IW3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="IX3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="IY3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="IZ3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="JA3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="JB3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="JC3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="JD3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="JE3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="JF3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="JG3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="JH3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="JI3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="JJ3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="JK3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="JL3" s="9" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="18" spans="1:194">
+    <row r="4" s="2" customFormat="1" ht="18" spans="1:272">
       <c r="A4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>129</v>
+        <v>143</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>134</v>
+        <v>148</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>144</v>
+        <v>158</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>149</v>
+        <v>163</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL4" s="10" t="s">
-        <v>154</v>
+        <v>168</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP4" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="AQ4" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU4" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV4" s="10" t="s">
-        <v>164</v>
+        <v>178</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AZ4" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA4" s="10" t="s">
-        <v>169</v>
+        <v>183</v>
+      </c>
+      <c r="AZ4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA4" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="BD4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE4" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="BF4" s="10" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="BE4" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BJ4" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK4" s="10" t="s">
-        <v>179</v>
+        <v>193</v>
+      </c>
+      <c r="BJ4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BK4" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="BL4" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="BM4" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BO4" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP4" s="10" t="s">
-        <v>184</v>
+        <v>198</v>
+      </c>
+      <c r="BO4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP4" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BT4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="BU4" s="10" t="s">
-        <v>189</v>
+        <v>203</v>
+      </c>
+      <c r="BT4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU4" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="BY4" s="10" t="s">
-        <v>193</v>
+        <v>208</v>
+      </c>
+      <c r="BY4" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="CC4" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="CD4" s="10" t="s">
-        <v>198</v>
+        <v>212</v>
+      </c>
+      <c r="CC4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD4" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CH4" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="CI4" s="10" t="s">
-        <v>203</v>
+        <v>217</v>
+      </c>
+      <c r="CH4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="CI4" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="CK4" s="2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CM4" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="CN4" s="10" t="s">
-        <v>208</v>
+        <v>222</v>
+      </c>
+      <c r="CM4" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="CN4" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="CO4" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="CQ4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CR4" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="CS4" s="10" t="s">
-        <v>213</v>
+        <v>227</v>
+      </c>
+      <c r="CR4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="CS4" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="CT4" s="2" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="CU4" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="CV4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="CW4" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="CX4" s="10" t="s">
-        <v>218</v>
+        <v>232</v>
+      </c>
+      <c r="CW4" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="CX4" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="CY4" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="CZ4" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="DA4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="DB4" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="DC4" s="10" t="s">
-        <v>223</v>
+        <v>237</v>
+      </c>
+      <c r="DB4" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="DC4" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="DD4" s="2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="DE4" s="2" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="DF4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="DG4" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="DH4" s="10" t="s">
-        <v>228</v>
+        <v>242</v>
+      </c>
+      <c r="DG4" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="DH4" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="DI4" s="2" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="DJ4" s="2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="DK4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="DL4" s="10" t="s">
-        <v>232</v>
+        <v>247</v>
+      </c>
+      <c r="DL4" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="DM4" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="DN4" s="2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="DO4" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="DP4" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="DQ4" s="10" t="s">
-        <v>237</v>
+        <v>251</v>
+      </c>
+      <c r="DP4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="DQ4" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="DR4" s="2" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="DS4" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="DT4" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="DU4" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="DV4" s="10" t="s">
-        <v>242</v>
+        <v>256</v>
+      </c>
+      <c r="DU4" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="DV4" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="DW4" s="2" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="DX4" s="2" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="DY4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="DZ4" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="EA4" s="10" t="s">
-        <v>247</v>
+        <v>261</v>
+      </c>
+      <c r="DZ4" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="EA4" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="EB4" s="2" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="EC4" s="2" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="ED4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="EE4" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="EF4" s="10" t="s">
-        <v>252</v>
+        <v>266</v>
+      </c>
+      <c r="EE4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="EF4" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="EG4" s="2" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="EH4" s="2" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="EI4" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="EJ4" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="EK4" s="10" t="s">
-        <v>257</v>
+        <v>271</v>
+      </c>
+      <c r="EJ4" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="EK4" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="EL4" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="EM4" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="EN4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="EO4" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="EP4" s="10" t="s">
-        <v>262</v>
+        <v>276</v>
+      </c>
+      <c r="EO4" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="EP4" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="EQ4" s="2" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="ER4" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="ES4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="ET4" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="EU4" s="10" t="s">
-        <v>267</v>
+        <v>281</v>
+      </c>
+      <c r="ET4" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="EU4" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="EV4" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="EW4" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="EX4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="EY4" s="10" t="s">
-        <v>271</v>
+        <v>286</v>
+      </c>
+      <c r="EY4" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="EZ4" s="2" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="FA4" s="2" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="FB4" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="FC4" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="FD4" s="10" t="s">
-        <v>276</v>
+        <v>290</v>
+      </c>
+      <c r="FC4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="FD4" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="FE4" s="2" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="FF4" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="FG4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="FH4" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="FI4" s="10" t="s">
-        <v>281</v>
+        <v>295</v>
+      </c>
+      <c r="FH4" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="FI4" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="FJ4" s="2" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="FK4" s="2" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="FL4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="FM4" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="FN4" s="10" t="s">
-        <v>286</v>
+        <v>300</v>
+      </c>
+      <c r="FM4" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="FN4" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="FO4" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="FP4" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="FQ4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="FR4" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="FS4" s="10" t="s">
-        <v>291</v>
+        <v>305</v>
+      </c>
+      <c r="FR4" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="FS4" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="FT4" s="2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="FU4" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="FV4" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="FW4" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="FX4" s="10" t="s">
-        <v>296</v>
+        <v>310</v>
+      </c>
+      <c r="FW4" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="FX4" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="FY4" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="FZ4" s="2" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="GA4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="GB4" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="GC4" s="10" t="s">
-        <v>301</v>
+        <v>315</v>
+      </c>
+      <c r="GB4" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="GC4" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="GD4" s="2" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="GE4" s="2" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="GF4" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="GG4" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="GH4" s="10" t="s">
-        <v>306</v>
+        <v>320</v>
+      </c>
+      <c r="GG4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="GH4" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="GI4" s="2" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="GJ4" s="2" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="GK4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="GL4" s="10" t="s">
-        <v>310</v>
+        <v>325</v>
+      </c>
+      <c r="GL4" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="GM4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="GN4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="GO4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="GP4" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="GQ4" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="GR4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="GS4" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="GT4" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="GU4" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="GV4" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="GW4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="GX4" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="GY4" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="GZ4" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="HA4" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="HB4" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="HC4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="HD4" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="HE4" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="HF4" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="HG4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="HH4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="HI4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="HJ4" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="HK4" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="HL4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="HM4" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="HN4" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="HO4" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="HP4" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="HQ4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="HR4" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="HS4" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="HT4" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="HU4" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="HV4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="HW4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="HX4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="HY4" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="HZ4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="IA4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="IB4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="IC4" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="ID4" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="IE4" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="IF4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="IG4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="IH4" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="II4" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="IJ4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="IK4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="IL4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="IM4" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IN4" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="IO4" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="IP4" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IQ4" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="IR4" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="IS4" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="IT4" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="IU4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="IV4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="IW4" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="IX4" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="IY4" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="IZ4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="JA4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="JB4" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="JC4" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="JD4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="JE4" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="JF4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="JG4" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="JH4" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="JI4" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="JJ4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="JK4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="JL4" s="8" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="80">
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:AA1"/>
     <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AJ1:GL1"/>
+    <mergeCell ref="AJ1:JL1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
@@ -3787,6 +4777,20 @@
     <mergeCell ref="FT2:FX2"/>
     <mergeCell ref="FY2:FZ2"/>
     <mergeCell ref="GA2:GL2"/>
+    <mergeCell ref="GN2:GP2"/>
+    <mergeCell ref="GQ2:GT2"/>
+    <mergeCell ref="GU2:GV2"/>
+    <mergeCell ref="GW2:HF2"/>
+    <mergeCell ref="HG2:HK2"/>
+    <mergeCell ref="HL2:HM2"/>
+    <mergeCell ref="HN2:HY2"/>
+    <mergeCell ref="IA2:IC2"/>
+    <mergeCell ref="ID2:IG2"/>
+    <mergeCell ref="IH2:II2"/>
+    <mergeCell ref="IJ2:IS2"/>
+    <mergeCell ref="IT2:IX2"/>
+    <mergeCell ref="IY2:IZ2"/>
+    <mergeCell ref="JA2:JL2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12120"/>
+    <workbookView windowWidth="27900" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="404">
   <si>
     <t>ID</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>监测点</t>
-  </si>
-  <si>
-    <t>单位名称</t>
   </si>
   <si>
     <t>调查员1</t>
@@ -1238,10 +1235,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1278,6 +1275,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1291,104 +1302,6 @@
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1407,6 +1320,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1416,7 +1406,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,13 +1428,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,169 +1608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,6 +1668,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1682,6 +1688,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1703,35 +1724,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1755,152 +1752,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1930,9 +1927,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2268,10 +2262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:JL4"/>
+  <dimension ref="A1:JK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="JK9" sqref="JK9"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -2283,167 +2277,166 @@
     <col min="5" max="5" width="10.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.6" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.775" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.3333333333333" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.15" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.0916666666667" style="3" customWidth="1"/>
-    <col min="17" max="17" width="22.225" style="3" customWidth="1"/>
-    <col min="18" max="18" width="22.7083333333333" style="3" customWidth="1"/>
-    <col min="19" max="19" width="18.2333333333333" style="3" customWidth="1"/>
-    <col min="20" max="20" width="20.1666666666667" style="3" customWidth="1"/>
-    <col min="21" max="21" width="18.2333333333333" style="3" customWidth="1"/>
-    <col min="22" max="22" width="18.8333333333333" style="3" customWidth="1"/>
-    <col min="23" max="23" width="13.0416666666667" style="3" customWidth="1"/>
-    <col min="24" max="24" width="13.3333333333333" style="3" customWidth="1"/>
-    <col min="25" max="25" width="18.8666666666667" style="3" customWidth="1"/>
-    <col min="26" max="26" width="19.3166666666667" style="3" customWidth="1"/>
-    <col min="27" max="27" width="15.9333333333333" style="3" customWidth="1"/>
-    <col min="28" max="28" width="11.475" style="3" customWidth="1"/>
-    <col min="29" max="29" width="17.625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="10.625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="13.6416666666667" style="3" customWidth="1"/>
-    <col min="32" max="32" width="13.0416666666667" style="3" customWidth="1"/>
-    <col min="33" max="33" width="17.3916666666667" style="3" customWidth="1"/>
-    <col min="34" max="34" width="14.0083333333333" style="3" customWidth="1"/>
-    <col min="35" max="35" width="19.2" style="3" customWidth="1"/>
-    <col min="36" max="36" width="10.5" style="3" customWidth="1"/>
-    <col min="37" max="37" width="19" style="3" customWidth="1"/>
-    <col min="38" max="38" width="18.8333333333333" style="3" customWidth="1"/>
-    <col min="39" max="41" width="14.8333333333333" style="3" customWidth="1"/>
-    <col min="42" max="42" width="12.8333333333333" style="3" customWidth="1"/>
-    <col min="43" max="43" width="8.83333333333333" style="3" customWidth="1"/>
-    <col min="44" max="45" width="18.8333333333333" style="3" customWidth="1"/>
-    <col min="46" max="46" width="16.8333333333333" style="3" customWidth="1"/>
-    <col min="47" max="48" width="9.06666666666667" style="3" customWidth="1"/>
-    <col min="49" max="50" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="51" max="51" width="8.6" style="3" customWidth="1"/>
-    <col min="52" max="53" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="54" max="54" width="8.6" style="3" customWidth="1"/>
-    <col min="55" max="56" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="57" max="57" width="8.6" style="3" customWidth="1"/>
-    <col min="58" max="58" width="11.6" style="3" customWidth="1"/>
-    <col min="59" max="62" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="63" max="63" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="64" max="64" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="65" max="65" width="13.8666666666667" style="3" customWidth="1"/>
-    <col min="66" max="74" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="75" max="75" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="76" max="76" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="77" max="77" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="78" max="78" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="79" max="80" width="22.2666666666667" style="3" customWidth="1"/>
-    <col min="81" max="81" width="21.1333333333333" style="3" customWidth="1"/>
-    <col min="82" max="82" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="83" max="84" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="85" max="85" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="86" max="87" width="9.06666666666667" style="3" customWidth="1"/>
-    <col min="88" max="89" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="90" max="90" width="8.6" style="3" customWidth="1"/>
-    <col min="91" max="92" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="93" max="93" width="8.6" style="3" customWidth="1"/>
-    <col min="94" max="95" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="96" max="96" width="8.6" style="3" customWidth="1"/>
-    <col min="97" max="97" width="11.6" style="3" customWidth="1"/>
-    <col min="98" max="101" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="102" max="102" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="103" max="103" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="104" max="104" width="13.8666666666667" style="3" customWidth="1"/>
-    <col min="105" max="113" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="114" max="114" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="115" max="115" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="116" max="116" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="117" max="117" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="118" max="119" width="22.2666666666667" style="3" customWidth="1"/>
-    <col min="120" max="120" width="21.1333333333333" style="3" customWidth="1"/>
-    <col min="121" max="121" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="122" max="123" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="124" max="124" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="125" max="126" width="9.06666666666667" style="3" customWidth="1"/>
-    <col min="127" max="128" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="129" max="129" width="8.6" style="3" customWidth="1"/>
-    <col min="130" max="131" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="132" max="132" width="8.6" style="3" customWidth="1"/>
-    <col min="133" max="134" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="135" max="135" width="8.6" style="3" customWidth="1"/>
-    <col min="136" max="136" width="11.6" style="3" customWidth="1"/>
-    <col min="137" max="140" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="141" max="141" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="142" max="142" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="143" max="143" width="13.8666666666667" style="3" customWidth="1"/>
-    <col min="144" max="152" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="153" max="153" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="154" max="154" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="155" max="155" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="156" max="156" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="157" max="158" width="22.2666666666667" style="3" customWidth="1"/>
-    <col min="159" max="159" width="21.1333333333333" style="3" customWidth="1"/>
-    <col min="160" max="160" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="161" max="162" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="163" max="163" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="164" max="165" width="9.06666666666667" style="3" customWidth="1"/>
-    <col min="166" max="167" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="168" max="168" width="8.6" style="3" customWidth="1"/>
-    <col min="169" max="170" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="171" max="171" width="8.6" style="3" customWidth="1"/>
-    <col min="172" max="173" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="174" max="174" width="8.6" style="3" customWidth="1"/>
-    <col min="175" max="175" width="11.6" style="3" customWidth="1"/>
-    <col min="176" max="179" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="180" max="180" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="181" max="181" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="182" max="182" width="13.8666666666667" style="3" customWidth="1"/>
-    <col min="183" max="191" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="192" max="192" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="193" max="193" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="194" max="194" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="195" max="195" width="16.2416666666667" style="3" customWidth="1"/>
-    <col min="196" max="196" width="16.525" style="3" customWidth="1"/>
-    <col min="197" max="197" width="14.025" style="3" customWidth="1"/>
-    <col min="198" max="198" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="199" max="199" width="13.325" style="3" customWidth="1"/>
-    <col min="200" max="200" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="201" max="201" width="15.5583333333333" style="3" customWidth="1"/>
-    <col min="202" max="202" width="16.1166666666667" style="3" customWidth="1"/>
-    <col min="203" max="203" width="12.6416666666667" style="3" customWidth="1"/>
-    <col min="204" max="204" width="13.475" style="3" customWidth="1"/>
-    <col min="205" max="205" width="16.25" style="3" customWidth="1"/>
-    <col min="206" max="206" width="16.8" style="3" customWidth="1"/>
-    <col min="207" max="207" width="11.525" style="3" customWidth="1"/>
-    <col min="208" max="208" width="15.1333333333333" style="3" customWidth="1"/>
-    <col min="209" max="209" width="13.4666666666667" style="3" customWidth="1"/>
-    <col min="210" max="210" width="11.8083333333333" style="3" customWidth="1"/>
-    <col min="211" max="211" width="15.4166666666667" style="3" customWidth="1"/>
-    <col min="212" max="212" width="15.8333333333333" style="3" customWidth="1"/>
-    <col min="213" max="213" width="12.3583333333333" style="3" customWidth="1"/>
-    <col min="214" max="214" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="215" max="215" width="13.8916666666667" style="3" customWidth="1"/>
-    <col min="216" max="216" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="217" max="217" width="13.475" style="3" customWidth="1"/>
-    <col min="218" max="218" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="219" max="219" width="14.725" style="3" customWidth="1"/>
-    <col min="220" max="220" width="14.1583333333333" style="3" customWidth="1"/>
-    <col min="221" max="221" width="15.4166666666667" style="3" customWidth="1"/>
-    <col min="222" max="222" width="14.4416666666667" style="3" customWidth="1"/>
-    <col min="223" max="223" width="14.3083333333333" style="3" customWidth="1"/>
-    <col min="224" max="224" width="15" style="3" customWidth="1"/>
-    <col min="225" max="225" width="13.75" style="3" customWidth="1"/>
-    <col min="226" max="226" width="14.725" style="3" customWidth="1"/>
-    <col min="227" max="227" width="14.8583333333333" style="3" customWidth="1"/>
-    <col min="228" max="228" width="12.6416666666667" style="3" customWidth="1"/>
-    <col min="229" max="229" width="13.475" style="3" customWidth="1"/>
-    <col min="230" max="230" width="13.1916666666667" style="3" customWidth="1"/>
-    <col min="231" max="231" width="13.75" style="3" customWidth="1"/>
-    <col min="232" max="232" width="10.4083333333333" style="3" customWidth="1"/>
-    <col min="233" max="233" width="11.9416666666667" style="3" customWidth="1"/>
-    <col min="234" max="16384" width="11" style="3"/>
+    <col min="8" max="8" width="11.825" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.8916666666667" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.3333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.15" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.9666666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.8" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.5083333333333" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.0916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="22.225" style="3" customWidth="1"/>
+    <col min="17" max="17" width="22.7083333333333" style="3" customWidth="1"/>
+    <col min="18" max="18" width="18.2333333333333" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.1666666666667" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18.2333333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.0416666666667" style="3" customWidth="1"/>
+    <col min="23" max="23" width="13.3333333333333" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.8666666666667" style="3" customWidth="1"/>
+    <col min="25" max="25" width="19.3166666666667" style="3" customWidth="1"/>
+    <col min="26" max="26" width="15.9333333333333" style="3" customWidth="1"/>
+    <col min="27" max="27" width="11.475" style="3" customWidth="1"/>
+    <col min="28" max="28" width="17.625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="10.625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="13.6416666666667" style="3" customWidth="1"/>
+    <col min="31" max="31" width="13.0416666666667" style="3" customWidth="1"/>
+    <col min="32" max="32" width="17.3916666666667" style="3" customWidth="1"/>
+    <col min="33" max="33" width="14.0083333333333" style="3" customWidth="1"/>
+    <col min="34" max="34" width="19.2" style="3" customWidth="1"/>
+    <col min="35" max="35" width="10.5" style="3" customWidth="1"/>
+    <col min="36" max="36" width="19" style="3" customWidth="1"/>
+    <col min="37" max="37" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="38" max="40" width="14.8333333333333" style="3" customWidth="1"/>
+    <col min="41" max="41" width="12.8333333333333" style="3" customWidth="1"/>
+    <col min="42" max="42" width="8.83333333333333" style="3" customWidth="1"/>
+    <col min="43" max="44" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="45" max="45" width="16.8333333333333" style="3" customWidth="1"/>
+    <col min="46" max="47" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="48" max="49" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="50" max="50" width="8.6" style="3" customWidth="1"/>
+    <col min="51" max="52" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="53" max="53" width="8.6" style="3" customWidth="1"/>
+    <col min="54" max="55" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="56" max="56" width="8.6" style="3" customWidth="1"/>
+    <col min="57" max="57" width="11.6" style="3" customWidth="1"/>
+    <col min="58" max="61" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="62" max="62" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="63" max="63" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="64" max="64" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="65" max="73" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="74" max="74" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="75" max="75" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="76" max="76" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="77" max="77" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="78" max="79" width="22.2666666666667" style="3" customWidth="1"/>
+    <col min="80" max="80" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="81" max="81" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="82" max="83" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="84" max="84" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="85" max="86" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="87" max="88" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="89" max="89" width="8.6" style="3" customWidth="1"/>
+    <col min="90" max="91" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="92" max="92" width="8.6" style="3" customWidth="1"/>
+    <col min="93" max="94" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="95" max="95" width="8.6" style="3" customWidth="1"/>
+    <col min="96" max="96" width="11.6" style="3" customWidth="1"/>
+    <col min="97" max="100" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="101" max="101" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="102" max="102" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="103" max="103" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="104" max="112" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="113" max="113" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="114" max="114" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="115" max="115" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="116" max="116" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="117" max="118" width="22.2666666666667" style="3" customWidth="1"/>
+    <col min="119" max="119" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="120" max="120" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="121" max="122" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="123" max="123" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="124" max="125" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="126" max="127" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="128" max="128" width="8.6" style="3" customWidth="1"/>
+    <col min="129" max="130" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="131" max="131" width="8.6" style="3" customWidth="1"/>
+    <col min="132" max="133" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="134" max="134" width="8.6" style="3" customWidth="1"/>
+    <col min="135" max="135" width="11.6" style="3" customWidth="1"/>
+    <col min="136" max="139" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="140" max="140" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="141" max="141" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="142" max="142" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="143" max="151" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="152" max="152" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="153" max="153" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="154" max="154" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="155" max="155" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="156" max="157" width="22.2666666666667" style="3" customWidth="1"/>
+    <col min="158" max="158" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="159" max="159" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="160" max="161" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="162" max="162" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="163" max="164" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="165" max="166" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="167" max="167" width="8.6" style="3" customWidth="1"/>
+    <col min="168" max="169" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="170" max="170" width="8.6" style="3" customWidth="1"/>
+    <col min="171" max="172" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="173" max="173" width="8.6" style="3" customWidth="1"/>
+    <col min="174" max="174" width="11.6" style="3" customWidth="1"/>
+    <col min="175" max="178" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="179" max="179" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="180" max="180" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="181" max="181" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="182" max="190" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="191" max="191" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="192" max="192" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="193" max="193" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="194" max="194" width="16.2416666666667" style="3" customWidth="1"/>
+    <col min="195" max="195" width="16.525" style="3" customWidth="1"/>
+    <col min="196" max="196" width="14.025" style="3" customWidth="1"/>
+    <col min="197" max="197" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="198" max="198" width="13.325" style="3" customWidth="1"/>
+    <col min="199" max="199" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="200" max="200" width="15.5583333333333" style="3" customWidth="1"/>
+    <col min="201" max="201" width="16.1166666666667" style="3" customWidth="1"/>
+    <col min="202" max="202" width="12.6416666666667" style="3" customWidth="1"/>
+    <col min="203" max="203" width="13.475" style="3" customWidth="1"/>
+    <col min="204" max="204" width="16.25" style="3" customWidth="1"/>
+    <col min="205" max="205" width="16.8" style="3" customWidth="1"/>
+    <col min="206" max="206" width="11.525" style="3" customWidth="1"/>
+    <col min="207" max="207" width="15.1333333333333" style="3" customWidth="1"/>
+    <col min="208" max="208" width="13.4666666666667" style="3" customWidth="1"/>
+    <col min="209" max="209" width="11.8083333333333" style="3" customWidth="1"/>
+    <col min="210" max="210" width="15.4166666666667" style="3" customWidth="1"/>
+    <col min="211" max="211" width="15.8333333333333" style="3" customWidth="1"/>
+    <col min="212" max="212" width="12.3583333333333" style="3" customWidth="1"/>
+    <col min="213" max="213" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="214" max="214" width="13.8916666666667" style="3" customWidth="1"/>
+    <col min="215" max="215" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="216" max="216" width="13.475" style="3" customWidth="1"/>
+    <col min="217" max="217" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="218" max="218" width="14.725" style="3" customWidth="1"/>
+    <col min="219" max="219" width="14.1583333333333" style="3" customWidth="1"/>
+    <col min="220" max="220" width="15.4166666666667" style="3" customWidth="1"/>
+    <col min="221" max="221" width="14.4416666666667" style="3" customWidth="1"/>
+    <col min="222" max="222" width="14.3083333333333" style="3" customWidth="1"/>
+    <col min="223" max="223" width="15" style="3" customWidth="1"/>
+    <col min="224" max="224" width="13.75" style="3" customWidth="1"/>
+    <col min="225" max="225" width="14.725" style="3" customWidth="1"/>
+    <col min="226" max="226" width="14.8583333333333" style="3" customWidth="1"/>
+    <col min="227" max="227" width="12.6416666666667" style="3" customWidth="1"/>
+    <col min="228" max="228" width="13.475" style="3" customWidth="1"/>
+    <col min="229" max="229" width="13.1916666666667" style="3" customWidth="1"/>
+    <col min="230" max="230" width="13.75" style="3" customWidth="1"/>
+    <col min="231" max="231" width="10.4083333333333" style="3" customWidth="1"/>
+    <col min="232" max="232" width="11.9416666666667" style="3" customWidth="1"/>
+    <col min="233" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:272">
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:271">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2474,23 +2467,21 @@
       <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="R1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
@@ -2498,258 +2489,257 @@
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="AA1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10"/>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
       <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="11"/>
-      <c r="CK1" s="11"/>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="11"/>
-      <c r="DC1" s="11"/>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="11"/>
-      <c r="DU1" s="11"/>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="11"/>
-      <c r="EM1" s="11"/>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="11"/>
-      <c r="FE1" s="11"/>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="11"/>
-      <c r="FW1" s="11"/>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="11"/>
-      <c r="GO1" s="11"/>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="11"/>
-      <c r="HG1" s="11"/>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="11"/>
-      <c r="HY1" s="11"/>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="11"/>
-      <c r="IQ1" s="11"/>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="11"/>
-      <c r="JI1" s="11"/>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
+      <c r="AI1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="10"/>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="10"/>
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="10"/>
+      <c r="CH1" s="10"/>
+      <c r="CI1" s="10"/>
+      <c r="CJ1" s="10"/>
+      <c r="CK1" s="10"/>
+      <c r="CL1" s="10"/>
+      <c r="CM1" s="10"/>
+      <c r="CN1" s="10"/>
+      <c r="CO1" s="10"/>
+      <c r="CP1" s="10"/>
+      <c r="CQ1" s="10"/>
+      <c r="CR1" s="10"/>
+      <c r="CS1" s="10"/>
+      <c r="CT1" s="10"/>
+      <c r="CU1" s="10"/>
+      <c r="CV1" s="10"/>
+      <c r="CW1" s="10"/>
+      <c r="CX1" s="10"/>
+      <c r="CY1" s="10"/>
+      <c r="CZ1" s="10"/>
+      <c r="DA1" s="10"/>
+      <c r="DB1" s="10"/>
+      <c r="DC1" s="10"/>
+      <c r="DD1" s="10"/>
+      <c r="DE1" s="10"/>
+      <c r="DF1" s="10"/>
+      <c r="DG1" s="10"/>
+      <c r="DH1" s="10"/>
+      <c r="DI1" s="10"/>
+      <c r="DJ1" s="10"/>
+      <c r="DK1" s="10"/>
+      <c r="DL1" s="10"/>
+      <c r="DM1" s="10"/>
+      <c r="DN1" s="10"/>
+      <c r="DO1" s="10"/>
+      <c r="DP1" s="10"/>
+      <c r="DQ1" s="10"/>
+      <c r="DR1" s="10"/>
+      <c r="DS1" s="10"/>
+      <c r="DT1" s="10"/>
+      <c r="DU1" s="10"/>
+      <c r="DV1" s="10"/>
+      <c r="DW1" s="10"/>
+      <c r="DX1" s="10"/>
+      <c r="DY1" s="10"/>
+      <c r="DZ1" s="10"/>
+      <c r="EA1" s="10"/>
+      <c r="EB1" s="10"/>
+      <c r="EC1" s="10"/>
+      <c r="ED1" s="10"/>
+      <c r="EE1" s="10"/>
+      <c r="EF1" s="10"/>
+      <c r="EG1" s="10"/>
+      <c r="EH1" s="10"/>
+      <c r="EI1" s="10"/>
+      <c r="EJ1" s="10"/>
+      <c r="EK1" s="10"/>
+      <c r="EL1" s="10"/>
+      <c r="EM1" s="10"/>
+      <c r="EN1" s="10"/>
+      <c r="EO1" s="10"/>
+      <c r="EP1" s="10"/>
+      <c r="EQ1" s="10"/>
+      <c r="ER1" s="10"/>
+      <c r="ES1" s="10"/>
+      <c r="ET1" s="10"/>
+      <c r="EU1" s="10"/>
+      <c r="EV1" s="10"/>
+      <c r="EW1" s="10"/>
+      <c r="EX1" s="10"/>
+      <c r="EY1" s="10"/>
+      <c r="EZ1" s="10"/>
+      <c r="FA1" s="10"/>
+      <c r="FB1" s="10"/>
+      <c r="FC1" s="10"/>
+      <c r="FD1" s="10"/>
+      <c r="FE1" s="10"/>
+      <c r="FF1" s="10"/>
+      <c r="FG1" s="10"/>
+      <c r="FH1" s="10"/>
+      <c r="FI1" s="10"/>
+      <c r="FJ1" s="10"/>
+      <c r="FK1" s="10"/>
+      <c r="FL1" s="10"/>
+      <c r="FM1" s="10"/>
+      <c r="FN1" s="10"/>
+      <c r="FO1" s="10"/>
+      <c r="FP1" s="10"/>
+      <c r="FQ1" s="10"/>
+      <c r="FR1" s="10"/>
+      <c r="FS1" s="10"/>
+      <c r="FT1" s="10"/>
+      <c r="FU1" s="10"/>
+      <c r="FV1" s="10"/>
+      <c r="FW1" s="10"/>
+      <c r="FX1" s="10"/>
+      <c r="FY1" s="10"/>
+      <c r="FZ1" s="10"/>
+      <c r="GA1" s="10"/>
+      <c r="GB1" s="10"/>
+      <c r="GC1" s="10"/>
+      <c r="GD1" s="10"/>
+      <c r="GE1" s="10"/>
+      <c r="GF1" s="10"/>
+      <c r="GG1" s="10"/>
+      <c r="GH1" s="10"/>
+      <c r="GI1" s="10"/>
+      <c r="GJ1" s="10"/>
+      <c r="GK1" s="10"/>
+      <c r="GL1" s="10"/>
+      <c r="GM1" s="10"/>
+      <c r="GN1" s="10"/>
+      <c r="GO1" s="10"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
+      <c r="GT1" s="10"/>
+      <c r="GU1" s="10"/>
+      <c r="GV1" s="10"/>
+      <c r="GW1" s="10"/>
+      <c r="GX1" s="10"/>
+      <c r="GY1" s="10"/>
+      <c r="GZ1" s="10"/>
+      <c r="HA1" s="10"/>
+      <c r="HB1" s="10"/>
+      <c r="HC1" s="10"/>
+      <c r="HD1" s="10"/>
+      <c r="HE1" s="10"/>
+      <c r="HF1" s="10"/>
+      <c r="HG1" s="10"/>
+      <c r="HH1" s="10"/>
+      <c r="HI1" s="10"/>
+      <c r="HJ1" s="10"/>
+      <c r="HK1" s="10"/>
+      <c r="HL1" s="10"/>
+      <c r="HM1" s="10"/>
+      <c r="HN1" s="10"/>
+      <c r="HO1" s="10"/>
+      <c r="HP1" s="10"/>
+      <c r="HQ1" s="10"/>
+      <c r="HR1" s="10"/>
+      <c r="HS1" s="10"/>
+      <c r="HT1" s="10"/>
+      <c r="HU1" s="10"/>
+      <c r="HV1" s="10"/>
+      <c r="HW1" s="10"/>
+      <c r="HX1" s="10"/>
+      <c r="HY1" s="10"/>
+      <c r="HZ1" s="10"/>
+      <c r="IA1" s="10"/>
+      <c r="IB1" s="10"/>
+      <c r="IC1" s="10"/>
+      <c r="ID1" s="10"/>
+      <c r="IE1" s="10"/>
+      <c r="IF1" s="10"/>
+      <c r="IG1" s="10"/>
+      <c r="IH1" s="10"/>
+      <c r="II1" s="10"/>
+      <c r="IJ1" s="10"/>
+      <c r="IK1" s="10"/>
+      <c r="IL1" s="10"/>
+      <c r="IM1" s="10"/>
+      <c r="IN1" s="10"/>
+      <c r="IO1" s="10"/>
+      <c r="IP1" s="10"/>
+      <c r="IQ1" s="10"/>
+      <c r="IR1" s="10"/>
+      <c r="IS1" s="10"/>
+      <c r="IT1" s="10"/>
+      <c r="IU1" s="10"/>
+      <c r="IV1" s="10"/>
+      <c r="IW1" s="10"/>
+      <c r="IX1" s="10"/>
+      <c r="IY1" s="10"/>
+      <c r="IZ1" s="10"/>
+      <c r="JA1" s="10"/>
+      <c r="JB1" s="10"/>
+      <c r="JC1" s="10"/>
+      <c r="JD1" s="10"/>
+      <c r="JE1" s="10"/>
+      <c r="JF1" s="10"/>
+      <c r="JG1" s="10"/>
+      <c r="JH1" s="10"/>
+      <c r="JI1" s="10"/>
+      <c r="JJ1" s="10"/>
+      <c r="JK1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:272">
+    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:271">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2760,7 +2750,9 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2776,28 +2768,28 @@
       <c r="P2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="7"/>
       <c r="W2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="7"/>
       <c r="AA2" s="7" t="s">
         <v>27</v>
       </c>
@@ -2822,350 +2814,347 @@
       <c r="AH2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AK2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="AL2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AM2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12" t="s">
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12" t="s">
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12" t="s">
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12" t="s">
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="12"/>
-      <c r="BN2" s="12" t="s">
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="11"/>
+      <c r="BY2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="BO2" s="12"/>
-      <c r="BP2" s="12"/>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="12"/>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="12"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="12"/>
-      <c r="BW2" s="12"/>
-      <c r="BX2" s="12"/>
-      <c r="BY2" s="12"/>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="12" t="s">
+      <c r="CA2" s="11"/>
+      <c r="CB2" s="11"/>
+      <c r="CC2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="CB2" s="12"/>
-      <c r="CC2" s="12"/>
-      <c r="CD2" s="12" t="s">
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="CE2" s="12"/>
-      <c r="CF2" s="12"/>
-      <c r="CG2" s="12"/>
-      <c r="CH2" s="12" t="s">
+      <c r="CH2" s="11"/>
+      <c r="CI2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="CI2" s="12"/>
-      <c r="CJ2" s="12" t="s">
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="11"/>
+      <c r="CM2" s="11"/>
+      <c r="CN2" s="11"/>
+      <c r="CO2" s="11"/>
+      <c r="CP2" s="11"/>
+      <c r="CQ2" s="11"/>
+      <c r="CR2" s="11"/>
+      <c r="CS2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="12"/>
-      <c r="CO2" s="12"/>
-      <c r="CP2" s="12"/>
-      <c r="CQ2" s="12"/>
-      <c r="CR2" s="12"/>
-      <c r="CS2" s="12"/>
-      <c r="CT2" s="12" t="s">
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="11"/>
+      <c r="CW2" s="11"/>
+      <c r="CX2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="CU2" s="12"/>
-      <c r="CV2" s="12"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="12"/>
-      <c r="CY2" s="12" t="s">
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="CZ2" s="12"/>
-      <c r="DA2" s="12" t="s">
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+      <c r="DD2" s="11"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11"/>
+      <c r="DK2" s="11"/>
+      <c r="DL2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="DB2" s="12"/>
-      <c r="DC2" s="12"/>
-      <c r="DD2" s="12"/>
-      <c r="DE2" s="12"/>
-      <c r="DF2" s="12"/>
-      <c r="DG2" s="12"/>
-      <c r="DH2" s="12"/>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="12"/>
-      <c r="DK2" s="12"/>
-      <c r="DL2" s="12"/>
-      <c r="DM2" s="13" t="s">
+      <c r="DM2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="DN2" s="12" t="s">
+      <c r="DN2" s="11"/>
+      <c r="DO2" s="11"/>
+      <c r="DP2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="DO2" s="12"/>
-      <c r="DP2" s="12"/>
-      <c r="DQ2" s="12" t="s">
+      <c r="DQ2" s="11"/>
+      <c r="DR2" s="11"/>
+      <c r="DS2" s="11"/>
+      <c r="DT2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="DR2" s="12"/>
-      <c r="DS2" s="12"/>
-      <c r="DT2" s="12"/>
-      <c r="DU2" s="12" t="s">
+      <c r="DU2" s="11"/>
+      <c r="DV2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="DV2" s="12"/>
-      <c r="DW2" s="12" t="s">
+      <c r="DW2" s="11"/>
+      <c r="DX2" s="11"/>
+      <c r="DY2" s="11"/>
+      <c r="DZ2" s="11"/>
+      <c r="EA2" s="11"/>
+      <c r="EB2" s="11"/>
+      <c r="EC2" s="11"/>
+      <c r="ED2" s="11"/>
+      <c r="EE2" s="11"/>
+      <c r="EF2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="DX2" s="12"/>
-      <c r="DY2" s="12"/>
-      <c r="DZ2" s="12"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="12"/>
-      <c r="EC2" s="12"/>
-      <c r="ED2" s="12"/>
-      <c r="EE2" s="12"/>
-      <c r="EF2" s="12"/>
-      <c r="EG2" s="12" t="s">
+      <c r="EG2" s="11"/>
+      <c r="EH2" s="11"/>
+      <c r="EI2" s="11"/>
+      <c r="EJ2" s="11"/>
+      <c r="EK2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="EH2" s="12"/>
-      <c r="EI2" s="12"/>
-      <c r="EJ2" s="12"/>
-      <c r="EK2" s="12"/>
-      <c r="EL2" s="12" t="s">
+      <c r="EL2" s="11"/>
+      <c r="EM2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="EM2" s="12"/>
-      <c r="EN2" s="12" t="s">
+      <c r="EN2" s="11"/>
+      <c r="EO2" s="11"/>
+      <c r="EP2" s="11"/>
+      <c r="EQ2" s="11"/>
+      <c r="ER2" s="11"/>
+      <c r="ES2" s="11"/>
+      <c r="ET2" s="11"/>
+      <c r="EU2" s="11"/>
+      <c r="EV2" s="11"/>
+      <c r="EW2" s="11"/>
+      <c r="EX2" s="11"/>
+      <c r="EY2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="EO2" s="12"/>
-      <c r="EP2" s="12"/>
-      <c r="EQ2" s="12"/>
-      <c r="ER2" s="12"/>
-      <c r="ES2" s="12"/>
-      <c r="ET2" s="12"/>
-      <c r="EU2" s="12"/>
-      <c r="EV2" s="12"/>
-      <c r="EW2" s="12"/>
-      <c r="EX2" s="12"/>
-      <c r="EY2" s="12"/>
-      <c r="EZ2" s="13" t="s">
+      <c r="EZ2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="FA2" s="12" t="s">
+      <c r="FA2" s="11"/>
+      <c r="FB2" s="11"/>
+      <c r="FC2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="FB2" s="12"/>
-      <c r="FC2" s="12"/>
-      <c r="FD2" s="12" t="s">
+      <c r="FD2" s="11"/>
+      <c r="FE2" s="11"/>
+      <c r="FF2" s="11"/>
+      <c r="FG2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="FE2" s="12"/>
-      <c r="FF2" s="12"/>
-      <c r="FG2" s="12"/>
-      <c r="FH2" s="12" t="s">
+      <c r="FH2" s="11"/>
+      <c r="FI2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="FI2" s="12"/>
-      <c r="FJ2" s="12" t="s">
+      <c r="FJ2" s="11"/>
+      <c r="FK2" s="11"/>
+      <c r="FL2" s="11"/>
+      <c r="FM2" s="11"/>
+      <c r="FN2" s="11"/>
+      <c r="FO2" s="11"/>
+      <c r="FP2" s="11"/>
+      <c r="FQ2" s="11"/>
+      <c r="FR2" s="11"/>
+      <c r="FS2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="FK2" s="12"/>
-      <c r="FL2" s="12"/>
-      <c r="FM2" s="12"/>
-      <c r="FN2" s="12"/>
-      <c r="FO2" s="12"/>
-      <c r="FP2" s="12"/>
-      <c r="FQ2" s="12"/>
-      <c r="FR2" s="12"/>
-      <c r="FS2" s="12"/>
-      <c r="FT2" s="12" t="s">
+      <c r="FT2" s="11"/>
+      <c r="FU2" s="11"/>
+      <c r="FV2" s="11"/>
+      <c r="FW2" s="11"/>
+      <c r="FX2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="FU2" s="12"/>
-      <c r="FV2" s="12"/>
-      <c r="FW2" s="12"/>
-      <c r="FX2" s="12"/>
-      <c r="FY2" s="12" t="s">
+      <c r="FY2" s="11"/>
+      <c r="FZ2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="FZ2" s="12"/>
-      <c r="GA2" s="12" t="s">
+      <c r="GA2" s="11"/>
+      <c r="GB2" s="11"/>
+      <c r="GC2" s="11"/>
+      <c r="GD2" s="11"/>
+      <c r="GE2" s="11"/>
+      <c r="GF2" s="11"/>
+      <c r="GG2" s="11"/>
+      <c r="GH2" s="11"/>
+      <c r="GI2" s="11"/>
+      <c r="GJ2" s="11"/>
+      <c r="GK2" s="11"/>
+      <c r="GL2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="GB2" s="12"/>
-      <c r="GC2" s="12"/>
-      <c r="GD2" s="12"/>
-      <c r="GE2" s="12"/>
-      <c r="GF2" s="12"/>
-      <c r="GG2" s="12"/>
-      <c r="GH2" s="12"/>
-      <c r="GI2" s="12"/>
-      <c r="GJ2" s="12"/>
-      <c r="GK2" s="12"/>
-      <c r="GL2" s="12"/>
-      <c r="GM2" s="13" t="s">
+      <c r="GM2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="GN2" s="12" t="s">
+      <c r="GN2" s="11"/>
+      <c r="GO2" s="11"/>
+      <c r="GP2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="GO2" s="12"/>
-      <c r="GP2" s="12"/>
-      <c r="GQ2" s="12" t="s">
+      <c r="GQ2" s="11"/>
+      <c r="GR2" s="11"/>
+      <c r="GS2" s="11"/>
+      <c r="GT2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="GR2" s="12"/>
-      <c r="GS2" s="12"/>
-      <c r="GT2" s="12"/>
-      <c r="GU2" s="12" t="s">
+      <c r="GU2" s="11"/>
+      <c r="GV2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="GV2" s="12"/>
-      <c r="GW2" s="12" t="s">
+      <c r="GW2" s="11"/>
+      <c r="GX2" s="11"/>
+      <c r="GY2" s="11"/>
+      <c r="GZ2" s="11"/>
+      <c r="HA2" s="11"/>
+      <c r="HB2" s="11"/>
+      <c r="HC2" s="11"/>
+      <c r="HD2" s="11"/>
+      <c r="HE2" s="11"/>
+      <c r="HF2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="GX2" s="12"/>
-      <c r="GY2" s="12"/>
-      <c r="GZ2" s="12"/>
-      <c r="HA2" s="12"/>
-      <c r="HB2" s="12"/>
-      <c r="HC2" s="12"/>
-      <c r="HD2" s="12"/>
-      <c r="HE2" s="12"/>
-      <c r="HF2" s="12"/>
-      <c r="HG2" s="12" t="s">
+      <c r="HG2" s="11"/>
+      <c r="HH2" s="11"/>
+      <c r="HI2" s="11"/>
+      <c r="HJ2" s="11"/>
+      <c r="HK2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="HH2" s="12"/>
-      <c r="HI2" s="12"/>
-      <c r="HJ2" s="12"/>
-      <c r="HK2" s="12"/>
-      <c r="HL2" s="12" t="s">
+      <c r="HL2" s="11"/>
+      <c r="HM2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="HM2" s="12"/>
-      <c r="HN2" s="12" t="s">
+      <c r="HN2" s="11"/>
+      <c r="HO2" s="11"/>
+      <c r="HP2" s="11"/>
+      <c r="HQ2" s="11"/>
+      <c r="HR2" s="11"/>
+      <c r="HS2" s="11"/>
+      <c r="HT2" s="11"/>
+      <c r="HU2" s="11"/>
+      <c r="HV2" s="11"/>
+      <c r="HW2" s="11"/>
+      <c r="HX2" s="11"/>
+      <c r="HY2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="HO2" s="12"/>
-      <c r="HP2" s="12"/>
-      <c r="HQ2" s="12"/>
-      <c r="HR2" s="12"/>
-      <c r="HS2" s="12"/>
-      <c r="HT2" s="12"/>
-      <c r="HU2" s="12"/>
-      <c r="HV2" s="12"/>
-      <c r="HW2" s="12"/>
-      <c r="HX2" s="12"/>
-      <c r="HY2" s="12"/>
-      <c r="HZ2" s="13" t="s">
+      <c r="HZ2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="IA2" s="12" t="s">
+      <c r="IA2" s="11"/>
+      <c r="IB2" s="11"/>
+      <c r="IC2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="IB2" s="12"/>
-      <c r="IC2" s="12"/>
-      <c r="ID2" s="12" t="s">
+      <c r="ID2" s="11"/>
+      <c r="IE2" s="11"/>
+      <c r="IF2" s="11"/>
+      <c r="IG2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="IE2" s="12"/>
-      <c r="IF2" s="12"/>
-      <c r="IG2" s="12"/>
-      <c r="IH2" s="12" t="s">
+      <c r="IH2" s="11"/>
+      <c r="II2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="II2" s="12"/>
-      <c r="IJ2" s="12" t="s">
+      <c r="IJ2" s="11"/>
+      <c r="IK2" s="11"/>
+      <c r="IL2" s="11"/>
+      <c r="IM2" s="11"/>
+      <c r="IN2" s="11"/>
+      <c r="IO2" s="11"/>
+      <c r="IP2" s="11"/>
+      <c r="IQ2" s="11"/>
+      <c r="IR2" s="11"/>
+      <c r="IS2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="IK2" s="12"/>
-      <c r="IL2" s="12"/>
-      <c r="IM2" s="12"/>
-      <c r="IN2" s="12"/>
-      <c r="IO2" s="12"/>
-      <c r="IP2" s="12"/>
-      <c r="IQ2" s="12"/>
-      <c r="IR2" s="12"/>
-      <c r="IS2" s="12"/>
-      <c r="IT2" s="12" t="s">
+      <c r="IT2" s="11"/>
+      <c r="IU2" s="11"/>
+      <c r="IV2" s="11"/>
+      <c r="IW2" s="11"/>
+      <c r="IX2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="IU2" s="12"/>
-      <c r="IV2" s="12"/>
-      <c r="IW2" s="12"/>
-      <c r="IX2" s="12"/>
-      <c r="IY2" s="12" t="s">
+      <c r="IY2" s="11"/>
+      <c r="IZ2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="IZ2" s="12"/>
-      <c r="JA2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="JB2" s="12"/>
-      <c r="JC2" s="12"/>
-      <c r="JD2" s="12"/>
-      <c r="JE2" s="12"/>
-      <c r="JF2" s="12"/>
-      <c r="JG2" s="12"/>
-      <c r="JH2" s="12"/>
-      <c r="JI2" s="12"/>
-      <c r="JJ2" s="12"/>
-      <c r="JK2" s="12"/>
-      <c r="JL2" s="12"/>
+      <c r="JA2" s="11"/>
+      <c r="JB2" s="11"/>
+      <c r="JC2" s="11"/>
+      <c r="JD2" s="11"/>
+      <c r="JE2" s="11"/>
+      <c r="JF2" s="11"/>
+      <c r="JG2" s="11"/>
+      <c r="JH2" s="11"/>
+      <c r="JI2" s="11"/>
+      <c r="JJ2" s="11"/>
+      <c r="JK2" s="11"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:272">
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:271">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3181,7 +3170,9 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="Q3" s="9" t="s">
         <v>87</v>
       </c>
@@ -3197,17 +3188,15 @@
       <c r="U3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
       <c r="Y3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Z3" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -3219,7 +3208,9 @@
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
+      <c r="AL3" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AM3" s="9" t="s">
         <v>95</v>
       </c>
@@ -3329,13 +3320,13 @@
         <v>130</v>
       </c>
       <c r="BW3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BX3" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="BY3" s="9" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="BZ3" s="9" t="s">
         <v>95</v>
@@ -3446,13 +3437,13 @@
         <v>130</v>
       </c>
       <c r="DJ3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="DK3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="DK3" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="DL3" s="9" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="DM3" s="9" t="s">
         <v>95</v>
@@ -3563,13 +3554,13 @@
         <v>130</v>
       </c>
       <c r="EW3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="EX3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="EX3" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="EY3" s="9" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="EZ3" s="9" t="s">
         <v>95</v>
@@ -3680,13 +3671,13 @@
         <v>130</v>
       </c>
       <c r="GJ3" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="GK3" s="9" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="GL3" s="9" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="GM3" s="9" t="s">
         <v>95</v>
@@ -3797,13 +3788,13 @@
         <v>130</v>
       </c>
       <c r="HW3" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="HX3" s="9" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="HY3" s="9" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="HZ3" s="9" t="s">
         <v>95</v>
@@ -3914,51 +3905,50 @@
         <v>130</v>
       </c>
       <c r="JJ3" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="JK3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="JL3" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="18" spans="1:271">
+      <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="18" spans="1:272">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="8"/>
       <c r="I4" s="2" t="s">
         <v>141</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>143</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="2" t="s">
         <v>145</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -3967,13 +3957,13 @@
       <c r="O4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="8" t="s">
         <v>148</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="2" t="s">
         <v>150</v>
       </c>
       <c r="S4" s="2" t="s">
@@ -3982,13 +3972,13 @@
       <c r="T4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="8" t="s">
         <v>153</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="2" t="s">
         <v>155</v>
       </c>
       <c r="X4" s="2" t="s">
@@ -3997,13 +3987,13 @@
       <c r="Y4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="8" t="s">
         <v>158</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="2" t="s">
         <v>160</v>
       </c>
       <c r="AC4" s="2" t="s">
@@ -4012,13 +4002,13 @@
       <c r="AD4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AE4" s="8" t="s">
         <v>163</v>
       </c>
       <c r="AF4" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AG4" s="2" t="s">
         <v>165</v>
       </c>
       <c r="AH4" s="2" t="s">
@@ -4027,13 +4017,13 @@
       <c r="AI4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>168</v>
       </c>
       <c r="AK4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AL4" s="2" t="s">
         <v>170</v>
       </c>
       <c r="AM4" s="2" t="s">
@@ -4042,13 +4032,13 @@
       <c r="AN4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AO4" s="8" t="s">
         <v>173</v>
       </c>
       <c r="AP4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>175</v>
       </c>
       <c r="AR4" s="2" t="s">
@@ -4057,13 +4047,13 @@
       <c r="AS4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AT4" s="8" t="s">
         <v>178</v>
       </c>
       <c r="AU4" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AV4" s="2" t="s">
         <v>180</v>
       </c>
       <c r="AW4" s="2" t="s">
@@ -4072,13 +4062,13 @@
       <c r="AX4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="AY4" s="8" t="s">
         <v>183</v>
       </c>
       <c r="AZ4" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="8" t="s">
+      <c r="BA4" s="2" t="s">
         <v>185</v>
       </c>
       <c r="BB4" s="2" t="s">
@@ -4087,13 +4077,13 @@
       <c r="BC4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BD4" s="8" t="s">
         <v>188</v>
       </c>
       <c r="BE4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BF4" s="8" t="s">
+      <c r="BF4" s="2" t="s">
         <v>190</v>
       </c>
       <c r="BG4" s="2" t="s">
@@ -4102,13 +4092,13 @@
       <c r="BH4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BI4" s="2" t="s">
+      <c r="BI4" s="8" t="s">
         <v>193</v>
       </c>
       <c r="BJ4" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="BK4" s="8" t="s">
+      <c r="BK4" s="2" t="s">
         <v>195</v>
       </c>
       <c r="BL4" s="2" t="s">
@@ -4117,13 +4107,13 @@
       <c r="BM4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BN4" s="2" t="s">
+      <c r="BN4" s="8" t="s">
         <v>198</v>
       </c>
       <c r="BO4" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="BP4" s="8" t="s">
+      <c r="BP4" s="2" t="s">
         <v>200</v>
       </c>
       <c r="BQ4" s="2" t="s">
@@ -4132,13 +4122,13 @@
       <c r="BR4" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BS4" s="2" t="s">
+      <c r="BS4" s="8" t="s">
         <v>203</v>
       </c>
       <c r="BT4" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="BU4" s="8" t="s">
+      <c r="BU4" s="2" t="s">
         <v>205</v>
       </c>
       <c r="BV4" s="2" t="s">
@@ -4147,10 +4137,10 @@
       <c r="BW4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BX4" s="2" t="s">
+      <c r="BX4" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="BY4" s="8" t="s">
+      <c r="BY4" s="2" t="s">
         <v>209</v>
       </c>
       <c r="BZ4" s="2" t="s">
@@ -4159,13 +4149,13 @@
       <c r="CA4" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="CB4" s="2" t="s">
+      <c r="CB4" s="8" t="s">
         <v>212</v>
       </c>
       <c r="CC4" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="CD4" s="8" t="s">
+      <c r="CD4" s="2" t="s">
         <v>214</v>
       </c>
       <c r="CE4" s="2" t="s">
@@ -4174,13 +4164,13 @@
       <c r="CF4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="CG4" s="2" t="s">
+      <c r="CG4" s="8" t="s">
         <v>217</v>
       </c>
       <c r="CH4" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="CI4" s="8" t="s">
+      <c r="CI4" s="2" t="s">
         <v>219</v>
       </c>
       <c r="CJ4" s="2" t="s">
@@ -4189,13 +4179,13 @@
       <c r="CK4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="CL4" s="2" t="s">
+      <c r="CL4" s="8" t="s">
         <v>222</v>
       </c>
       <c r="CM4" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="CN4" s="8" t="s">
+      <c r="CN4" s="2" t="s">
         <v>224</v>
       </c>
       <c r="CO4" s="2" t="s">
@@ -4204,13 +4194,13 @@
       <c r="CP4" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="CQ4" s="2" t="s">
+      <c r="CQ4" s="8" t="s">
         <v>227</v>
       </c>
       <c r="CR4" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="CS4" s="8" t="s">
+      <c r="CS4" s="2" t="s">
         <v>229</v>
       </c>
       <c r="CT4" s="2" t="s">
@@ -4219,13 +4209,13 @@
       <c r="CU4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="CV4" s="2" t="s">
+      <c r="CV4" s="8" t="s">
         <v>232</v>
       </c>
       <c r="CW4" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="CX4" s="8" t="s">
+      <c r="CX4" s="2" t="s">
         <v>234</v>
       </c>
       <c r="CY4" s="2" t="s">
@@ -4234,13 +4224,13 @@
       <c r="CZ4" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="DA4" s="2" t="s">
+      <c r="DA4" s="8" t="s">
         <v>237</v>
       </c>
       <c r="DB4" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="DC4" s="8" t="s">
+      <c r="DC4" s="2" t="s">
         <v>239</v>
       </c>
       <c r="DD4" s="2" t="s">
@@ -4249,13 +4239,13 @@
       <c r="DE4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="DF4" s="2" t="s">
+      <c r="DF4" s="8" t="s">
         <v>242</v>
       </c>
       <c r="DG4" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="DH4" s="8" t="s">
+      <c r="DH4" s="2" t="s">
         <v>244</v>
       </c>
       <c r="DI4" s="2" t="s">
@@ -4264,10 +4254,10 @@
       <c r="DJ4" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="DK4" s="2" t="s">
+      <c r="DK4" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="DL4" s="8" t="s">
+      <c r="DL4" s="2" t="s">
         <v>248</v>
       </c>
       <c r="DM4" s="2" t="s">
@@ -4276,13 +4266,13 @@
       <c r="DN4" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="DO4" s="2" t="s">
+      <c r="DO4" s="8" t="s">
         <v>251</v>
       </c>
       <c r="DP4" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="DQ4" s="8" t="s">
+      <c r="DQ4" s="2" t="s">
         <v>253</v>
       </c>
       <c r="DR4" s="2" t="s">
@@ -4291,13 +4281,13 @@
       <c r="DS4" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="DT4" s="2" t="s">
+      <c r="DT4" s="8" t="s">
         <v>256</v>
       </c>
       <c r="DU4" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="DV4" s="8" t="s">
+      <c r="DV4" s="2" t="s">
         <v>258</v>
       </c>
       <c r="DW4" s="2" t="s">
@@ -4306,13 +4296,13 @@
       <c r="DX4" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="DY4" s="2" t="s">
+      <c r="DY4" s="8" t="s">
         <v>261</v>
       </c>
       <c r="DZ4" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="EA4" s="8" t="s">
+      <c r="EA4" s="2" t="s">
         <v>263</v>
       </c>
       <c r="EB4" s="2" t="s">
@@ -4321,13 +4311,13 @@
       <c r="EC4" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="ED4" s="2" t="s">
+      <c r="ED4" s="8" t="s">
         <v>266</v>
       </c>
       <c r="EE4" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="EF4" s="8" t="s">
+      <c r="EF4" s="2" t="s">
         <v>268</v>
       </c>
       <c r="EG4" s="2" t="s">
@@ -4336,13 +4326,13 @@
       <c r="EH4" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="EI4" s="2" t="s">
+      <c r="EI4" s="8" t="s">
         <v>271</v>
       </c>
       <c r="EJ4" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="EK4" s="8" t="s">
+      <c r="EK4" s="2" t="s">
         <v>273</v>
       </c>
       <c r="EL4" s="2" t="s">
@@ -4351,13 +4341,13 @@
       <c r="EM4" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="EN4" s="2" t="s">
+      <c r="EN4" s="8" t="s">
         <v>276</v>
       </c>
       <c r="EO4" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="EP4" s="8" t="s">
+      <c r="EP4" s="2" t="s">
         <v>278</v>
       </c>
       <c r="EQ4" s="2" t="s">
@@ -4366,13 +4356,13 @@
       <c r="ER4" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="ES4" s="2" t="s">
+      <c r="ES4" s="8" t="s">
         <v>281</v>
       </c>
       <c r="ET4" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="EU4" s="8" t="s">
+      <c r="EU4" s="2" t="s">
         <v>283</v>
       </c>
       <c r="EV4" s="2" t="s">
@@ -4381,10 +4371,10 @@
       <c r="EW4" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="EX4" s="2" t="s">
+      <c r="EX4" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="EY4" s="8" t="s">
+      <c r="EY4" s="2" t="s">
         <v>287</v>
       </c>
       <c r="EZ4" s="2" t="s">
@@ -4393,13 +4383,13 @@
       <c r="FA4" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="FB4" s="2" t="s">
+      <c r="FB4" s="8" t="s">
         <v>290</v>
       </c>
       <c r="FC4" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="FD4" s="8" t="s">
+      <c r="FD4" s="2" t="s">
         <v>292</v>
       </c>
       <c r="FE4" s="2" t="s">
@@ -4408,13 +4398,13 @@
       <c r="FF4" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="FG4" s="2" t="s">
+      <c r="FG4" s="8" t="s">
         <v>295</v>
       </c>
       <c r="FH4" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="FI4" s="8" t="s">
+      <c r="FI4" s="2" t="s">
         <v>297</v>
       </c>
       <c r="FJ4" s="2" t="s">
@@ -4423,13 +4413,13 @@
       <c r="FK4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="FL4" s="2" t="s">
+      <c r="FL4" s="8" t="s">
         <v>300</v>
       </c>
       <c r="FM4" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="FN4" s="8" t="s">
+      <c r="FN4" s="2" t="s">
         <v>302</v>
       </c>
       <c r="FO4" s="2" t="s">
@@ -4438,13 +4428,13 @@
       <c r="FP4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="FQ4" s="2" t="s">
+      <c r="FQ4" s="8" t="s">
         <v>305</v>
       </c>
       <c r="FR4" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="FS4" s="8" t="s">
+      <c r="FS4" s="2" t="s">
         <v>307</v>
       </c>
       <c r="FT4" s="2" t="s">
@@ -4453,13 +4443,13 @@
       <c r="FU4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="FV4" s="2" t="s">
+      <c r="FV4" s="8" t="s">
         <v>310</v>
       </c>
       <c r="FW4" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="FX4" s="8" t="s">
+      <c r="FX4" s="2" t="s">
         <v>312</v>
       </c>
       <c r="FY4" s="2" t="s">
@@ -4468,13 +4458,13 @@
       <c r="FZ4" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="GA4" s="2" t="s">
+      <c r="GA4" s="8" t="s">
         <v>315</v>
       </c>
       <c r="GB4" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="GC4" s="8" t="s">
+      <c r="GC4" s="2" t="s">
         <v>317</v>
       </c>
       <c r="GD4" s="2" t="s">
@@ -4483,13 +4473,13 @@
       <c r="GE4" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="GF4" s="2" t="s">
+      <c r="GF4" s="8" t="s">
         <v>320</v>
       </c>
       <c r="GG4" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="GH4" s="8" t="s">
+      <c r="GH4" s="2" t="s">
         <v>322</v>
       </c>
       <c r="GI4" s="2" t="s">
@@ -4498,10 +4488,10 @@
       <c r="GJ4" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="GK4" s="2" t="s">
+      <c r="GK4" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="GL4" s="8" t="s">
+      <c r="GL4" s="2" t="s">
         <v>326</v>
       </c>
       <c r="GM4" s="2" t="s">
@@ -4510,13 +4500,13 @@
       <c r="GN4" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="GO4" s="2" t="s">
+      <c r="GO4" s="8" t="s">
         <v>329</v>
       </c>
       <c r="GP4" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="GQ4" s="8" t="s">
+      <c r="GQ4" s="2" t="s">
         <v>331</v>
       </c>
       <c r="GR4" s="2" t="s">
@@ -4525,13 +4515,13 @@
       <c r="GS4" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="GT4" s="2" t="s">
+      <c r="GT4" s="8" t="s">
         <v>334</v>
       </c>
       <c r="GU4" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="GV4" s="8" t="s">
+      <c r="GV4" s="2" t="s">
         <v>336</v>
       </c>
       <c r="GW4" s="2" t="s">
@@ -4540,13 +4530,13 @@
       <c r="GX4" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="GY4" s="2" t="s">
+      <c r="GY4" s="8" t="s">
         <v>339</v>
       </c>
       <c r="GZ4" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="HA4" s="8" t="s">
+      <c r="HA4" s="2" t="s">
         <v>341</v>
       </c>
       <c r="HB4" s="2" t="s">
@@ -4555,13 +4545,13 @@
       <c r="HC4" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="HD4" s="2" t="s">
+      <c r="HD4" s="8" t="s">
         <v>344</v>
       </c>
       <c r="HE4" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="HF4" s="8" t="s">
+      <c r="HF4" s="2" t="s">
         <v>346</v>
       </c>
       <c r="HG4" s="2" t="s">
@@ -4570,13 +4560,13 @@
       <c r="HH4" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="HI4" s="2" t="s">
+      <c r="HI4" s="8" t="s">
         <v>349</v>
       </c>
       <c r="HJ4" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="HK4" s="8" t="s">
+      <c r="HK4" s="2" t="s">
         <v>351</v>
       </c>
       <c r="HL4" s="2" t="s">
@@ -4585,13 +4575,13 @@
       <c r="HM4" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="HN4" s="2" t="s">
+      <c r="HN4" s="8" t="s">
         <v>354</v>
       </c>
       <c r="HO4" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="HP4" s="8" t="s">
+      <c r="HP4" s="2" t="s">
         <v>356</v>
       </c>
       <c r="HQ4" s="2" t="s">
@@ -4600,13 +4590,13 @@
       <c r="HR4" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="HS4" s="2" t="s">
+      <c r="HS4" s="8" t="s">
         <v>359</v>
       </c>
       <c r="HT4" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="HU4" s="8" t="s">
+      <c r="HU4" s="2" t="s">
         <v>361</v>
       </c>
       <c r="HV4" s="2" t="s">
@@ -4615,10 +4605,10 @@
       <c r="HW4" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="HX4" s="2" t="s">
+      <c r="HX4" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="HY4" s="8" t="s">
+      <c r="HY4" s="2" t="s">
         <v>365</v>
       </c>
       <c r="HZ4" s="2" t="s">
@@ -4627,13 +4617,13 @@
       <c r="IA4" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="IB4" s="2" t="s">
+      <c r="IB4" s="8" t="s">
         <v>368</v>
       </c>
       <c r="IC4" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="ID4" s="8" t="s">
+      <c r="ID4" s="2" t="s">
         <v>370</v>
       </c>
       <c r="IE4" s="2" t="s">
@@ -4642,13 +4632,13 @@
       <c r="IF4" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="IG4" s="2" t="s">
+      <c r="IG4" s="8" t="s">
         <v>373</v>
       </c>
       <c r="IH4" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="II4" s="8" t="s">
+      <c r="II4" s="2" t="s">
         <v>375</v>
       </c>
       <c r="IJ4" s="2" t="s">
@@ -4657,13 +4647,13 @@
       <c r="IK4" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="IL4" s="2" t="s">
+      <c r="IL4" s="8" t="s">
         <v>378</v>
       </c>
       <c r="IM4" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="IN4" s="8" t="s">
+      <c r="IN4" s="2" t="s">
         <v>380</v>
       </c>
       <c r="IO4" s="2" t="s">
@@ -4672,13 +4662,13 @@
       <c r="IP4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="IQ4" s="2" t="s">
+      <c r="IQ4" s="8" t="s">
         <v>383</v>
       </c>
       <c r="IR4" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="IS4" s="8" t="s">
+      <c r="IS4" s="2" t="s">
         <v>385</v>
       </c>
       <c r="IT4" s="2" t="s">
@@ -4687,13 +4677,13 @@
       <c r="IU4" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="IV4" s="2" t="s">
+      <c r="IV4" s="8" t="s">
         <v>388</v>
       </c>
       <c r="IW4" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="IX4" s="8" t="s">
+      <c r="IX4" s="2" t="s">
         <v>390</v>
       </c>
       <c r="IY4" s="2" t="s">
@@ -4702,13 +4692,13 @@
       <c r="IZ4" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="JA4" s="2" t="s">
+      <c r="JA4" s="8" t="s">
         <v>393</v>
       </c>
       <c r="JB4" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="JC4" s="8" t="s">
+      <c r="JC4" s="2" t="s">
         <v>395</v>
       </c>
       <c r="JD4" s="2" t="s">
@@ -4717,13 +4707,13 @@
       <c r="JE4" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="JF4" s="2" t="s">
+      <c r="JF4" s="8" t="s">
         <v>398</v>
       </c>
       <c r="JG4" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="JH4" s="8" t="s">
+      <c r="JH4" s="2" t="s">
         <v>400</v>
       </c>
       <c r="JI4" s="2" t="s">
@@ -4732,65 +4722,62 @@
       <c r="JJ4" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="JK4" s="2" t="s">
+      <c r="JK4" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="JL4" s="8" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:AA1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AJ1:JL1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BY2"/>
-    <mergeCell ref="CA2:CC2"/>
-    <mergeCell ref="CD2:CG2"/>
-    <mergeCell ref="CH2:CI2"/>
-    <mergeCell ref="CJ2:CS2"/>
-    <mergeCell ref="CT2:CX2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DL2"/>
-    <mergeCell ref="DN2:DP2"/>
-    <mergeCell ref="DQ2:DT2"/>
-    <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="DW2:EF2"/>
-    <mergeCell ref="EG2:EK2"/>
-    <mergeCell ref="EL2:EM2"/>
-    <mergeCell ref="EN2:EY2"/>
-    <mergeCell ref="FA2:FC2"/>
-    <mergeCell ref="FD2:FG2"/>
-    <mergeCell ref="FH2:FI2"/>
-    <mergeCell ref="FJ2:FS2"/>
-    <mergeCell ref="FT2:FX2"/>
-    <mergeCell ref="FY2:FZ2"/>
-    <mergeCell ref="GA2:GL2"/>
-    <mergeCell ref="GN2:GP2"/>
-    <mergeCell ref="GQ2:GT2"/>
-    <mergeCell ref="GU2:GV2"/>
-    <mergeCell ref="GW2:HF2"/>
-    <mergeCell ref="HG2:HK2"/>
-    <mergeCell ref="HL2:HM2"/>
-    <mergeCell ref="HN2:HY2"/>
-    <mergeCell ref="IA2:IC2"/>
-    <mergeCell ref="ID2:IG2"/>
-    <mergeCell ref="IH2:II2"/>
-    <mergeCell ref="IJ2:IS2"/>
-    <mergeCell ref="IT2:IX2"/>
-    <mergeCell ref="IY2:IZ2"/>
-    <mergeCell ref="JA2:JL2"/>
+  <mergeCells count="79">
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="R1:Z1"/>
+    <mergeCell ref="AA1:AH1"/>
+    <mergeCell ref="AI1:JK1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:BE2"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BX2"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CC2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CR2"/>
+    <mergeCell ref="CS2:CW2"/>
+    <mergeCell ref="CX2:CY2"/>
+    <mergeCell ref="CZ2:DK2"/>
+    <mergeCell ref="DM2:DO2"/>
+    <mergeCell ref="DP2:DS2"/>
+    <mergeCell ref="DT2:DU2"/>
+    <mergeCell ref="DV2:EE2"/>
+    <mergeCell ref="EF2:EJ2"/>
+    <mergeCell ref="EK2:EL2"/>
+    <mergeCell ref="EM2:EX2"/>
+    <mergeCell ref="EZ2:FB2"/>
+    <mergeCell ref="FC2:FF2"/>
+    <mergeCell ref="FG2:FH2"/>
+    <mergeCell ref="FI2:FR2"/>
+    <mergeCell ref="FS2:FW2"/>
+    <mergeCell ref="FX2:FY2"/>
+    <mergeCell ref="FZ2:GK2"/>
+    <mergeCell ref="GM2:GO2"/>
+    <mergeCell ref="GP2:GS2"/>
+    <mergeCell ref="GT2:GU2"/>
+    <mergeCell ref="GV2:HE2"/>
+    <mergeCell ref="HF2:HJ2"/>
+    <mergeCell ref="HK2:HL2"/>
+    <mergeCell ref="HM2:HX2"/>
+    <mergeCell ref="HZ2:IB2"/>
+    <mergeCell ref="IC2:IF2"/>
+    <mergeCell ref="IG2:IH2"/>
+    <mergeCell ref="II2:IR2"/>
+    <mergeCell ref="IS2:IW2"/>
+    <mergeCell ref="IX2:IY2"/>
+    <mergeCell ref="IZ2:JK2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -4801,14 +4788,14 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
@@ -4820,7 +4807,6 @@
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14040"/>
+    <workbookView windowWidth="27900" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="426">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,9 @@
     <t>1.学校厕所类</t>
   </si>
   <si>
+    <t>1.1 如有旱厕</t>
+  </si>
+  <si>
     <t>2.学生厕所（包括独立式公厕、教学楼和宿舍厕所）中：</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>学校垃圾集中存放地（或学校外定点垃圾点）距食堂或自备水源的最近距离？</t>
   </si>
   <si>
+    <t>0.学校是否为寄宿制学校？</t>
+  </si>
+  <si>
     <t>1.学校是否有地下或半地下宿舍？</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>8.学校宿舍是否建立卫生管理规章制度？</t>
   </si>
   <si>
+    <t>0.此次监测是否对本学校进行教室环境检测？</t>
+  </si>
+  <si>
     <t>1. 监测时间：</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>3. 参加监测的教室所容纳的学生属于哪个学段？</t>
   </si>
   <si>
+    <t>监测班级是否为小学/小学部？</t>
+  </si>
+  <si>
     <t>教室一班级基本情况</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>教室一课桌面平均照度</t>
   </si>
   <si>
+    <t>教室一噪声</t>
+  </si>
+  <si>
     <t>教室二班级基本情况</t>
   </si>
   <si>
@@ -178,6 +193,9 @@
     <t>教室二课桌面平均照度</t>
   </si>
   <si>
+    <t>教室二噪声</t>
+  </si>
+  <si>
     <t>教室三班级基本情况</t>
   </si>
   <si>
@@ -202,6 +220,9 @@
     <t>教室三课桌面平均照度</t>
   </si>
   <si>
+    <t>教室三噪声</t>
+  </si>
+  <si>
     <t>教室四班级基本情况</t>
   </si>
   <si>
@@ -226,6 +247,9 @@
     <t>教室四课桌面平均照度</t>
   </si>
   <si>
+    <t>教室四噪声</t>
+  </si>
+  <si>
     <t>教室五班级基本情况</t>
   </si>
   <si>
@@ -250,6 +274,9 @@
     <t>教室五课桌面平均照度</t>
   </si>
   <si>
+    <t>教室五噪声</t>
+  </si>
+  <si>
     <t>教室六班级基本情况</t>
   </si>
   <si>
@@ -274,6 +301,9 @@
     <t>教室六课桌面平均照度</t>
   </si>
   <si>
+    <t>教室六噪声</t>
+  </si>
+  <si>
     <t>是否建立食品安全管理规章制度？</t>
   </si>
   <si>
@@ -283,7 +313,10 @@
     <t>厕所类型为？</t>
   </si>
   <si>
-    <t>1.1 如有旱厕，旱厕距离食堂（米），距离自备供水水源（米）</t>
+    <t>旱厕距离食堂（米）</t>
+  </si>
+  <si>
+    <t>旱厕距离自备供水水源（米）</t>
   </si>
   <si>
     <t>男厕所总蹲位（坑）</t>
@@ -410,6 +443,9 @@
   </si>
   <si>
     <t>课桌面照度均匀度</t>
+  </si>
+  <si>
+    <t>噪声（dB(A)）</t>
   </si>
   <si>
     <t>课桌面照
@@ -473,6 +509,9 @@
     <t>{.c11}</t>
   </si>
   <si>
+    <t>{.c12}</t>
+  </si>
+  <si>
     <t>{.c21}</t>
   </si>
   <si>
@@ -494,6 +533,9 @@
     <t>{.d1}</t>
   </si>
   <si>
+    <t>{.e0}</t>
+  </si>
+  <si>
     <t>{.e1}</t>
   </si>
   <si>
@@ -518,6 +560,9 @@
     <t>{.e8}</t>
   </si>
   <si>
+    <t>{.f0}</t>
+  </si>
+  <si>
     <t>{.g0}</t>
   </si>
   <si>
@@ -527,6 +572,9 @@
     <t>{.type}</t>
   </si>
   <si>
+    <t>{.primary}</t>
+  </si>
+  <si>
     <t>{.pg111}</t>
   </si>
   <si>
@@ -644,6 +692,9 @@
     <t>{.pg921}</t>
   </si>
   <si>
+    <t>{.pg101}</t>
+  </si>
+  <si>
     <t>{.pg112}</t>
   </si>
   <si>
@@ -761,6 +812,9 @@
     <t>{.pg922}</t>
   </si>
   <si>
+    <t>{.pg102}</t>
+  </si>
+  <si>
     <t>{.pg113}</t>
   </si>
   <si>
@@ -878,6 +932,9 @@
     <t>{.pg923}</t>
   </si>
   <si>
+    <t>{.pg103}</t>
+  </si>
+  <si>
     <t>{.pg114}</t>
   </si>
   <si>
@@ -995,6 +1052,9 @@
     <t>{.pg924}</t>
   </si>
   <si>
+    <t>{.pg104}</t>
+  </si>
+  <si>
     <t>{.pg115}</t>
   </si>
   <si>
@@ -1112,6 +1172,9 @@
     <t>{.pg925}</t>
   </si>
   <si>
+    <t>{.pg105}</t>
+  </si>
+  <si>
     <t>{.pg116}</t>
   </si>
   <si>
@@ -1227,6 +1290,9 @@
   </si>
   <si>
     <t>{.pg926}</t>
+  </si>
+  <si>
+    <t>{.pg106}</t>
   </si>
 </sst>
 </file>
@@ -1235,10 +1301,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1269,9 +1335,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1290,68 +1372,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1366,6 +1387,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1373,9 +1432,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,11 +1447,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1405,15 +1477,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,55 +1494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,7 +1536,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,19 +1572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,19 +1620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,7 +1644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,30 +1668,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1640,6 +1706,45 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1652,9 +1757,31 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,15 +1791,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1733,6 +1851,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1752,152 +1879,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1934,8 +2061,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2262,10 +2416,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:JK4"/>
+  <dimension ref="A1:JU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -2287,156 +2441,156 @@
     <col min="15" max="15" width="15.0916666666667" style="3" customWidth="1"/>
     <col min="16" max="16" width="22.225" style="3" customWidth="1"/>
     <col min="17" max="17" width="22.7083333333333" style="3" customWidth="1"/>
-    <col min="18" max="18" width="18.2333333333333" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.1666666666667" style="3" customWidth="1"/>
-    <col min="20" max="20" width="18.2333333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="18.8333333333333" style="3" customWidth="1"/>
-    <col min="22" max="22" width="13.0416666666667" style="3" customWidth="1"/>
-    <col min="23" max="23" width="13.3333333333333" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.8666666666667" style="3" customWidth="1"/>
-    <col min="25" max="25" width="19.3166666666667" style="3" customWidth="1"/>
-    <col min="26" max="26" width="15.9333333333333" style="3" customWidth="1"/>
-    <col min="27" max="27" width="11.475" style="3" customWidth="1"/>
-    <col min="28" max="28" width="17.625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="10.625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="13.6416666666667" style="3" customWidth="1"/>
-    <col min="31" max="31" width="13.0416666666667" style="3" customWidth="1"/>
-    <col min="32" max="32" width="17.3916666666667" style="3" customWidth="1"/>
-    <col min="33" max="33" width="14.0083333333333" style="3" customWidth="1"/>
-    <col min="34" max="34" width="19.2" style="3" customWidth="1"/>
-    <col min="35" max="35" width="10.5" style="3" customWidth="1"/>
-    <col min="36" max="36" width="19" style="3" customWidth="1"/>
-    <col min="37" max="37" width="18.8333333333333" style="3" customWidth="1"/>
-    <col min="38" max="40" width="14.8333333333333" style="3" customWidth="1"/>
-    <col min="41" max="41" width="12.8333333333333" style="3" customWidth="1"/>
-    <col min="42" max="42" width="8.83333333333333" style="3" customWidth="1"/>
-    <col min="43" max="44" width="18.8333333333333" style="3" customWidth="1"/>
-    <col min="45" max="45" width="16.8333333333333" style="3" customWidth="1"/>
-    <col min="46" max="47" width="9.06666666666667" style="3" customWidth="1"/>
-    <col min="48" max="49" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="50" max="50" width="8.6" style="3" customWidth="1"/>
-    <col min="51" max="52" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="53" max="53" width="8.6" style="3" customWidth="1"/>
-    <col min="54" max="55" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="56" max="56" width="8.6" style="3" customWidth="1"/>
-    <col min="57" max="57" width="11.6" style="3" customWidth="1"/>
-    <col min="58" max="61" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="62" max="62" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="63" max="63" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="64" max="64" width="13.8666666666667" style="3" customWidth="1"/>
-    <col min="65" max="73" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="74" max="74" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="75" max="75" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="76" max="76" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="77" max="77" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="78" max="79" width="22.2666666666667" style="3" customWidth="1"/>
-    <col min="80" max="80" width="21.1333333333333" style="3" customWidth="1"/>
-    <col min="81" max="81" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="82" max="83" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="84" max="84" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="85" max="86" width="9.06666666666667" style="3" customWidth="1"/>
-    <col min="87" max="88" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="89" max="89" width="8.6" style="3" customWidth="1"/>
-    <col min="90" max="91" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="92" max="92" width="8.6" style="3" customWidth="1"/>
-    <col min="93" max="94" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="95" max="95" width="8.6" style="3" customWidth="1"/>
-    <col min="96" max="96" width="11.6" style="3" customWidth="1"/>
-    <col min="97" max="100" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="101" max="101" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="102" max="102" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="103" max="103" width="13.8666666666667" style="3" customWidth="1"/>
-    <col min="104" max="112" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="113" max="113" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="114" max="114" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="115" max="115" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="116" max="116" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="117" max="118" width="22.2666666666667" style="3" customWidth="1"/>
-    <col min="119" max="119" width="21.1333333333333" style="3" customWidth="1"/>
-    <col min="120" max="120" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="18" max="19" width="18.2333333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="20.1666666666667" style="3" customWidth="1"/>
+    <col min="21" max="21" width="18.2333333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="13.0416666666667" style="3" customWidth="1"/>
+    <col min="24" max="24" width="13.3333333333333" style="3" customWidth="1"/>
+    <col min="25" max="25" width="18.8666666666667" style="3" customWidth="1"/>
+    <col min="26" max="26" width="19.3166666666667" style="3" customWidth="1"/>
+    <col min="27" max="28" width="15.9333333333333" style="3" customWidth="1"/>
+    <col min="29" max="29" width="11.475" style="3" customWidth="1"/>
+    <col min="30" max="30" width="17.625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="10.625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="13.6416666666667" style="3" customWidth="1"/>
+    <col min="33" max="33" width="13.0416666666667" style="3" customWidth="1"/>
+    <col min="34" max="34" width="17.3916666666667" style="3" customWidth="1"/>
+    <col min="35" max="35" width="14.0083333333333" style="3" customWidth="1"/>
+    <col min="36" max="37" width="19.2" style="3" customWidth="1"/>
+    <col min="38" max="38" width="10.5" style="3" customWidth="1"/>
+    <col min="39" max="39" width="19" style="3" customWidth="1"/>
+    <col min="40" max="41" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="42" max="44" width="14.8333333333333" style="3" customWidth="1"/>
+    <col min="45" max="45" width="12.8333333333333" style="3" customWidth="1"/>
+    <col min="46" max="46" width="8.83333333333333" style="3" customWidth="1"/>
+    <col min="47" max="48" width="18.8333333333333" style="3" customWidth="1"/>
+    <col min="49" max="49" width="16.8333333333333" style="3" customWidth="1"/>
+    <col min="50" max="51" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="52" max="53" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="54" max="54" width="8.6" style="3" customWidth="1"/>
+    <col min="55" max="56" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="57" max="57" width="8.6" style="3" customWidth="1"/>
+    <col min="58" max="59" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="60" max="60" width="8.6" style="3" customWidth="1"/>
+    <col min="61" max="61" width="11.6" style="3" customWidth="1"/>
+    <col min="62" max="65" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="66" max="66" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="67" max="67" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="68" max="68" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="69" max="77" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="78" max="78" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="79" max="79" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="80" max="80" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="81" max="82" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="83" max="84" width="22.2666666666667" style="3" customWidth="1"/>
+    <col min="85" max="85" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="86" max="86" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="87" max="88" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="89" max="89" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="90" max="91" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="92" max="93" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="94" max="94" width="8.6" style="3" customWidth="1"/>
+    <col min="95" max="96" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="97" max="97" width="8.6" style="3" customWidth="1"/>
+    <col min="98" max="99" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="100" max="100" width="8.6" style="3" customWidth="1"/>
+    <col min="101" max="101" width="11.6" style="3" customWidth="1"/>
+    <col min="102" max="105" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="106" max="106" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="107" max="107" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="108" max="108" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="109" max="117" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="118" max="118" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="119" max="119" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="120" max="120" width="18.2666666666667" style="3" customWidth="1"/>
     <col min="121" max="122" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="123" max="123" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="124" max="125" width="9.06666666666667" style="3" customWidth="1"/>
-    <col min="126" max="127" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="128" max="128" width="8.6" style="3" customWidth="1"/>
-    <col min="129" max="130" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="131" max="131" width="8.6" style="3" customWidth="1"/>
+    <col min="123" max="124" width="22.2666666666667" style="3" customWidth="1"/>
+    <col min="125" max="125" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="126" max="126" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="127" max="128" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="129" max="129" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="130" max="131" width="9.06666666666667" style="3" customWidth="1"/>
     <col min="132" max="133" width="20.9333333333333" style="3" customWidth="1"/>
     <col min="134" max="134" width="8.6" style="3" customWidth="1"/>
-    <col min="135" max="135" width="11.6" style="3" customWidth="1"/>
-    <col min="136" max="139" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="140" max="140" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="141" max="141" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="142" max="142" width="13.8666666666667" style="3" customWidth="1"/>
-    <col min="143" max="151" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="152" max="152" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="153" max="153" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="154" max="154" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="155" max="155" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="156" max="157" width="22.2666666666667" style="3" customWidth="1"/>
-    <col min="158" max="158" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="135" max="136" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="137" max="137" width="8.6" style="3" customWidth="1"/>
+    <col min="138" max="139" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="140" max="140" width="8.6" style="3" customWidth="1"/>
+    <col min="141" max="141" width="11.6" style="3" customWidth="1"/>
+    <col min="142" max="145" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="146" max="146" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="147" max="147" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="148" max="148" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="149" max="157" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="158" max="158" width="22.1333333333333" style="3" customWidth="1"/>
     <col min="159" max="159" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="160" max="161" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="162" max="162" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="163" max="164" width="9.06666666666667" style="3" customWidth="1"/>
-    <col min="165" max="166" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="167" max="167" width="8.6" style="3" customWidth="1"/>
-    <col min="168" max="169" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="170" max="170" width="8.6" style="3" customWidth="1"/>
-    <col min="171" max="172" width="20.9333333333333" style="3" customWidth="1"/>
-    <col min="173" max="173" width="8.6" style="3" customWidth="1"/>
-    <col min="174" max="174" width="11.6" style="3" customWidth="1"/>
-    <col min="175" max="178" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="179" max="179" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="180" max="180" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="181" max="181" width="13.8666666666667" style="3" customWidth="1"/>
-    <col min="182" max="190" width="18.7333333333333" style="3" customWidth="1"/>
-    <col min="191" max="191" width="22.1333333333333" style="3" customWidth="1"/>
-    <col min="192" max="192" width="9.46666666666667" style="3" customWidth="1"/>
-    <col min="193" max="193" width="18.2666666666667" style="3" customWidth="1"/>
-    <col min="194" max="194" width="16.2416666666667" style="3" customWidth="1"/>
-    <col min="195" max="195" width="16.525" style="3" customWidth="1"/>
-    <col min="196" max="196" width="14.025" style="3" customWidth="1"/>
-    <col min="197" max="197" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="198" max="198" width="13.325" style="3" customWidth="1"/>
-    <col min="199" max="199" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="200" max="200" width="15.5583333333333" style="3" customWidth="1"/>
-    <col min="201" max="201" width="16.1166666666667" style="3" customWidth="1"/>
-    <col min="202" max="202" width="12.6416666666667" style="3" customWidth="1"/>
-    <col min="203" max="203" width="13.475" style="3" customWidth="1"/>
-    <col min="204" max="204" width="16.25" style="3" customWidth="1"/>
-    <col min="205" max="205" width="16.8" style="3" customWidth="1"/>
-    <col min="206" max="206" width="11.525" style="3" customWidth="1"/>
-    <col min="207" max="207" width="15.1333333333333" style="3" customWidth="1"/>
-    <col min="208" max="208" width="13.4666666666667" style="3" customWidth="1"/>
-    <col min="209" max="209" width="11.8083333333333" style="3" customWidth="1"/>
-    <col min="210" max="210" width="15.4166666666667" style="3" customWidth="1"/>
-    <col min="211" max="211" width="15.8333333333333" style="3" customWidth="1"/>
-    <col min="212" max="212" width="12.3583333333333" style="3" customWidth="1"/>
-    <col min="213" max="213" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="214" max="214" width="13.8916666666667" style="3" customWidth="1"/>
-    <col min="215" max="215" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="216" max="216" width="13.475" style="3" customWidth="1"/>
-    <col min="217" max="217" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="218" max="218" width="14.725" style="3" customWidth="1"/>
-    <col min="219" max="219" width="14.1583333333333" style="3" customWidth="1"/>
-    <col min="220" max="220" width="15.4166666666667" style="3" customWidth="1"/>
-    <col min="221" max="221" width="14.4416666666667" style="3" customWidth="1"/>
-    <col min="222" max="222" width="14.3083333333333" style="3" customWidth="1"/>
-    <col min="223" max="223" width="15" style="3" customWidth="1"/>
-    <col min="224" max="224" width="13.75" style="3" customWidth="1"/>
-    <col min="225" max="225" width="14.725" style="3" customWidth="1"/>
-    <col min="226" max="226" width="14.8583333333333" style="3" customWidth="1"/>
-    <col min="227" max="227" width="12.6416666666667" style="3" customWidth="1"/>
-    <col min="228" max="228" width="13.475" style="3" customWidth="1"/>
-    <col min="229" max="229" width="13.1916666666667" style="3" customWidth="1"/>
-    <col min="230" max="230" width="13.75" style="3" customWidth="1"/>
-    <col min="231" max="231" width="10.4083333333333" style="3" customWidth="1"/>
-    <col min="232" max="232" width="11.9416666666667" style="3" customWidth="1"/>
-    <col min="233" max="16384" width="11" style="3"/>
+    <col min="160" max="160" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="161" max="162" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="163" max="164" width="22.2666666666667" style="3" customWidth="1"/>
+    <col min="165" max="165" width="21.1333333333333" style="3" customWidth="1"/>
+    <col min="166" max="166" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="167" max="168" width="20.5333333333333" style="3" customWidth="1"/>
+    <col min="169" max="169" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="170" max="171" width="9.06666666666667" style="3" customWidth="1"/>
+    <col min="172" max="173" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="174" max="174" width="8.6" style="3" customWidth="1"/>
+    <col min="175" max="176" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="177" max="177" width="8.6" style="3" customWidth="1"/>
+    <col min="178" max="179" width="20.9333333333333" style="3" customWidth="1"/>
+    <col min="180" max="180" width="8.6" style="3" customWidth="1"/>
+    <col min="181" max="181" width="11.6" style="3" customWidth="1"/>
+    <col min="182" max="185" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="186" max="186" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="187" max="187" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="188" max="188" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="189" max="197" width="18.7333333333333" style="3" customWidth="1"/>
+    <col min="198" max="198" width="22.1333333333333" style="3" customWidth="1"/>
+    <col min="199" max="199" width="9.46666666666667" style="3" customWidth="1"/>
+    <col min="200" max="200" width="18.2666666666667" style="3" customWidth="1"/>
+    <col min="201" max="202" width="16.2416666666667" style="3" customWidth="1"/>
+    <col min="203" max="203" width="16.525" style="3" customWidth="1"/>
+    <col min="204" max="204" width="14.025" style="3" customWidth="1"/>
+    <col min="205" max="205" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="206" max="206" width="13.325" style="3" customWidth="1"/>
+    <col min="207" max="207" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="208" max="208" width="15.5583333333333" style="3" customWidth="1"/>
+    <col min="209" max="209" width="16.1166666666667" style="3" customWidth="1"/>
+    <col min="210" max="210" width="12.6416666666667" style="3" customWidth="1"/>
+    <col min="211" max="211" width="13.475" style="3" customWidth="1"/>
+    <col min="212" max="212" width="16.25" style="3" customWidth="1"/>
+    <col min="213" max="213" width="16.8" style="3" customWidth="1"/>
+    <col min="214" max="214" width="11.525" style="3" customWidth="1"/>
+    <col min="215" max="215" width="15.1333333333333" style="3" customWidth="1"/>
+    <col min="216" max="216" width="13.4666666666667" style="3" customWidth="1"/>
+    <col min="217" max="217" width="11.8083333333333" style="3" customWidth="1"/>
+    <col min="218" max="218" width="15.4166666666667" style="3" customWidth="1"/>
+    <col min="219" max="219" width="15.8333333333333" style="3" customWidth="1"/>
+    <col min="220" max="220" width="12.3583333333333" style="3" customWidth="1"/>
+    <col min="221" max="221" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="222" max="222" width="13.8916666666667" style="3" customWidth="1"/>
+    <col min="223" max="223" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="224" max="224" width="13.475" style="3" customWidth="1"/>
+    <col min="225" max="225" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="226" max="226" width="14.725" style="3" customWidth="1"/>
+    <col min="227" max="227" width="14.1583333333333" style="3" customWidth="1"/>
+    <col min="228" max="228" width="15.4166666666667" style="3" customWidth="1"/>
+    <col min="229" max="229" width="14.4416666666667" style="3" customWidth="1"/>
+    <col min="230" max="230" width="14.3083333333333" style="3" customWidth="1"/>
+    <col min="231" max="231" width="15" style="3" customWidth="1"/>
+    <col min="232" max="232" width="13.75" style="3" customWidth="1"/>
+    <col min="233" max="233" width="14.725" style="3" customWidth="1"/>
+    <col min="234" max="234" width="14.8583333333333" style="3" customWidth="1"/>
+    <col min="235" max="235" width="12.6416666666667" style="3" customWidth="1"/>
+    <col min="236" max="236" width="13.475" style="3" customWidth="1"/>
+    <col min="237" max="237" width="13.1916666666667" style="3" customWidth="1"/>
+    <col min="238" max="238" width="13.75" style="3" customWidth="1"/>
+    <col min="239" max="239" width="10.4083333333333" style="3" customWidth="1"/>
+    <col min="240" max="240" width="11.9416666666667" style="3" customWidth="1"/>
+    <col min="241" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:271">
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:281">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2489,257 +2643,267 @@
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10" t="s">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="10"/>
-      <c r="CK1" s="10"/>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="10"/>
-      <c r="DC1" s="10"/>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="10"/>
-      <c r="DU1" s="10"/>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="10"/>
-      <c r="EM1" s="10"/>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="10"/>
-      <c r="FE1" s="10"/>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="10"/>
-      <c r="FW1" s="10"/>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="10"/>
-      <c r="GO1" s="10"/>
-      <c r="GP1" s="10"/>
-      <c r="GQ1" s="10"/>
-      <c r="GR1" s="10"/>
-      <c r="GS1" s="10"/>
-      <c r="GT1" s="10"/>
-      <c r="GU1" s="10"/>
-      <c r="GV1" s="10"/>
-      <c r="GW1" s="10"/>
-      <c r="GX1" s="10"/>
-      <c r="GY1" s="10"/>
-      <c r="GZ1" s="10"/>
-      <c r="HA1" s="10"/>
-      <c r="HB1" s="10"/>
-      <c r="HC1" s="10"/>
-      <c r="HD1" s="10"/>
-      <c r="HE1" s="10"/>
-      <c r="HF1" s="10"/>
-      <c r="HG1" s="10"/>
-      <c r="HH1" s="10"/>
-      <c r="HI1" s="10"/>
-      <c r="HJ1" s="10"/>
-      <c r="HK1" s="10"/>
-      <c r="HL1" s="10"/>
-      <c r="HM1" s="10"/>
-      <c r="HN1" s="10"/>
-      <c r="HO1" s="10"/>
-      <c r="HP1" s="10"/>
-      <c r="HQ1" s="10"/>
-      <c r="HR1" s="10"/>
-      <c r="HS1" s="10"/>
-      <c r="HT1" s="10"/>
-      <c r="HU1" s="10"/>
-      <c r="HV1" s="10"/>
-      <c r="HW1" s="10"/>
-      <c r="HX1" s="10"/>
-      <c r="HY1" s="10"/>
-      <c r="HZ1" s="10"/>
-      <c r="IA1" s="10"/>
-      <c r="IB1" s="10"/>
-      <c r="IC1" s="10"/>
-      <c r="ID1" s="10"/>
-      <c r="IE1" s="10"/>
-      <c r="IF1" s="10"/>
-      <c r="IG1" s="10"/>
-      <c r="IH1" s="10"/>
-      <c r="II1" s="10"/>
-      <c r="IJ1" s="10"/>
-      <c r="IK1" s="10"/>
-      <c r="IL1" s="10"/>
-      <c r="IM1" s="10"/>
-      <c r="IN1" s="10"/>
-      <c r="IO1" s="10"/>
-      <c r="IP1" s="10"/>
-      <c r="IQ1" s="10"/>
-      <c r="IR1" s="10"/>
-      <c r="IS1" s="10"/>
-      <c r="IT1" s="10"/>
-      <c r="IU1" s="10"/>
-      <c r="IV1" s="10"/>
-      <c r="IW1" s="10"/>
-      <c r="IX1" s="10"/>
-      <c r="IY1" s="10"/>
-      <c r="IZ1" s="10"/>
-      <c r="JA1" s="10"/>
-      <c r="JB1" s="10"/>
-      <c r="JC1" s="10"/>
-      <c r="JD1" s="10"/>
-      <c r="JE1" s="10"/>
-      <c r="JF1" s="10"/>
-      <c r="JG1" s="10"/>
-      <c r="JH1" s="10"/>
-      <c r="JI1" s="10"/>
-      <c r="JJ1" s="10"/>
-      <c r="JK1" s="10"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
+      <c r="CJ1" s="18"/>
+      <c r="CK1" s="18"/>
+      <c r="CL1" s="18"/>
+      <c r="CM1" s="18"/>
+      <c r="CN1" s="18"/>
+      <c r="CO1" s="18"/>
+      <c r="CP1" s="18"/>
+      <c r="CQ1" s="18"/>
+      <c r="CR1" s="18"/>
+      <c r="CS1" s="18"/>
+      <c r="CT1" s="18"/>
+      <c r="CU1" s="18"/>
+      <c r="CV1" s="18"/>
+      <c r="CW1" s="18"/>
+      <c r="CX1" s="18"/>
+      <c r="CY1" s="18"/>
+      <c r="CZ1" s="18"/>
+      <c r="DA1" s="18"/>
+      <c r="DB1" s="18"/>
+      <c r="DC1" s="18"/>
+      <c r="DD1" s="18"/>
+      <c r="DE1" s="18"/>
+      <c r="DF1" s="18"/>
+      <c r="DG1" s="18"/>
+      <c r="DH1" s="18"/>
+      <c r="DI1" s="18"/>
+      <c r="DJ1" s="18"/>
+      <c r="DK1" s="18"/>
+      <c r="DL1" s="18"/>
+      <c r="DM1" s="18"/>
+      <c r="DN1" s="18"/>
+      <c r="DO1" s="18"/>
+      <c r="DP1" s="18"/>
+      <c r="DQ1" s="18"/>
+      <c r="DR1" s="18"/>
+      <c r="DS1" s="18"/>
+      <c r="DT1" s="18"/>
+      <c r="DU1" s="18"/>
+      <c r="DV1" s="18"/>
+      <c r="DW1" s="18"/>
+      <c r="DX1" s="18"/>
+      <c r="DY1" s="18"/>
+      <c r="DZ1" s="18"/>
+      <c r="EA1" s="18"/>
+      <c r="EB1" s="18"/>
+      <c r="EC1" s="18"/>
+      <c r="ED1" s="18"/>
+      <c r="EE1" s="18"/>
+      <c r="EF1" s="18"/>
+      <c r="EG1" s="18"/>
+      <c r="EH1" s="18"/>
+      <c r="EI1" s="18"/>
+      <c r="EJ1" s="18"/>
+      <c r="EK1" s="18"/>
+      <c r="EL1" s="18"/>
+      <c r="EM1" s="18"/>
+      <c r="EN1" s="18"/>
+      <c r="EO1" s="18"/>
+      <c r="EP1" s="18"/>
+      <c r="EQ1" s="18"/>
+      <c r="ER1" s="18"/>
+      <c r="ES1" s="18"/>
+      <c r="ET1" s="18"/>
+      <c r="EU1" s="18"/>
+      <c r="EV1" s="18"/>
+      <c r="EW1" s="18"/>
+      <c r="EX1" s="18"/>
+      <c r="EY1" s="18"/>
+      <c r="EZ1" s="18"/>
+      <c r="FA1" s="18"/>
+      <c r="FB1" s="18"/>
+      <c r="FC1" s="18"/>
+      <c r="FD1" s="18"/>
+      <c r="FE1" s="18"/>
+      <c r="FF1" s="18"/>
+      <c r="FG1" s="18"/>
+      <c r="FH1" s="18"/>
+      <c r="FI1" s="18"/>
+      <c r="FJ1" s="18"/>
+      <c r="FK1" s="18"/>
+      <c r="FL1" s="18"/>
+      <c r="FM1" s="18"/>
+      <c r="FN1" s="18"/>
+      <c r="FO1" s="18"/>
+      <c r="FP1" s="18"/>
+      <c r="FQ1" s="18"/>
+      <c r="FR1" s="18"/>
+      <c r="FS1" s="18"/>
+      <c r="FT1" s="18"/>
+      <c r="FU1" s="18"/>
+      <c r="FV1" s="18"/>
+      <c r="FW1" s="18"/>
+      <c r="FX1" s="18"/>
+      <c r="FY1" s="18"/>
+      <c r="FZ1" s="18"/>
+      <c r="GA1" s="18"/>
+      <c r="GB1" s="18"/>
+      <c r="GC1" s="18"/>
+      <c r="GD1" s="18"/>
+      <c r="GE1" s="18"/>
+      <c r="GF1" s="18"/>
+      <c r="GG1" s="18"/>
+      <c r="GH1" s="18"/>
+      <c r="GI1" s="18"/>
+      <c r="GJ1" s="18"/>
+      <c r="GK1" s="18"/>
+      <c r="GL1" s="18"/>
+      <c r="GM1" s="18"/>
+      <c r="GN1" s="18"/>
+      <c r="GO1" s="18"/>
+      <c r="GP1" s="18"/>
+      <c r="GQ1" s="18"/>
+      <c r="GR1" s="18"/>
+      <c r="GS1" s="18"/>
+      <c r="GT1" s="18"/>
+      <c r="GU1" s="18"/>
+      <c r="GV1" s="18"/>
+      <c r="GW1" s="18"/>
+      <c r="GX1" s="18"/>
+      <c r="GY1" s="18"/>
+      <c r="GZ1" s="18"/>
+      <c r="HA1" s="18"/>
+      <c r="HB1" s="18"/>
+      <c r="HC1" s="18"/>
+      <c r="HD1" s="18"/>
+      <c r="HE1" s="18"/>
+      <c r="HF1" s="18"/>
+      <c r="HG1" s="18"/>
+      <c r="HH1" s="18"/>
+      <c r="HI1" s="18"/>
+      <c r="HJ1" s="18"/>
+      <c r="HK1" s="18"/>
+      <c r="HL1" s="18"/>
+      <c r="HM1" s="18"/>
+      <c r="HN1" s="18"/>
+      <c r="HO1" s="18"/>
+      <c r="HP1" s="18"/>
+      <c r="HQ1" s="18"/>
+      <c r="HR1" s="18"/>
+      <c r="HS1" s="18"/>
+      <c r="HT1" s="18"/>
+      <c r="HU1" s="18"/>
+      <c r="HV1" s="18"/>
+      <c r="HW1" s="18"/>
+      <c r="HX1" s="18"/>
+      <c r="HY1" s="18"/>
+      <c r="HZ1" s="18"/>
+      <c r="IA1" s="18"/>
+      <c r="IB1" s="18"/>
+      <c r="IC1" s="18"/>
+      <c r="ID1" s="18"/>
+      <c r="IE1" s="18"/>
+      <c r="IF1" s="18"/>
+      <c r="IG1" s="18"/>
+      <c r="IH1" s="18"/>
+      <c r="II1" s="18"/>
+      <c r="IJ1" s="18"/>
+      <c r="IK1" s="18"/>
+      <c r="IL1" s="18"/>
+      <c r="IM1" s="18"/>
+      <c r="IN1" s="18"/>
+      <c r="IO1" s="18"/>
+      <c r="IP1" s="18"/>
+      <c r="IQ1" s="18"/>
+      <c r="IR1" s="18"/>
+      <c r="IS1" s="18"/>
+      <c r="IT1" s="18"/>
+      <c r="IU1" s="18"/>
+      <c r="IV1" s="18"/>
+      <c r="IW1" s="18"/>
+      <c r="IX1" s="18"/>
+      <c r="IY1" s="18"/>
+      <c r="IZ1" s="18"/>
+      <c r="JA1" s="18"/>
+      <c r="JB1" s="18"/>
+      <c r="JC1" s="18"/>
+      <c r="JD1" s="18"/>
+      <c r="JE1" s="18"/>
+      <c r="JF1" s="18"/>
+      <c r="JG1" s="18"/>
+      <c r="JH1" s="18"/>
+      <c r="JI1" s="18"/>
+      <c r="JJ1" s="18"/>
+      <c r="JK1" s="18"/>
+      <c r="JL1" s="18"/>
+      <c r="JM1" s="18"/>
+      <c r="JN1" s="18"/>
+      <c r="JO1" s="18"/>
+      <c r="JP1" s="18"/>
+      <c r="JQ1" s="18"/>
+      <c r="JR1" s="18"/>
+      <c r="JS1" s="18"/>
+      <c r="JT1" s="18"/>
+      <c r="JU1" s="21"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:271">
+    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:281">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2769,31 +2933,31 @@
         <v>20</v>
       </c>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="S2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="V2" s="7"/>
       <c r="W2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="Z2" s="7"/>
       <c r="AA2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="AC2" s="7" t="s">
@@ -2814,347 +2978,377 @@
       <c r="AH2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AM2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11" t="s">
+      <c r="AN2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11" t="s">
+      <c r="AO2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11" t="s">
+      <c r="AP2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11" t="s">
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11" t="s">
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="12" t="s">
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BZ2" s="11" t="s">
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11"/>
-      <c r="CC2" s="11" t="s">
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11" t="s">
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="CH2" s="11"/>
-      <c r="CI2" s="11" t="s">
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11"/>
-      <c r="CO2" s="11"/>
-      <c r="CP2" s="11"/>
-      <c r="CQ2" s="11"/>
-      <c r="CR2" s="11"/>
-      <c r="CS2" s="11" t="s">
+      <c r="CD2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="CT2" s="11"/>
-      <c r="CU2" s="11"/>
-      <c r="CV2" s="11"/>
-      <c r="CW2" s="11"/>
-      <c r="CX2" s="11" t="s">
+      <c r="CE2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="11" t="s">
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="DA2" s="11"/>
-      <c r="DB2" s="11"/>
-      <c r="DC2" s="11"/>
-      <c r="DD2" s="11"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="11"/>
-      <c r="DG2" s="11"/>
-      <c r="DH2" s="11"/>
-      <c r="DI2" s="11"/>
-      <c r="DJ2" s="11"/>
-      <c r="DK2" s="11"/>
-      <c r="DL2" s="12" t="s">
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="DM2" s="11" t="s">
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="DN2" s="11"/>
-      <c r="DO2" s="11"/>
-      <c r="DP2" s="11" t="s">
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="15"/>
+      <c r="CX2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="DQ2" s="11"/>
-      <c r="DR2" s="11"/>
-      <c r="DS2" s="11"/>
-      <c r="DT2" s="11" t="s">
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15"/>
+      <c r="DA2" s="15"/>
+      <c r="DB2" s="15"/>
+      <c r="DC2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="DU2" s="11"/>
-      <c r="DV2" s="11" t="s">
+      <c r="DD2" s="15"/>
+      <c r="DE2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="DW2" s="11"/>
-      <c r="DX2" s="11"/>
-      <c r="DY2" s="11"/>
-      <c r="DZ2" s="11"/>
-      <c r="EA2" s="11"/>
-      <c r="EB2" s="11"/>
-      <c r="EC2" s="11"/>
-      <c r="ED2" s="11"/>
-      <c r="EE2" s="11"/>
-      <c r="EF2" s="11" t="s">
+      <c r="DF2" s="15"/>
+      <c r="DG2" s="15"/>
+      <c r="DH2" s="15"/>
+      <c r="DI2" s="15"/>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="15"/>
+      <c r="DL2" s="15"/>
+      <c r="DM2" s="15"/>
+      <c r="DN2" s="15"/>
+      <c r="DO2" s="15"/>
+      <c r="DP2" s="15"/>
+      <c r="DQ2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="EG2" s="11"/>
-      <c r="EH2" s="11"/>
-      <c r="EI2" s="11"/>
-      <c r="EJ2" s="11"/>
-      <c r="EK2" s="11" t="s">
+      <c r="DR2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="EL2" s="11"/>
-      <c r="EM2" s="11" t="s">
+      <c r="DS2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="EN2" s="11"/>
-      <c r="EO2" s="11"/>
-      <c r="EP2" s="11"/>
-      <c r="EQ2" s="11"/>
-      <c r="ER2" s="11"/>
-      <c r="ES2" s="11"/>
-      <c r="ET2" s="11"/>
-      <c r="EU2" s="11"/>
-      <c r="EV2" s="11"/>
-      <c r="EW2" s="11"/>
-      <c r="EX2" s="11"/>
-      <c r="EY2" s="12" t="s">
+      <c r="DT2" s="15"/>
+      <c r="DU2" s="15"/>
+      <c r="DV2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="EZ2" s="11" t="s">
+      <c r="DW2" s="15"/>
+      <c r="DX2" s="15"/>
+      <c r="DY2" s="15"/>
+      <c r="DZ2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="FA2" s="11"/>
-      <c r="FB2" s="11"/>
-      <c r="FC2" s="11" t="s">
+      <c r="EA2" s="15"/>
+      <c r="EB2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="FD2" s="11"/>
-      <c r="FE2" s="11"/>
-      <c r="FF2" s="11"/>
-      <c r="FG2" s="11" t="s">
+      <c r="EC2" s="15"/>
+      <c r="ED2" s="15"/>
+      <c r="EE2" s="15"/>
+      <c r="EF2" s="15"/>
+      <c r="EG2" s="15"/>
+      <c r="EH2" s="15"/>
+      <c r="EI2" s="15"/>
+      <c r="EJ2" s="15"/>
+      <c r="EK2" s="15"/>
+      <c r="EL2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="FH2" s="11"/>
-      <c r="FI2" s="11" t="s">
+      <c r="EM2" s="15"/>
+      <c r="EN2" s="15"/>
+      <c r="EO2" s="15"/>
+      <c r="EP2" s="15"/>
+      <c r="EQ2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="FJ2" s="11"/>
-      <c r="FK2" s="11"/>
-      <c r="FL2" s="11"/>
-      <c r="FM2" s="11"/>
-      <c r="FN2" s="11"/>
-      <c r="FO2" s="11"/>
-      <c r="FP2" s="11"/>
-      <c r="FQ2" s="11"/>
-      <c r="FR2" s="11"/>
-      <c r="FS2" s="11" t="s">
+      <c r="ER2" s="15"/>
+      <c r="ES2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="FT2" s="11"/>
-      <c r="FU2" s="11"/>
-      <c r="FV2" s="11"/>
-      <c r="FW2" s="11"/>
-      <c r="FX2" s="11" t="s">
+      <c r="ET2" s="15"/>
+      <c r="EU2" s="15"/>
+      <c r="EV2" s="15"/>
+      <c r="EW2" s="15"/>
+      <c r="EX2" s="15"/>
+      <c r="EY2" s="15"/>
+      <c r="EZ2" s="15"/>
+      <c r="FA2" s="15"/>
+      <c r="FB2" s="15"/>
+      <c r="FC2" s="15"/>
+      <c r="FD2" s="15"/>
+      <c r="FE2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="FY2" s="11"/>
-      <c r="FZ2" s="11" t="s">
+      <c r="FF2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="GA2" s="11"/>
-      <c r="GB2" s="11"/>
-      <c r="GC2" s="11"/>
-      <c r="GD2" s="11"/>
-      <c r="GE2" s="11"/>
-      <c r="GF2" s="11"/>
-      <c r="GG2" s="11"/>
-      <c r="GH2" s="11"/>
-      <c r="GI2" s="11"/>
-      <c r="GJ2" s="11"/>
-      <c r="GK2" s="11"/>
-      <c r="GL2" s="12" t="s">
+      <c r="FG2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="GM2" s="11" t="s">
+      <c r="FH2" s="15"/>
+      <c r="FI2" s="15"/>
+      <c r="FJ2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="GN2" s="11"/>
-      <c r="GO2" s="11"/>
-      <c r="GP2" s="11" t="s">
+      <c r="FK2" s="15"/>
+      <c r="FL2" s="15"/>
+      <c r="FM2" s="15"/>
+      <c r="FN2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="GQ2" s="11"/>
-      <c r="GR2" s="11"/>
-      <c r="GS2" s="11"/>
-      <c r="GT2" s="11" t="s">
+      <c r="FO2" s="15"/>
+      <c r="FP2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="GU2" s="11"/>
-      <c r="GV2" s="11" t="s">
+      <c r="FQ2" s="15"/>
+      <c r="FR2" s="15"/>
+      <c r="FS2" s="15"/>
+      <c r="FT2" s="15"/>
+      <c r="FU2" s="15"/>
+      <c r="FV2" s="15"/>
+      <c r="FW2" s="15"/>
+      <c r="FX2" s="15"/>
+      <c r="FY2" s="15"/>
+      <c r="FZ2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="GW2" s="11"/>
-      <c r="GX2" s="11"/>
-      <c r="GY2" s="11"/>
-      <c r="GZ2" s="11"/>
-      <c r="HA2" s="11"/>
-      <c r="HB2" s="11"/>
-      <c r="HC2" s="11"/>
-      <c r="HD2" s="11"/>
-      <c r="HE2" s="11"/>
-      <c r="HF2" s="11" t="s">
+      <c r="GA2" s="15"/>
+      <c r="GB2" s="15"/>
+      <c r="GC2" s="15"/>
+      <c r="GD2" s="15"/>
+      <c r="GE2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="HG2" s="11"/>
-      <c r="HH2" s="11"/>
-      <c r="HI2" s="11"/>
-      <c r="HJ2" s="11"/>
-      <c r="HK2" s="11" t="s">
+      <c r="GF2" s="15"/>
+      <c r="GG2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="HL2" s="11"/>
-      <c r="HM2" s="11" t="s">
+      <c r="GH2" s="15"/>
+      <c r="GI2" s="15"/>
+      <c r="GJ2" s="15"/>
+      <c r="GK2" s="15"/>
+      <c r="GL2" s="15"/>
+      <c r="GM2" s="15"/>
+      <c r="GN2" s="15"/>
+      <c r="GO2" s="15"/>
+      <c r="GP2" s="15"/>
+      <c r="GQ2" s="15"/>
+      <c r="GR2" s="15"/>
+      <c r="GS2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="HN2" s="11"/>
-      <c r="HO2" s="11"/>
-      <c r="HP2" s="11"/>
-      <c r="HQ2" s="11"/>
-      <c r="HR2" s="11"/>
-      <c r="HS2" s="11"/>
-      <c r="HT2" s="11"/>
-      <c r="HU2" s="11"/>
-      <c r="HV2" s="11"/>
-      <c r="HW2" s="11"/>
-      <c r="HX2" s="11"/>
-      <c r="HY2" s="12" t="s">
+      <c r="GT2" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="HZ2" s="11" t="s">
+      <c r="GU2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="IA2" s="11"/>
-      <c r="IB2" s="11"/>
-      <c r="IC2" s="11" t="s">
+      <c r="GV2" s="15"/>
+      <c r="GW2" s="15"/>
+      <c r="GX2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="ID2" s="11"/>
-      <c r="IE2" s="11"/>
-      <c r="IF2" s="11"/>
-      <c r="IG2" s="11" t="s">
+      <c r="GY2" s="15"/>
+      <c r="GZ2" s="15"/>
+      <c r="HA2" s="15"/>
+      <c r="HB2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="IH2" s="11"/>
-      <c r="II2" s="11" t="s">
+      <c r="HC2" s="15"/>
+      <c r="HD2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="IJ2" s="11"/>
-      <c r="IK2" s="11"/>
-      <c r="IL2" s="11"/>
-      <c r="IM2" s="11"/>
-      <c r="IN2" s="11"/>
-      <c r="IO2" s="11"/>
-      <c r="IP2" s="11"/>
-      <c r="IQ2" s="11"/>
-      <c r="IR2" s="11"/>
-      <c r="IS2" s="11" t="s">
+      <c r="HE2" s="15"/>
+      <c r="HF2" s="15"/>
+      <c r="HG2" s="15"/>
+      <c r="HH2" s="15"/>
+      <c r="HI2" s="15"/>
+      <c r="HJ2" s="15"/>
+      <c r="HK2" s="15"/>
+      <c r="HL2" s="15"/>
+      <c r="HM2" s="15"/>
+      <c r="HN2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="IT2" s="11"/>
-      <c r="IU2" s="11"/>
-      <c r="IV2" s="11"/>
-      <c r="IW2" s="11"/>
-      <c r="IX2" s="11" t="s">
+      <c r="HO2" s="15"/>
+      <c r="HP2" s="15"/>
+      <c r="HQ2" s="15"/>
+      <c r="HR2" s="15"/>
+      <c r="HS2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="IY2" s="11"/>
-      <c r="IZ2" s="11" t="s">
+      <c r="HT2" s="15"/>
+      <c r="HU2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="JA2" s="11"/>
-      <c r="JB2" s="11"/>
-      <c r="JC2" s="11"/>
-      <c r="JD2" s="11"/>
-      <c r="JE2" s="11"/>
-      <c r="JF2" s="11"/>
-      <c r="JG2" s="11"/>
-      <c r="JH2" s="11"/>
-      <c r="JI2" s="11"/>
-      <c r="JJ2" s="11"/>
-      <c r="JK2" s="11"/>
+      <c r="HV2" s="15"/>
+      <c r="HW2" s="15"/>
+      <c r="HX2" s="15"/>
+      <c r="HY2" s="15"/>
+      <c r="HZ2" s="15"/>
+      <c r="IA2" s="15"/>
+      <c r="IB2" s="15"/>
+      <c r="IC2" s="15"/>
+      <c r="ID2" s="15"/>
+      <c r="IE2" s="15"/>
+      <c r="IF2" s="15"/>
+      <c r="IG2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="IH2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="II2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="IJ2" s="15"/>
+      <c r="IK2" s="15"/>
+      <c r="IL2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="IM2" s="15"/>
+      <c r="IN2" s="15"/>
+      <c r="IO2" s="15"/>
+      <c r="IP2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="IQ2" s="15"/>
+      <c r="IR2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="IS2" s="15"/>
+      <c r="IT2" s="15"/>
+      <c r="IU2" s="15"/>
+      <c r="IV2" s="15"/>
+      <c r="IW2" s="15"/>
+      <c r="IX2" s="15"/>
+      <c r="IY2" s="15"/>
+      <c r="IZ2" s="15"/>
+      <c r="JA2" s="15"/>
+      <c r="JB2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="JC2" s="15"/>
+      <c r="JD2" s="15"/>
+      <c r="JE2" s="15"/>
+      <c r="JF2" s="15"/>
+      <c r="JG2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="JH2" s="15"/>
+      <c r="JI2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="JJ2" s="15"/>
+      <c r="JK2" s="15"/>
+      <c r="JL2" s="15"/>
+      <c r="JM2" s="15"/>
+      <c r="JN2" s="15"/>
+      <c r="JO2" s="15"/>
+      <c r="JP2" s="15"/>
+      <c r="JQ2" s="15"/>
+      <c r="JR2" s="15"/>
+      <c r="JS2" s="15"/>
+      <c r="JT2" s="15"/>
+      <c r="JU2" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:271">
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:281">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3171,34 +3365,36 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W3" s="7"/>
-      <c r="X3" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="X3" s="7"/>
       <c r="Y3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+      <c r="AB3" s="15"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
@@ -3207,1577 +3403,1629 @@
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="15"/>
       <c r="AP3" s="9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AW3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="BY3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="CD3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="CE3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="CF3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AZ3" s="9" t="s">
+      <c r="CG3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="BA3" s="9" t="s">
+      <c r="CH3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BB3" s="9" t="s">
+      <c r="CI3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BC3" s="9" t="s">
+      <c r="CJ3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BD3" s="9" t="s">
+      <c r="CK3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="CL3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BF3" s="9" t="s">
+      <c r="CM3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BG3" s="9" t="s">
+      <c r="CN3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BH3" s="9" t="s">
+      <c r="CO3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BI3" s="9" t="s">
+      <c r="CP3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="BJ3" s="9" t="s">
+      <c r="CQ3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="BK3" s="9" t="s">
+      <c r="CR3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="BL3" s="9" t="s">
+      <c r="CS3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="BM3" s="9" t="s">
+      <c r="CT3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BN3" s="9" t="s">
+      <c r="CU3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="BO3" s="9" t="s">
+      <c r="CV3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="BP3" s="9" t="s">
+      <c r="CW3" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BQ3" s="9" t="s">
+      <c r="CX3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BR3" s="9" t="s">
+      <c r="CY3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BS3" s="9" t="s">
+      <c r="CZ3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BT3" s="9" t="s">
+      <c r="DA3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BU3" s="9" t="s">
+      <c r="DB3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BV3" s="9" t="s">
+      <c r="DC3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BW3" s="9" t="s">
+      <c r="DD3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DE3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="DF3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="DH3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="DI3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="DJ3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="DK3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="DL3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="DM3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="DN3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="DO3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="DP3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="DQ3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="DS3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="DT3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="DU3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="DV3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="DW3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="DY3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="DZ3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="EA3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="EB3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="EC3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="ED3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="EE3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="EF3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="BX3" s="9" t="s">
+      <c r="EG3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="EH3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="EI3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="EJ3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="EK3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="EL3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="EM3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="EN3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="EO3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="EQ3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="ER3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BY3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="BZ3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="CB3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CF3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="CG3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="CH3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="CI3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="CJ3" s="9" t="s">
+      <c r="ES3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="ET3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="EU3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="EV3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="EW3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="EX3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="EY3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="EZ3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="FA3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="FB3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="FC3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="FD3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="FE3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="FF3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="CK3" s="9" t="s">
+      <c r="FG3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="CL3" s="9" t="s">
+      <c r="FH3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="CM3" s="9" t="s">
+      <c r="FI3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="CN3" s="9" t="s">
+      <c r="FJ3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="CO3" s="9" t="s">
+      <c r="FK3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="CP3" s="9" t="s">
+      <c r="FL3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="CQ3" s="9" t="s">
+      <c r="FM3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="CR3" s="9" t="s">
+      <c r="FN3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="CS3" s="9" t="s">
+      <c r="FO3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="CT3" s="9" t="s">
+      <c r="FP3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="CU3" s="9" t="s">
+      <c r="FQ3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="CV3" s="9" t="s">
+      <c r="FR3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="CW3" s="9" t="s">
+      <c r="FS3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="CX3" s="9" t="s">
+      <c r="FT3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="CY3" s="9" t="s">
+      <c r="FU3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="CZ3" s="9" t="s">
+      <c r="FV3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="DA3" s="9" t="s">
+      <c r="FW3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="DB3" s="9" t="s">
+      <c r="FX3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="DC3" s="9" t="s">
+      <c r="FY3" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="DD3" s="9" t="s">
+      <c r="FZ3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="DE3" s="9" t="s">
+      <c r="GA3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="DF3" s="9" t="s">
+      <c r="GB3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="DG3" s="9" t="s">
+      <c r="GC3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="DH3" s="9" t="s">
+      <c r="GD3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="DI3" s="9" t="s">
+      <c r="GE3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="DJ3" s="9" t="s">
+      <c r="GF3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="GG3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="GH3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="GI3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="GJ3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="GK3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="GL3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="GM3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="GN3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="GO3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="GP3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="GQ3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="GR3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="GS3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="GT3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="GU3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="GV3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="GW3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="GX3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="GY3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="GZ3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="HA3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="HB3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="HC3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="HD3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="HE3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="HF3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="HG3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="HH3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="DK3" s="9" t="s">
+      <c r="HI3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="HJ3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="HK3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="HL3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="HM3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="HN3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="HO3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="HP3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="HQ3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="HR3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="HS3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="HT3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="DL3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="DM3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="DN3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="DO3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="DP3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="DQ3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="DR3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="DS3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="DT3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="DU3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="DV3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="DW3" s="9" t="s">
+      <c r="HU3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="HV3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="HW3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="HX3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="HY3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="HZ3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="IA3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="IB3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="IC3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="ID3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="IE3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="IF3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="IG3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="IH3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="DX3" s="9" t="s">
+      <c r="II3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="DY3" s="9" t="s">
+      <c r="IJ3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="DZ3" s="9" t="s">
+      <c r="IK3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="EA3" s="9" t="s">
+      <c r="IL3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="EB3" s="9" t="s">
+      <c r="IM3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="EC3" s="9" t="s">
+      <c r="IN3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="ED3" s="9" t="s">
+      <c r="IO3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="EE3" s="9" t="s">
+      <c r="IP3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="EF3" s="9" t="s">
+      <c r="IQ3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="EG3" s="9" t="s">
+      <c r="IR3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="EH3" s="9" t="s">
+      <c r="IS3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="EI3" s="9" t="s">
+      <c r="IT3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="EJ3" s="9" t="s">
+      <c r="IU3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="EK3" s="9" t="s">
+      <c r="IV3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="EL3" s="9" t="s">
+      <c r="IW3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="EM3" s="9" t="s">
+      <c r="IX3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="EN3" s="9" t="s">
+      <c r="IY3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="EO3" s="9" t="s">
+      <c r="IZ3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="EP3" s="9" t="s">
+      <c r="JA3" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="EQ3" s="9" t="s">
+      <c r="JB3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="ER3" s="9" t="s">
+      <c r="JC3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="ES3" s="9" t="s">
+      <c r="JD3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="ET3" s="9" t="s">
+      <c r="JE3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="EU3" s="9" t="s">
+      <c r="JF3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="EV3" s="9" t="s">
+      <c r="JG3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="EW3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="EX3" s="9" t="s">
+      <c r="JH3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="EY3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="EZ3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="FA3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="FB3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="FC3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="FD3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="FE3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="FF3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="FG3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="FH3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="FI3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="FJ3" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="FK3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="FL3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="FM3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="FN3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="FO3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="FQ3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="FR3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="FS3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="FT3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="FU3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="FV3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="FW3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="FX3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="FY3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="FZ3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="GA3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="GB3" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="GC3" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="GD3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="GE3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="GF3" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="GG3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="GH3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="GI3" s="9" t="s">
+      <c r="JI3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="JJ3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="JK3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="JL3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="JM3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="JN3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="JO3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="JP3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="JQ3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="JR3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="JS3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="GJ3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="GK3" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="GL3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="GM3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="GN3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="GO3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="GP3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="GQ3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="GR3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="GS3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="GT3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="GU3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="GV3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="GW3" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="GX3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="GY3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="GZ3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="HA3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="HB3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="HC3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="HD3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="HE3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="HF3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="HG3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="HH3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="HI3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="HJ3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="HK3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="HL3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="HM3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="HN3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="HO3" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="HP3" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="HQ3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="HR3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="HS3" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="HT3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="HU3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="HV3" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="HW3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="HX3" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="HY3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="HZ3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="IA3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="IB3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="IC3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="ID3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="IE3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="IF3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="IG3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="IH3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="II3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="IJ3" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="IK3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="IL3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="IM3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="IN3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="IO3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="IP3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="IQ3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="IR3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="IS3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="IT3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="IU3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="IV3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="IW3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="IX3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="IY3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="IZ3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="JA3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="JB3" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="JC3" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="JD3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="JE3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="JF3" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="JG3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="JH3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="JI3" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="JJ3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="JK3" s="9" t="s">
-        <v>132</v>
+      <c r="JT3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="JU3" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="18" spans="1:271">
+    <row r="4" s="2" customFormat="1" ht="18" spans="1:281">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>158</v>
+        <v>169</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="AO4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>174</v>
+        <v>185</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>179</v>
+        <v>190</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
+      </c>
+      <c r="AX4" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="AY4" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
+      </c>
+      <c r="BC4" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="BD4" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="BE4" s="8" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="BF4" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="BH4" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="BI4" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="BJ4" s="8" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="BL4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="BM4" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
+      </c>
+      <c r="BM4" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="BN4" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BO4" s="8" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
+      </c>
+      <c r="BR4" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="BS4" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="BT4" s="8" t="s">
-        <v>204</v>
+        <v>215</v>
+      </c>
+      <c r="BT4" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="BW4" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
+      </c>
+      <c r="BW4" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="BX4" s="8" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="CB4" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="CC4" s="8" t="s">
-        <v>213</v>
+        <v>224</v>
+      </c>
+      <c r="CC4" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="CG4" s="8" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="CH4" s="8" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="CI4" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="CK4" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="CL4" s="8" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="CM4" s="8" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="CN4" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="CO4" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="CQ4" s="8" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="CR4" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="CS4" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CT4" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="CU4" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="CV4" s="8" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="CW4" s="8" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="CX4" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="CY4" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="CZ4" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="DA4" s="8" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="DB4" s="8" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="DC4" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="DD4" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="DE4" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="DF4" s="8" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="DG4" s="8" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="DH4" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="DI4" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="DJ4" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="DK4" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="DL4" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
+      </c>
+      <c r="DL4" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="DM4" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="DN4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="DO4" s="8" t="s">
-        <v>251</v>
+        <v>262</v>
+      </c>
+      <c r="DO4" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="DP4" s="8" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="DQ4" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="DR4" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="DS4" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DT4" s="8" t="s">
-        <v>256</v>
+        <v>267</v>
+      </c>
+      <c r="DT4" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="DU4" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="DV4" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
+      </c>
+      <c r="DV4" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="DW4" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="DX4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="DY4" s="8" t="s">
-        <v>261</v>
+        <v>272</v>
+      </c>
+      <c r="DY4" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="DZ4" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EA4" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
+      </c>
+      <c r="EA4" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="EB4" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="EC4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="ED4" s="8" t="s">
-        <v>266</v>
+        <v>277</v>
+      </c>
+      <c r="ED4" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="EE4" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="EF4" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
+      </c>
+      <c r="EF4" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="EG4" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="EH4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="EI4" s="8" t="s">
-        <v>271</v>
+        <v>282</v>
+      </c>
+      <c r="EI4" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="EJ4" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="EK4" s="2" t="s">
-        <v>273</v>
+        <v>284</v>
+      </c>
+      <c r="EK4" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="EL4" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="EM4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="EN4" s="8" t="s">
-        <v>276</v>
+        <v>287</v>
+      </c>
+      <c r="EN4" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="EO4" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="EP4" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
+      </c>
+      <c r="EP4" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="EQ4" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="ER4" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="ES4" s="8" t="s">
-        <v>281</v>
+        <v>292</v>
+      </c>
+      <c r="ES4" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="ET4" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="EU4" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
+      </c>
+      <c r="EU4" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="EV4" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="EW4" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="EX4" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="EY4" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="EZ4" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
+      </c>
+      <c r="EX4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EY4" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="EZ4" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="FA4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="FB4" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="FC4" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="FD4" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
+      </c>
+      <c r="FB4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FC4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="FD4" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="FE4" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="FF4" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="FG4" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="FH4" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="FI4" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="FJ4" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
+      </c>
+      <c r="FG4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="FH4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="FI4" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="FJ4" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="FK4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="FL4" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="FM4" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="FN4" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="FO4" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
+      </c>
+      <c r="FL4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="FM4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="FN4" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="FO4" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="FP4" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="FQ4" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="FR4" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="FS4" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="FT4" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
+      </c>
+      <c r="FQ4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="FR4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="FS4" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="FT4" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="FU4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="FV4" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="FW4" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="FX4" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="FY4" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
+      </c>
+      <c r="FV4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="FW4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FX4" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="FY4" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="FZ4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="GA4" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="GB4" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="GC4" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="GD4" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
+      </c>
+      <c r="GA4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="GB4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="GC4" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="GD4" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="GE4" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="GF4" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="GG4" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="GH4" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="GI4" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
+      </c>
+      <c r="GF4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="GG4" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="GH4" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="GI4" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="GJ4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="GK4" s="8" t="s">
-        <v>325</v>
+        <v>336</v>
+      </c>
+      <c r="GK4" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="GL4" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="GM4" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="GN4" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="GO4" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="GP4" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
+      </c>
+      <c r="GM4" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="GN4" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="GO4" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="GP4" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="GQ4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="GR4" s="2" t="s">
-        <v>332</v>
+        <v>343</v>
+      </c>
+      <c r="GR4" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="GS4" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="GT4" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="GU4" s="8" t="s">
-        <v>335</v>
+        <v>345</v>
+      </c>
+      <c r="GT4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="GU4" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="GV4" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="GW4" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="GX4" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="GY4" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="GZ4" s="8" t="s">
-        <v>340</v>
+        <v>348</v>
+      </c>
+      <c r="GW4" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="GX4" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="GY4" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="GZ4" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="HA4" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="HB4" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="HC4" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="HD4" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="HE4" s="8" t="s">
-        <v>345</v>
+        <v>353</v>
+      </c>
+      <c r="HB4" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="HC4" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="HD4" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="HE4" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="HF4" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="HG4" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="HH4" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="HI4" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="HJ4" s="8" t="s">
-        <v>350</v>
+        <v>358</v>
+      </c>
+      <c r="HG4" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="HH4" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="HI4" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="HJ4" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="HK4" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="HL4" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="HM4" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="HN4" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="HO4" s="8" t="s">
-        <v>355</v>
+        <v>363</v>
+      </c>
+      <c r="HL4" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="HM4" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="HN4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="HO4" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="HP4" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="HQ4" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="HR4" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="HS4" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="HT4" s="8" t="s">
-        <v>360</v>
+        <v>368</v>
+      </c>
+      <c r="HQ4" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="HR4" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="HS4" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="HT4" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="HU4" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="HV4" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="HW4" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HX4" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
+      </c>
+      <c r="HV4" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="HW4" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="HX4" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="HY4" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="HZ4" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="IA4" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
+      </c>
+      <c r="IA4" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="IB4" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="IC4" s="8" t="s">
-        <v>369</v>
+        <v>380</v>
+      </c>
+      <c r="IC4" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="ID4" s="2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="IE4" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="IF4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="IG4" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="IH4" s="8" t="s">
-        <v>374</v>
+        <v>383</v>
+      </c>
+      <c r="IF4" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="IG4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="IH4" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="II4" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="IJ4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="IK4" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
+      </c>
+      <c r="IK4" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="IL4" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="IM4" s="8" t="s">
-        <v>379</v>
+        <v>390</v>
+      </c>
+      <c r="IM4" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="IN4" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="IO4" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="IP4" s="2" t="s">
-        <v>382</v>
+        <v>393</v>
+      </c>
+      <c r="IP4" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="IQ4" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="IR4" s="8" t="s">
-        <v>384</v>
+        <v>395</v>
+      </c>
+      <c r="IR4" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="IS4" s="2" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="IT4" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="IU4" s="2" t="s">
-        <v>387</v>
+        <v>398</v>
+      </c>
+      <c r="IU4" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="IV4" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="IW4" s="8" t="s">
-        <v>389</v>
+        <v>400</v>
+      </c>
+      <c r="IW4" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="IX4" s="2" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="IY4" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="IZ4" s="2" t="s">
-        <v>392</v>
+        <v>403</v>
+      </c>
+      <c r="IZ4" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="JA4" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="JB4" s="8" t="s">
-        <v>394</v>
+        <v>405</v>
+      </c>
+      <c r="JB4" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="JC4" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="JD4" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="JE4" s="2" t="s">
-        <v>397</v>
+        <v>408</v>
+      </c>
+      <c r="JE4" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="JF4" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="JG4" s="8" t="s">
-        <v>399</v>
+        <v>410</v>
+      </c>
+      <c r="JG4" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="JH4" s="2" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="JI4" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="JJ4" s="2" t="s">
-        <v>402</v>
+        <v>413</v>
+      </c>
+      <c r="JJ4" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="JK4" s="8" t="s">
-        <v>403</v>
+        <v>415</v>
+      </c>
+      <c r="JL4" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="JM4" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="JN4" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="JO4" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="JP4" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="JQ4" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="JR4" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="JS4" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="JT4" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="JU4" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="82">
     <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="R1:Z1"/>
-    <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="AI1:JK1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AK1:JU1"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:BE2"/>
-    <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BX2"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CC2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CR2"/>
-    <mergeCell ref="CS2:CW2"/>
-    <mergeCell ref="CX2:CY2"/>
-    <mergeCell ref="CZ2:DK2"/>
-    <mergeCell ref="DM2:DO2"/>
-    <mergeCell ref="DP2:DS2"/>
-    <mergeCell ref="DT2:DU2"/>
-    <mergeCell ref="DV2:EE2"/>
-    <mergeCell ref="EF2:EJ2"/>
-    <mergeCell ref="EK2:EL2"/>
-    <mergeCell ref="EM2:EX2"/>
-    <mergeCell ref="EZ2:FB2"/>
-    <mergeCell ref="FC2:FF2"/>
-    <mergeCell ref="FG2:FH2"/>
-    <mergeCell ref="FI2:FR2"/>
-    <mergeCell ref="FS2:FW2"/>
-    <mergeCell ref="FX2:FY2"/>
-    <mergeCell ref="FZ2:GK2"/>
-    <mergeCell ref="GM2:GO2"/>
-    <mergeCell ref="GP2:GS2"/>
-    <mergeCell ref="GT2:GU2"/>
-    <mergeCell ref="GV2:HE2"/>
-    <mergeCell ref="HF2:HJ2"/>
-    <mergeCell ref="HK2:HL2"/>
-    <mergeCell ref="HM2:HX2"/>
-    <mergeCell ref="HZ2:IB2"/>
-    <mergeCell ref="IC2:IF2"/>
-    <mergeCell ref="IG2:IH2"/>
-    <mergeCell ref="II2:IR2"/>
-    <mergeCell ref="IS2:IW2"/>
-    <mergeCell ref="IX2:IY2"/>
-    <mergeCell ref="IZ2:JK2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BI2"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:CB2"/>
+    <mergeCell ref="CE2:CG2"/>
+    <mergeCell ref="CH2:CK2"/>
+    <mergeCell ref="CL2:CM2"/>
+    <mergeCell ref="CN2:CW2"/>
+    <mergeCell ref="CX2:DB2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DP2"/>
+    <mergeCell ref="DS2:DU2"/>
+    <mergeCell ref="DV2:DY2"/>
+    <mergeCell ref="DZ2:EA2"/>
+    <mergeCell ref="EB2:EK2"/>
+    <mergeCell ref="EL2:EP2"/>
+    <mergeCell ref="EQ2:ER2"/>
+    <mergeCell ref="ES2:FD2"/>
+    <mergeCell ref="FG2:FI2"/>
+    <mergeCell ref="FJ2:FM2"/>
+    <mergeCell ref="FN2:FO2"/>
+    <mergeCell ref="FP2:FY2"/>
+    <mergeCell ref="FZ2:GD2"/>
+    <mergeCell ref="GE2:GF2"/>
+    <mergeCell ref="GG2:GR2"/>
+    <mergeCell ref="GU2:GW2"/>
+    <mergeCell ref="GX2:HA2"/>
+    <mergeCell ref="HB2:HC2"/>
+    <mergeCell ref="HD2:HM2"/>
+    <mergeCell ref="HN2:HR2"/>
+    <mergeCell ref="HS2:HT2"/>
+    <mergeCell ref="HU2:IF2"/>
+    <mergeCell ref="II2:IK2"/>
+    <mergeCell ref="IL2:IO2"/>
+    <mergeCell ref="IP2:IQ2"/>
+    <mergeCell ref="IR2:JA2"/>
+    <mergeCell ref="JB2:JF2"/>
+    <mergeCell ref="JG2:JH2"/>
+    <mergeCell ref="JI2:JT2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -4793,9 +5041,8 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="X2:X3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
@@ -4807,6 +5054,10 @@
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportSchoolEnvironmentTemplate.xlsx
@@ -1299,12 +1299,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1335,9 +1334,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1351,37 +1426,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,15 +1448,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,23 +1468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1442,44 +1479,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,13 +1493,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,49 +1547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,37 +1571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,7 +1589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,7 +1607,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,37 +1673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,6 +1779,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1788,9 +1796,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1810,16 +1820,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1840,36 +1859,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1879,217 +1878,202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2418,23 +2402,23 @@
   <sheetPr/>
   <dimension ref="A1:JU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="14.6083333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.65" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.6" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.65" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.6" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.1" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.6" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.825" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.8916666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.8916666666667" style="3" customWidth="1"/>
     <col min="10" max="10" width="13.3333333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.15" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.15" style="4" customWidth="1"/>
     <col min="12" max="12" width="14.9666666666667" style="3" customWidth="1"/>
     <col min="13" max="13" width="19.8" style="3" customWidth="1"/>
     <col min="14" max="14" width="17.5083333333333" style="3" customWidth="1"/>
@@ -2591,1541 +2575,1541 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:281">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="10" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="13" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="18" t="s">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BJ1" s="18"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="18"/>
-      <c r="BR1" s="18"/>
-      <c r="BS1" s="18"/>
-      <c r="BT1" s="18"/>
-      <c r="BU1" s="18"/>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
-      <c r="CJ1" s="18"/>
-      <c r="CK1" s="18"/>
-      <c r="CL1" s="18"/>
-      <c r="CM1" s="18"/>
-      <c r="CN1" s="18"/>
-      <c r="CO1" s="18"/>
-      <c r="CP1" s="18"/>
-      <c r="CQ1" s="18"/>
-      <c r="CR1" s="18"/>
-      <c r="CS1" s="18"/>
-      <c r="CT1" s="18"/>
-      <c r="CU1" s="18"/>
-      <c r="CV1" s="18"/>
-      <c r="CW1" s="18"/>
-      <c r="CX1" s="18"/>
-      <c r="CY1" s="18"/>
-      <c r="CZ1" s="18"/>
-      <c r="DA1" s="18"/>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="18"/>
-      <c r="DS1" s="18"/>
-      <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
-      <c r="DV1" s="18"/>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
-      <c r="EC1" s="18"/>
-      <c r="ED1" s="18"/>
-      <c r="EE1" s="18"/>
-      <c r="EF1" s="18"/>
-      <c r="EG1" s="18"/>
-      <c r="EH1" s="18"/>
-      <c r="EI1" s="18"/>
-      <c r="EJ1" s="18"/>
-      <c r="EK1" s="18"/>
-      <c r="EL1" s="18"/>
-      <c r="EM1" s="18"/>
-      <c r="EN1" s="18"/>
-      <c r="EO1" s="18"/>
-      <c r="EP1" s="18"/>
-      <c r="EQ1" s="18"/>
-      <c r="ER1" s="18"/>
-      <c r="ES1" s="18"/>
-      <c r="ET1" s="18"/>
-      <c r="EU1" s="18"/>
-      <c r="EV1" s="18"/>
-      <c r="EW1" s="18"/>
-      <c r="EX1" s="18"/>
-      <c r="EY1" s="18"/>
-      <c r="EZ1" s="18"/>
-      <c r="FA1" s="18"/>
-      <c r="FB1" s="18"/>
-      <c r="FC1" s="18"/>
-      <c r="FD1" s="18"/>
-      <c r="FE1" s="18"/>
-      <c r="FF1" s="18"/>
-      <c r="FG1" s="18"/>
-      <c r="FH1" s="18"/>
-      <c r="FI1" s="18"/>
-      <c r="FJ1" s="18"/>
-      <c r="FK1" s="18"/>
-      <c r="FL1" s="18"/>
-      <c r="FM1" s="18"/>
-      <c r="FN1" s="18"/>
-      <c r="FO1" s="18"/>
-      <c r="FP1" s="18"/>
-      <c r="FQ1" s="18"/>
-      <c r="FR1" s="18"/>
-      <c r="FS1" s="18"/>
-      <c r="FT1" s="18"/>
-      <c r="FU1" s="18"/>
-      <c r="FV1" s="18"/>
-      <c r="FW1" s="18"/>
-      <c r="FX1" s="18"/>
-      <c r="FY1" s="18"/>
-      <c r="FZ1" s="18"/>
-      <c r="GA1" s="18"/>
-      <c r="GB1" s="18"/>
-      <c r="GC1" s="18"/>
-      <c r="GD1" s="18"/>
-      <c r="GE1" s="18"/>
-      <c r="GF1" s="18"/>
-      <c r="GG1" s="18"/>
-      <c r="GH1" s="18"/>
-      <c r="GI1" s="18"/>
-      <c r="GJ1" s="18"/>
-      <c r="GK1" s="18"/>
-      <c r="GL1" s="18"/>
-      <c r="GM1" s="18"/>
-      <c r="GN1" s="18"/>
-      <c r="GO1" s="18"/>
-      <c r="GP1" s="18"/>
-      <c r="GQ1" s="18"/>
-      <c r="GR1" s="18"/>
-      <c r="GS1" s="18"/>
-      <c r="GT1" s="18"/>
-      <c r="GU1" s="18"/>
-      <c r="GV1" s="18"/>
-      <c r="GW1" s="18"/>
-      <c r="GX1" s="18"/>
-      <c r="GY1" s="18"/>
-      <c r="GZ1" s="18"/>
-      <c r="HA1" s="18"/>
-      <c r="HB1" s="18"/>
-      <c r="HC1" s="18"/>
-      <c r="HD1" s="18"/>
-      <c r="HE1" s="18"/>
-      <c r="HF1" s="18"/>
-      <c r="HG1" s="18"/>
-      <c r="HH1" s="18"/>
-      <c r="HI1" s="18"/>
-      <c r="HJ1" s="18"/>
-      <c r="HK1" s="18"/>
-      <c r="HL1" s="18"/>
-      <c r="HM1" s="18"/>
-      <c r="HN1" s="18"/>
-      <c r="HO1" s="18"/>
-      <c r="HP1" s="18"/>
-      <c r="HQ1" s="18"/>
-      <c r="HR1" s="18"/>
-      <c r="HS1" s="18"/>
-      <c r="HT1" s="18"/>
-      <c r="HU1" s="18"/>
-      <c r="HV1" s="18"/>
-      <c r="HW1" s="18"/>
-      <c r="HX1" s="18"/>
-      <c r="HY1" s="18"/>
-      <c r="HZ1" s="18"/>
-      <c r="IA1" s="18"/>
-      <c r="IB1" s="18"/>
-      <c r="IC1" s="18"/>
-      <c r="ID1" s="18"/>
-      <c r="IE1" s="18"/>
-      <c r="IF1" s="18"/>
-      <c r="IG1" s="18"/>
-      <c r="IH1" s="18"/>
-      <c r="II1" s="18"/>
-      <c r="IJ1" s="18"/>
-      <c r="IK1" s="18"/>
-      <c r="IL1" s="18"/>
-      <c r="IM1" s="18"/>
-      <c r="IN1" s="18"/>
-      <c r="IO1" s="18"/>
-      <c r="IP1" s="18"/>
-      <c r="IQ1" s="18"/>
-      <c r="IR1" s="18"/>
-      <c r="IS1" s="18"/>
-      <c r="IT1" s="18"/>
-      <c r="IU1" s="18"/>
-      <c r="IV1" s="18"/>
-      <c r="IW1" s="18"/>
-      <c r="IX1" s="18"/>
-      <c r="IY1" s="18"/>
-      <c r="IZ1" s="18"/>
-      <c r="JA1" s="18"/>
-      <c r="JB1" s="18"/>
-      <c r="JC1" s="18"/>
-      <c r="JD1" s="18"/>
-      <c r="JE1" s="18"/>
-      <c r="JF1" s="18"/>
-      <c r="JG1" s="18"/>
-      <c r="JH1" s="18"/>
-      <c r="JI1" s="18"/>
-      <c r="JJ1" s="18"/>
-      <c r="JK1" s="18"/>
-      <c r="JL1" s="18"/>
-      <c r="JM1" s="18"/>
-      <c r="JN1" s="18"/>
-      <c r="JO1" s="18"/>
-      <c r="JP1" s="18"/>
-      <c r="JQ1" s="18"/>
-      <c r="JR1" s="18"/>
-      <c r="JS1" s="18"/>
-      <c r="JT1" s="18"/>
-      <c r="JU1" s="21"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13"/>
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="13"/>
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="13"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="13"/>
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13"/>
+      <c r="EX1" s="13"/>
+      <c r="EY1" s="13"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="13"/>
+      <c r="FF1" s="13"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="13"/>
+      <c r="FK1" s="13"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
+      <c r="FO1" s="13"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="13"/>
+      <c r="FR1" s="13"/>
+      <c r="FS1" s="13"/>
+      <c r="FT1" s="13"/>
+      <c r="FU1" s="13"/>
+      <c r="FV1" s="13"/>
+      <c r="FW1" s="13"/>
+      <c r="FX1" s="13"/>
+      <c r="FY1" s="13"/>
+      <c r="FZ1" s="13"/>
+      <c r="GA1" s="13"/>
+      <c r="GB1" s="13"/>
+      <c r="GC1" s="13"/>
+      <c r="GD1" s="13"/>
+      <c r="GE1" s="13"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="13"/>
+      <c r="GH1" s="13"/>
+      <c r="GI1" s="13"/>
+      <c r="GJ1" s="13"/>
+      <c r="GK1" s="13"/>
+      <c r="GL1" s="13"/>
+      <c r="GM1" s="13"/>
+      <c r="GN1" s="13"/>
+      <c r="GO1" s="13"/>
+      <c r="GP1" s="13"/>
+      <c r="GQ1" s="13"/>
+      <c r="GR1" s="13"/>
+      <c r="GS1" s="13"/>
+      <c r="GT1" s="13"/>
+      <c r="GU1" s="13"/>
+      <c r="GV1" s="13"/>
+      <c r="GW1" s="13"/>
+      <c r="GX1" s="13"/>
+      <c r="GY1" s="13"/>
+      <c r="GZ1" s="13"/>
+      <c r="HA1" s="13"/>
+      <c r="HB1" s="13"/>
+      <c r="HC1" s="13"/>
+      <c r="HD1" s="13"/>
+      <c r="HE1" s="13"/>
+      <c r="HF1" s="13"/>
+      <c r="HG1" s="13"/>
+      <c r="HH1" s="13"/>
+      <c r="HI1" s="13"/>
+      <c r="HJ1" s="13"/>
+      <c r="HK1" s="13"/>
+      <c r="HL1" s="13"/>
+      <c r="HM1" s="13"/>
+      <c r="HN1" s="13"/>
+      <c r="HO1" s="13"/>
+      <c r="HP1" s="13"/>
+      <c r="HQ1" s="13"/>
+      <c r="HR1" s="13"/>
+      <c r="HS1" s="13"/>
+      <c r="HT1" s="13"/>
+      <c r="HU1" s="13"/>
+      <c r="HV1" s="13"/>
+      <c r="HW1" s="13"/>
+      <c r="HX1" s="13"/>
+      <c r="HY1" s="13"/>
+      <c r="HZ1" s="13"/>
+      <c r="IA1" s="13"/>
+      <c r="IB1" s="13"/>
+      <c r="IC1" s="13"/>
+      <c r="ID1" s="13"/>
+      <c r="IE1" s="13"/>
+      <c r="IF1" s="13"/>
+      <c r="IG1" s="13"/>
+      <c r="IH1" s="13"/>
+      <c r="II1" s="13"/>
+      <c r="IJ1" s="13"/>
+      <c r="IK1" s="13"/>
+      <c r="IL1" s="13"/>
+      <c r="IM1" s="13"/>
+      <c r="IN1" s="13"/>
+      <c r="IO1" s="13"/>
+      <c r="IP1" s="13"/>
+      <c r="IQ1" s="13"/>
+      <c r="IR1" s="13"/>
+      <c r="IS1" s="13"/>
+      <c r="IT1" s="13"/>
+      <c r="IU1" s="13"/>
+      <c r="IV1" s="13"/>
+      <c r="IW1" s="13"/>
+      <c r="IX1" s="13"/>
+      <c r="IY1" s="13"/>
+      <c r="IZ1" s="13"/>
+      <c r="JA1" s="13"/>
+      <c r="JB1" s="13"/>
+      <c r="JC1" s="13"/>
+      <c r="JD1" s="13"/>
+      <c r="JE1" s="13"/>
+      <c r="JF1" s="13"/>
+      <c r="JG1" s="13"/>
+      <c r="JH1" s="13"/>
+      <c r="JI1" s="13"/>
+      <c r="JJ1" s="13"/>
+      <c r="JK1" s="13"/>
+      <c r="JL1" s="13"/>
+      <c r="JM1" s="13"/>
+      <c r="JN1" s="13"/>
+      <c r="JO1" s="13"/>
+      <c r="JP1" s="13"/>
+      <c r="JQ1" s="13"/>
+      <c r="JR1" s="13"/>
+      <c r="JS1" s="13"/>
+      <c r="JT1" s="13"/>
+      <c r="JU1" s="14"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:281">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="7" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AO2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="20" t="s">
+      <c r="AP2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AQ2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15" t="s">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15" t="s">
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15" t="s">
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15"/>
-      <c r="BF2" s="15"/>
-      <c r="BG2" s="15"/>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="15"/>
-      <c r="BJ2" s="15" t="s">
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="15"/>
-      <c r="BL2" s="15"/>
-      <c r="BM2" s="15"/>
-      <c r="BN2" s="15"/>
-      <c r="BO2" s="15" t="s">
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="BP2" s="15"/>
-      <c r="BQ2" s="15" t="s">
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="BR2" s="15"/>
-      <c r="BS2" s="15"/>
-      <c r="BT2" s="15"/>
-      <c r="BU2" s="15"/>
-      <c r="BV2" s="15"/>
-      <c r="BW2" s="15"/>
-      <c r="BX2" s="15"/>
-      <c r="BY2" s="15"/>
-      <c r="BZ2" s="15"/>
-      <c r="CA2" s="15"/>
-      <c r="CB2" s="15"/>
-      <c r="CC2" s="20" t="s">
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="CD2" s="20" t="s">
+      <c r="CD2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="CE2" s="15" t="s">
+      <c r="CE2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="CF2" s="15"/>
-      <c r="CG2" s="15"/>
-      <c r="CH2" s="15" t="s">
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="CI2" s="15"/>
-      <c r="CJ2" s="15"/>
-      <c r="CK2" s="15"/>
-      <c r="CL2" s="15" t="s">
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="CM2" s="15"/>
-      <c r="CN2" s="15" t="s">
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="CO2" s="15"/>
-      <c r="CP2" s="15"/>
-      <c r="CQ2" s="15"/>
-      <c r="CR2" s="15"/>
-      <c r="CS2" s="15"/>
-      <c r="CT2" s="15"/>
-      <c r="CU2" s="15"/>
-      <c r="CV2" s="15"/>
-      <c r="CW2" s="15"/>
-      <c r="CX2" s="15" t="s">
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12"/>
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="CY2" s="15"/>
-      <c r="CZ2" s="15"/>
-      <c r="DA2" s="15"/>
-      <c r="DB2" s="15"/>
-      <c r="DC2" s="15" t="s">
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12"/>
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="DD2" s="15"/>
-      <c r="DE2" s="15" t="s">
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="DF2" s="15"/>
-      <c r="DG2" s="15"/>
-      <c r="DH2" s="15"/>
-      <c r="DI2" s="15"/>
-      <c r="DJ2" s="15"/>
-      <c r="DK2" s="15"/>
-      <c r="DL2" s="15"/>
-      <c r="DM2" s="15"/>
-      <c r="DN2" s="15"/>
-      <c r="DO2" s="15"/>
-      <c r="DP2" s="15"/>
-      <c r="DQ2" s="20" t="s">
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12"/>
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="DR2" s="20" t="s">
+      <c r="DR2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="DS2" s="15" t="s">
+      <c r="DS2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DT2" s="15"/>
-      <c r="DU2" s="15"/>
-      <c r="DV2" s="15" t="s">
+      <c r="DT2" s="12"/>
+      <c r="DU2" s="12"/>
+      <c r="DV2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DW2" s="15"/>
-      <c r="DX2" s="15"/>
-      <c r="DY2" s="15"/>
-      <c r="DZ2" s="15" t="s">
+      <c r="DW2" s="12"/>
+      <c r="DX2" s="12"/>
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="EA2" s="15"/>
-      <c r="EB2" s="15" t="s">
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="EC2" s="15"/>
-      <c r="ED2" s="15"/>
-      <c r="EE2" s="15"/>
-      <c r="EF2" s="15"/>
-      <c r="EG2" s="15"/>
-      <c r="EH2" s="15"/>
-      <c r="EI2" s="15"/>
-      <c r="EJ2" s="15"/>
-      <c r="EK2" s="15"/>
-      <c r="EL2" s="15" t="s">
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12"/>
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12"/>
+      <c r="EH2" s="12"/>
+      <c r="EI2" s="12"/>
+      <c r="EJ2" s="12"/>
+      <c r="EK2" s="12"/>
+      <c r="EL2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="EM2" s="15"/>
-      <c r="EN2" s="15"/>
-      <c r="EO2" s="15"/>
-      <c r="EP2" s="15"/>
-      <c r="EQ2" s="15" t="s">
+      <c r="EM2" s="12"/>
+      <c r="EN2" s="12"/>
+      <c r="EO2" s="12"/>
+      <c r="EP2" s="12"/>
+      <c r="EQ2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="ER2" s="15"/>
-      <c r="ES2" s="15" t="s">
+      <c r="ER2" s="12"/>
+      <c r="ES2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="ET2" s="15"/>
-      <c r="EU2" s="15"/>
-      <c r="EV2" s="15"/>
-      <c r="EW2" s="15"/>
-      <c r="EX2" s="15"/>
-      <c r="EY2" s="15"/>
-      <c r="EZ2" s="15"/>
-      <c r="FA2" s="15"/>
-      <c r="FB2" s="15"/>
-      <c r="FC2" s="15"/>
-      <c r="FD2" s="15"/>
-      <c r="FE2" s="20" t="s">
+      <c r="ET2" s="12"/>
+      <c r="EU2" s="12"/>
+      <c r="EV2" s="12"/>
+      <c r="EW2" s="12"/>
+      <c r="EX2" s="12"/>
+      <c r="EY2" s="12"/>
+      <c r="EZ2" s="12"/>
+      <c r="FA2" s="12"/>
+      <c r="FB2" s="12"/>
+      <c r="FC2" s="12"/>
+      <c r="FD2" s="12"/>
+      <c r="FE2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="FF2" s="20" t="s">
+      <c r="FF2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="FG2" s="15" t="s">
+      <c r="FG2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="FH2" s="15"/>
-      <c r="FI2" s="15"/>
-      <c r="FJ2" s="15" t="s">
+      <c r="FH2" s="12"/>
+      <c r="FI2" s="12"/>
+      <c r="FJ2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="FK2" s="15"/>
-      <c r="FL2" s="15"/>
-      <c r="FM2" s="15"/>
-      <c r="FN2" s="15" t="s">
+      <c r="FK2" s="12"/>
+      <c r="FL2" s="12"/>
+      <c r="FM2" s="12"/>
+      <c r="FN2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="FO2" s="15"/>
-      <c r="FP2" s="15" t="s">
+      <c r="FO2" s="12"/>
+      <c r="FP2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="FQ2" s="15"/>
-      <c r="FR2" s="15"/>
-      <c r="FS2" s="15"/>
-      <c r="FT2" s="15"/>
-      <c r="FU2" s="15"/>
-      <c r="FV2" s="15"/>
-      <c r="FW2" s="15"/>
-      <c r="FX2" s="15"/>
-      <c r="FY2" s="15"/>
-      <c r="FZ2" s="15" t="s">
+      <c r="FQ2" s="12"/>
+      <c r="FR2" s="12"/>
+      <c r="FS2" s="12"/>
+      <c r="FT2" s="12"/>
+      <c r="FU2" s="12"/>
+      <c r="FV2" s="12"/>
+      <c r="FW2" s="12"/>
+      <c r="FX2" s="12"/>
+      <c r="FY2" s="12"/>
+      <c r="FZ2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="GA2" s="15"/>
-      <c r="GB2" s="15"/>
-      <c r="GC2" s="15"/>
-      <c r="GD2" s="15"/>
-      <c r="GE2" s="15" t="s">
+      <c r="GA2" s="12"/>
+      <c r="GB2" s="12"/>
+      <c r="GC2" s="12"/>
+      <c r="GD2" s="12"/>
+      <c r="GE2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="GF2" s="15"/>
-      <c r="GG2" s="15" t="s">
+      <c r="GF2" s="12"/>
+      <c r="GG2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="GH2" s="15"/>
-      <c r="GI2" s="15"/>
-      <c r="GJ2" s="15"/>
-      <c r="GK2" s="15"/>
-      <c r="GL2" s="15"/>
-      <c r="GM2" s="15"/>
-      <c r="GN2" s="15"/>
-      <c r="GO2" s="15"/>
-      <c r="GP2" s="15"/>
-      <c r="GQ2" s="15"/>
-      <c r="GR2" s="15"/>
-      <c r="GS2" s="20" t="s">
+      <c r="GH2" s="12"/>
+      <c r="GI2" s="12"/>
+      <c r="GJ2" s="12"/>
+      <c r="GK2" s="12"/>
+      <c r="GL2" s="12"/>
+      <c r="GM2" s="12"/>
+      <c r="GN2" s="12"/>
+      <c r="GO2" s="12"/>
+      <c r="GP2" s="12"/>
+      <c r="GQ2" s="12"/>
+      <c r="GR2" s="12"/>
+      <c r="GS2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="GT2" s="20" t="s">
+      <c r="GT2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="GU2" s="15" t="s">
+      <c r="GU2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="GV2" s="15"/>
-      <c r="GW2" s="15"/>
-      <c r="GX2" s="15" t="s">
+      <c r="GV2" s="12"/>
+      <c r="GW2" s="12"/>
+      <c r="GX2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="GY2" s="15"/>
-      <c r="GZ2" s="15"/>
-      <c r="HA2" s="15"/>
-      <c r="HB2" s="15" t="s">
+      <c r="GY2" s="12"/>
+      <c r="GZ2" s="12"/>
+      <c r="HA2" s="12"/>
+      <c r="HB2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="HC2" s="15"/>
-      <c r="HD2" s="15" t="s">
+      <c r="HC2" s="12"/>
+      <c r="HD2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="HE2" s="15"/>
-      <c r="HF2" s="15"/>
-      <c r="HG2" s="15"/>
-      <c r="HH2" s="15"/>
-      <c r="HI2" s="15"/>
-      <c r="HJ2" s="15"/>
-      <c r="HK2" s="15"/>
-      <c r="HL2" s="15"/>
-      <c r="HM2" s="15"/>
-      <c r="HN2" s="15" t="s">
+      <c r="HE2" s="12"/>
+      <c r="HF2" s="12"/>
+      <c r="HG2" s="12"/>
+      <c r="HH2" s="12"/>
+      <c r="HI2" s="12"/>
+      <c r="HJ2" s="12"/>
+      <c r="HK2" s="12"/>
+      <c r="HL2" s="12"/>
+      <c r="HM2" s="12"/>
+      <c r="HN2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="HO2" s="15"/>
-      <c r="HP2" s="15"/>
-      <c r="HQ2" s="15"/>
-      <c r="HR2" s="15"/>
-      <c r="HS2" s="15" t="s">
+      <c r="HO2" s="12"/>
+      <c r="HP2" s="12"/>
+      <c r="HQ2" s="12"/>
+      <c r="HR2" s="12"/>
+      <c r="HS2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="HT2" s="15"/>
-      <c r="HU2" s="15" t="s">
+      <c r="HT2" s="12"/>
+      <c r="HU2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="HV2" s="15"/>
-      <c r="HW2" s="15"/>
-      <c r="HX2" s="15"/>
-      <c r="HY2" s="15"/>
-      <c r="HZ2" s="15"/>
-      <c r="IA2" s="15"/>
-      <c r="IB2" s="15"/>
-      <c r="IC2" s="15"/>
-      <c r="ID2" s="15"/>
-      <c r="IE2" s="15"/>
-      <c r="IF2" s="15"/>
-      <c r="IG2" s="20" t="s">
+      <c r="HV2" s="12"/>
+      <c r="HW2" s="12"/>
+      <c r="HX2" s="12"/>
+      <c r="HY2" s="12"/>
+      <c r="HZ2" s="12"/>
+      <c r="IA2" s="12"/>
+      <c r="IB2" s="12"/>
+      <c r="IC2" s="12"/>
+      <c r="ID2" s="12"/>
+      <c r="IE2" s="12"/>
+      <c r="IF2" s="12"/>
+      <c r="IG2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="IH2" s="20" t="s">
+      <c r="IH2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="II2" s="15" t="s">
+      <c r="II2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="IJ2" s="15"/>
-      <c r="IK2" s="15"/>
-      <c r="IL2" s="15" t="s">
+      <c r="IJ2" s="12"/>
+      <c r="IK2" s="12"/>
+      <c r="IL2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="IM2" s="15"/>
-      <c r="IN2" s="15"/>
-      <c r="IO2" s="15"/>
-      <c r="IP2" s="15" t="s">
+      <c r="IM2" s="12"/>
+      <c r="IN2" s="12"/>
+      <c r="IO2" s="12"/>
+      <c r="IP2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="IQ2" s="15"/>
-      <c r="IR2" s="15" t="s">
+      <c r="IQ2" s="12"/>
+      <c r="IR2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="IS2" s="15"/>
-      <c r="IT2" s="15"/>
-      <c r="IU2" s="15"/>
-      <c r="IV2" s="15"/>
-      <c r="IW2" s="15"/>
-      <c r="IX2" s="15"/>
-      <c r="IY2" s="15"/>
-      <c r="IZ2" s="15"/>
-      <c r="JA2" s="15"/>
-      <c r="JB2" s="15" t="s">
+      <c r="IS2" s="12"/>
+      <c r="IT2" s="12"/>
+      <c r="IU2" s="12"/>
+      <c r="IV2" s="12"/>
+      <c r="IW2" s="12"/>
+      <c r="IX2" s="12"/>
+      <c r="IY2" s="12"/>
+      <c r="IZ2" s="12"/>
+      <c r="JA2" s="12"/>
+      <c r="JB2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="JC2" s="15"/>
-      <c r="JD2" s="15"/>
-      <c r="JE2" s="15"/>
-      <c r="JF2" s="15"/>
-      <c r="JG2" s="15" t="s">
+      <c r="JC2" s="12"/>
+      <c r="JD2" s="12"/>
+      <c r="JE2" s="12"/>
+      <c r="JF2" s="12"/>
+      <c r="JG2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="JH2" s="15"/>
-      <c r="JI2" s="15" t="s">
+      <c r="JH2" s="12"/>
+      <c r="JI2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="JJ2" s="15"/>
-      <c r="JK2" s="15"/>
-      <c r="JL2" s="15"/>
-      <c r="JM2" s="15"/>
-      <c r="JN2" s="15"/>
-      <c r="JO2" s="15"/>
-      <c r="JP2" s="15"/>
-      <c r="JQ2" s="15"/>
-      <c r="JR2" s="15"/>
-      <c r="JS2" s="15"/>
-      <c r="JT2" s="15"/>
-      <c r="JU2" s="20" t="s">
+      <c r="JJ2" s="12"/>
+      <c r="JK2" s="12"/>
+      <c r="JL2" s="12"/>
+      <c r="JM2" s="12"/>
+      <c r="JN2" s="12"/>
+      <c r="JO2" s="12"/>
+      <c r="JP2" s="12"/>
+      <c r="JQ2" s="12"/>
+      <c r="JR2" s="12"/>
+      <c r="JS2" s="12"/>
+      <c r="JT2" s="12"/>
+      <c r="JU2" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:281">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="9" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="9" t="s">
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="9" t="s">
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AT3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AU3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="AV3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="AW3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="AX3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="AY3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AZ3" s="9" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="BA3" s="9" t="s">
+      <c r="BA3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="BB3" s="9" t="s">
+      <c r="BB3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="BC3" s="9" t="s">
+      <c r="BC3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BD3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BE3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="BF3" s="9" t="s">
+      <c r="BF3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="BG3" s="9" t="s">
+      <c r="BG3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="BH3" s="9" t="s">
+      <c r="BH3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="BI3" s="9" t="s">
+      <c r="BI3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="BJ3" s="9" t="s">
+      <c r="BJ3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="BK3" s="9" t="s">
+      <c r="BK3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="BL3" s="9" t="s">
+      <c r="BL3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="BM3" s="9" t="s">
+      <c r="BM3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="BN3" s="9" t="s">
+      <c r="BN3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="BO3" s="9" t="s">
+      <c r="BO3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="BP3" s="9" t="s">
+      <c r="BP3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="BQ3" s="9" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="BR3" s="9" t="s">
+      <c r="BR3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="BS3" s="9" t="s">
+      <c r="BS3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="BT3" s="9" t="s">
+      <c r="BT3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="BU3" s="9" t="s">
+      <c r="BU3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="BV3" s="9" t="s">
+      <c r="BV3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="BW3" s="9" t="s">
+      <c r="BW3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BX3" s="9" t="s">
+      <c r="BX3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="BY3" s="9" t="s">
+      <c r="BY3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="BZ3" s="9" t="s">
+      <c r="BZ3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="CA3" s="9" t="s">
+      <c r="CA3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="CB3" s="9" t="s">
+      <c r="CB3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="CC3" s="9" t="s">
+      <c r="CC3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="CD3" s="9" t="s">
+      <c r="CD3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="CE3" s="9" t="s">
+      <c r="CE3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="CF3" s="9" t="s">
+      <c r="CF3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="CG3" s="9" t="s">
+      <c r="CG3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="CH3" s="9" t="s">
+      <c r="CH3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="CI3" s="9" t="s">
+      <c r="CI3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="CJ3" s="9" t="s">
+      <c r="CJ3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="CK3" s="9" t="s">
+      <c r="CK3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="CL3" s="9" t="s">
+      <c r="CL3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="CM3" s="9" t="s">
+      <c r="CM3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="CN3" s="9" t="s">
+      <c r="CN3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="CO3" s="9" t="s">
+      <c r="CO3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="CP3" s="9" t="s">
+      <c r="CP3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="CQ3" s="9" t="s">
+      <c r="CQ3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="CR3" s="9" t="s">
+      <c r="CR3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="CS3" s="9" t="s">
+      <c r="CS3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="CT3" s="9" t="s">
+      <c r="CT3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="CU3" s="9" t="s">
+      <c r="CU3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="CV3" s="9" t="s">
+      <c r="CV3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="CW3" s="9" t="s">
+      <c r="CW3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="CX3" s="9" t="s">
+      <c r="CX3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="CY3" s="9" t="s">
+      <c r="CY3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="CZ3" s="9" t="s">
+      <c r="CZ3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="DA3" s="9" t="s">
+      <c r="DA3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="DB3" s="9" t="s">
+      <c r="DB3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="DC3" s="9" t="s">
+      <c r="DC3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="DD3" s="9" t="s">
+      <c r="DD3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="DE3" s="9" t="s">
+      <c r="DE3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="DF3" s="9" t="s">
+      <c r="DF3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="DG3" s="9" t="s">
+      <c r="DG3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="DH3" s="9" t="s">
+      <c r="DH3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="DI3" s="9" t="s">
+      <c r="DI3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="DJ3" s="9" t="s">
+      <c r="DJ3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="DK3" s="9" t="s">
+      <c r="DK3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="DL3" s="9" t="s">
+      <c r="DL3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="DM3" s="9" t="s">
+      <c r="DM3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="DN3" s="9" t="s">
+      <c r="DN3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="DO3" s="9" t="s">
+      <c r="DO3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="DP3" s="9" t="s">
+      <c r="DP3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="DQ3" s="9" t="s">
+      <c r="DQ3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="DR3" s="9" t="s">
+      <c r="DR3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="DS3" s="9" t="s">
+      <c r="DS3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="DT3" s="9" t="s">
+      <c r="DT3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="DU3" s="9" t="s">
+      <c r="DU3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="DV3" s="9" t="s">
+      <c r="DV3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="DW3" s="9" t="s">
+      <c r="DW3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="DX3" s="9" t="s">
+      <c r="DX3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="DY3" s="9" t="s">
+      <c r="DY3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="DZ3" s="9" t="s">
+      <c r="DZ3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="EA3" s="9" t="s">
+      <c r="EA3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="EB3" s="9" t="s">
+      <c r="EB3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="EC3" s="9" t="s">
+      <c r="EC3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="ED3" s="9" t="s">
+      <c r="ED3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="EE3" s="9" t="s">
+      <c r="EE3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="EF3" s="9" t="s">
+      <c r="EF3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="EG3" s="9" t="s">
+      <c r="EG3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="EH3" s="9" t="s">
+      <c r="EH3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="EI3" s="9" t="s">
+      <c r="EI3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="EJ3" s="9" t="s">
+      <c r="EJ3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="EK3" s="9" t="s">
+      <c r="EK3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="EL3" s="9" t="s">
+      <c r="EL3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="EM3" s="9" t="s">
+      <c r="EM3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="EN3" s="9" t="s">
+      <c r="EN3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="EO3" s="9" t="s">
+      <c r="EO3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="EP3" s="9" t="s">
+      <c r="EP3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="EQ3" s="9" t="s">
+      <c r="EQ3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="ER3" s="9" t="s">
+      <c r="ER3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="ES3" s="9" t="s">
+      <c r="ES3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="ET3" s="9" t="s">
+      <c r="ET3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="EU3" s="9" t="s">
+      <c r="EU3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="EV3" s="9" t="s">
+      <c r="EV3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="EW3" s="9" t="s">
+      <c r="EW3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="EX3" s="9" t="s">
+      <c r="EX3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="EY3" s="9" t="s">
+      <c r="EY3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="EZ3" s="9" t="s">
+      <c r="EZ3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="FA3" s="9" t="s">
+      <c r="FA3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="FB3" s="9" t="s">
+      <c r="FB3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="FC3" s="9" t="s">
+      <c r="FC3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="FD3" s="9" t="s">
+      <c r="FD3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="FE3" s="9" t="s">
+      <c r="FE3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="FF3" s="9" t="s">
+      <c r="FF3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="FG3" s="9" t="s">
+      <c r="FG3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="FH3" s="9" t="s">
+      <c r="FH3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="FI3" s="9" t="s">
+      <c r="FI3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="FJ3" s="9" t="s">
+      <c r="FJ3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="FK3" s="9" t="s">
+      <c r="FK3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="FL3" s="9" t="s">
+      <c r="FL3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="FM3" s="9" t="s">
+      <c r="FM3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="FN3" s="9" t="s">
+      <c r="FN3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="FO3" s="9" t="s">
+      <c r="FO3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="FP3" s="9" t="s">
+      <c r="FP3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="FQ3" s="9" t="s">
+      <c r="FQ3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="FR3" s="9" t="s">
+      <c r="FR3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="FS3" s="9" t="s">
+      <c r="FS3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="FT3" s="9" t="s">
+      <c r="FT3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="FU3" s="9" t="s">
+      <c r="FU3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="FV3" s="9" t="s">
+      <c r="FV3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="FW3" s="9" t="s">
+      <c r="FW3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="FX3" s="9" t="s">
+      <c r="FX3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="FY3" s="9" t="s">
+      <c r="FY3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="FZ3" s="9" t="s">
+      <c r="FZ3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="GA3" s="9" t="s">
+      <c r="GA3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="GB3" s="9" t="s">
+      <c r="GB3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="GC3" s="9" t="s">
+      <c r="GC3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="GD3" s="9" t="s">
+      <c r="GD3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="GE3" s="9" t="s">
+      <c r="GE3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="GF3" s="9" t="s">
+      <c r="GF3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="GG3" s="9" t="s">
+      <c r="GG3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="GH3" s="9" t="s">
+      <c r="GH3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="GI3" s="9" t="s">
+      <c r="GI3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="GJ3" s="9" t="s">
+      <c r="GJ3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="GK3" s="9" t="s">
+      <c r="GK3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="GL3" s="9" t="s">
+      <c r="GL3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="GM3" s="9" t="s">
+      <c r="GM3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="GN3" s="9" t="s">
+      <c r="GN3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="GO3" s="9" t="s">
+      <c r="GO3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="GP3" s="9" t="s">
+      <c r="GP3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="GQ3" s="9" t="s">
+      <c r="GQ3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="GR3" s="9" t="s">
+      <c r="GR3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="GS3" s="9" t="s">
+      <c r="GS3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="GT3" s="9" t="s">
+      <c r="GT3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="GU3" s="9" t="s">
+      <c r="GU3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="GV3" s="9" t="s">
+      <c r="GV3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="GW3" s="9" t="s">
+      <c r="GW3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="GX3" s="9" t="s">
+      <c r="GX3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="GY3" s="9" t="s">
+      <c r="GY3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="GZ3" s="9" t="s">
+      <c r="GZ3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="HA3" s="9" t="s">
+      <c r="HA3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="HB3" s="9" t="s">
+      <c r="HB3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="HC3" s="9" t="s">
+      <c r="HC3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="HD3" s="9" t="s">
+      <c r="HD3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="HE3" s="9" t="s">
+      <c r="HE3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="HF3" s="9" t="s">
+      <c r="HF3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="HG3" s="9" t="s">
+      <c r="HG3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="HH3" s="9" t="s">
+      <c r="HH3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="HI3" s="9" t="s">
+      <c r="HI3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="HJ3" s="9" t="s">
+      <c r="HJ3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="HK3" s="9" t="s">
+      <c r="HK3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="HL3" s="9" t="s">
+      <c r="HL3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="HM3" s="9" t="s">
+      <c r="HM3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="HN3" s="9" t="s">
+      <c r="HN3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="HO3" s="9" t="s">
+      <c r="HO3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="HP3" s="9" t="s">
+      <c r="HP3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="HQ3" s="9" t="s">
+      <c r="HQ3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="HR3" s="9" t="s">
+      <c r="HR3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="HS3" s="9" t="s">
+      <c r="HS3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="HT3" s="9" t="s">
+      <c r="HT3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="HU3" s="9" t="s">
+      <c r="HU3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="HV3" s="9" t="s">
+      <c r="HV3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="HW3" s="9" t="s">
+      <c r="HW3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="HX3" s="9" t="s">
+      <c r="HX3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="HY3" s="9" t="s">
+      <c r="HY3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="HZ3" s="9" t="s">
+      <c r="HZ3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="IA3" s="9" t="s">
+      <c r="IA3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="IB3" s="9" t="s">
+      <c r="IB3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="IC3" s="9" t="s">
+      <c r="IC3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="ID3" s="9" t="s">
+      <c r="ID3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="IE3" s="9" t="s">
+      <c r="IE3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="IF3" s="9" t="s">
+      <c r="IF3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="IG3" s="9" t="s">
+      <c r="IG3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="IH3" s="9" t="s">
+      <c r="IH3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="II3" s="9" t="s">
+      <c r="II3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="IJ3" s="9" t="s">
+      <c r="IJ3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="IK3" s="9" t="s">
+      <c r="IK3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="IL3" s="9" t="s">
+      <c r="IL3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="IM3" s="9" t="s">
+      <c r="IM3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="IN3" s="9" t="s">
+      <c r="IN3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="IO3" s="9" t="s">
+      <c r="IO3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="IP3" s="9" t="s">
+      <c r="IP3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="IQ3" s="9" t="s">
+      <c r="IQ3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="IR3" s="9" t="s">
+      <c r="IR3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="IS3" s="9" t="s">
+      <c r="IS3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="IT3" s="9" t="s">
+      <c r="IT3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="IU3" s="9" t="s">
+      <c r="IU3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="IV3" s="9" t="s">
+      <c r="IV3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="IW3" s="9" t="s">
+      <c r="IW3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="IX3" s="9" t="s">
+      <c r="IX3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="IY3" s="9" t="s">
+      <c r="IY3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="IZ3" s="9" t="s">
+      <c r="IZ3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="JA3" s="9" t="s">
+      <c r="JA3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="JB3" s="9" t="s">
+      <c r="JB3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="JC3" s="9" t="s">
+      <c r="JC3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="JD3" s="9" t="s">
+      <c r="JD3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="JE3" s="9" t="s">
+      <c r="JE3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="JF3" s="9" t="s">
+      <c r="JF3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="JG3" s="9" t="s">
+      <c r="JG3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="JH3" s="9" t="s">
+      <c r="JH3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="JI3" s="9" t="s">
+      <c r="JI3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="JJ3" s="9" t="s">
+      <c r="JJ3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="JK3" s="9" t="s">
+      <c r="JK3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="JL3" s="9" t="s">
+      <c r="JL3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="JM3" s="9" t="s">
+      <c r="JM3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="JN3" s="9" t="s">
+      <c r="JN3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="JO3" s="9" t="s">
+      <c r="JO3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="JP3" s="9" t="s">
+      <c r="JP3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="JQ3" s="9" t="s">
+      <c r="JQ3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="JR3" s="9" t="s">
+      <c r="JR3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="JS3" s="9" t="s">
+      <c r="JS3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="JT3" s="9" t="s">
+      <c r="JT3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="JU3" s="9" t="s">
+      <c r="JU3" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4133,10 +4117,10 @@
       <c r="A4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -4148,7 +4132,7 @@
       <c r="F4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -4160,10 +4144,10 @@
       <c r="J4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="2" t="s">
         <v>156</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -4175,10 +4159,10 @@
       <c r="O4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="2" t="s">
         <v>161</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -4193,10 +4177,10 @@
       <c r="U4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="2" t="s">
         <v>167</v>
       </c>
       <c r="X4" s="2" t="s">
@@ -4208,13 +4192,13 @@
       <c r="Z4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="2" t="s">
         <v>173</v>
       </c>
       <c r="AD4" s="2" t="s">
@@ -4226,10 +4210,10 @@
       <c r="AF4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AG4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AH4" s="2" t="s">
         <v>178</v>
       </c>
       <c r="AI4" s="2" t="s">
@@ -4244,13 +4228,13 @@
       <c r="AL4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AM4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AN4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AO4" s="2" t="s">
         <v>185</v>
       </c>
       <c r="AP4" s="2" t="s">
@@ -4262,10 +4246,10 @@
       <c r="AR4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AS4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AT4" s="2" t="s">
         <v>190</v>
       </c>
       <c r="AU4" s="2" t="s">
@@ -4277,10 +4261,10 @@
       <c r="AW4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AX4" s="8" t="s">
+      <c r="AX4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AY4" s="8" t="s">
+      <c r="AY4" s="2" t="s">
         <v>195</v>
       </c>
       <c r="AZ4" s="2" t="s">
@@ -4292,10 +4276,10 @@
       <c r="BB4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BC4" s="8" t="s">
+      <c r="BC4" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BD4" s="8" t="s">
+      <c r="BD4" s="2" t="s">
         <v>200</v>
       </c>
       <c r="BE4" s="2" t="s">
@@ -4307,10 +4291,10 @@
       <c r="BG4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BH4" s="8" t="s">
+      <c r="BH4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BI4" s="8" t="s">
+      <c r="BI4" s="2" t="s">
         <v>205</v>
       </c>
       <c r="BJ4" s="2" t="s">
@@ -4322,10 +4306,10 @@
       <c r="BL4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="BM4" s="8" t="s">
+      <c r="BM4" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BN4" s="8" t="s">
+      <c r="BN4" s="2" t="s">
         <v>210</v>
       </c>
       <c r="BO4" s="2" t="s">
@@ -4337,10 +4321,10 @@
       <c r="BQ4" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="BR4" s="8" t="s">
+      <c r="BR4" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="BS4" s="8" t="s">
+      <c r="BS4" s="2" t="s">
         <v>215</v>
       </c>
       <c r="BT4" s="2" t="s">
@@ -4352,10 +4336,10 @@
       <c r="BV4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="BW4" s="8" t="s">
+      <c r="BW4" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="BX4" s="8" t="s">
+      <c r="BX4" s="2" t="s">
         <v>220</v>
       </c>
       <c r="BY4" s="2" t="s">
@@ -4367,7 +4351,7 @@
       <c r="CA4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="CB4" s="8" t="s">
+      <c r="CB4" s="2" t="s">
         <v>224</v>
       </c>
       <c r="CC4" s="2" t="s">
@@ -4382,10 +4366,10 @@
       <c r="CF4" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="CG4" s="8" t="s">
+      <c r="CG4" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="CH4" s="8" t="s">
+      <c r="CH4" s="2" t="s">
         <v>230</v>
       </c>
       <c r="CI4" s="2" t="s">
@@ -4397,10 +4381,10 @@
       <c r="CK4" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="CL4" s="8" t="s">
+      <c r="CL4" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="CM4" s="8" t="s">
+      <c r="CM4" s="2" t="s">
         <v>235</v>
       </c>
       <c r="CN4" s="2" t="s">
@@ -4412,10 +4396,10 @@
       <c r="CP4" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="CQ4" s="8" t="s">
+      <c r="CQ4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="CR4" s="8" t="s">
+      <c r="CR4" s="2" t="s">
         <v>240</v>
       </c>
       <c r="CS4" s="2" t="s">
@@ -4427,10 +4411,10 @@
       <c r="CU4" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="CV4" s="8" t="s">
+      <c r="CV4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="CW4" s="8" t="s">
+      <c r="CW4" s="2" t="s">
         <v>245</v>
       </c>
       <c r="CX4" s="2" t="s">
@@ -4442,10 +4426,10 @@
       <c r="CZ4" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="DA4" s="8" t="s">
+      <c r="DA4" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="DB4" s="8" t="s">
+      <c r="DB4" s="2" t="s">
         <v>250</v>
       </c>
       <c r="DC4" s="2" t="s">
@@ -4457,10 +4441,10 @@
       <c r="DE4" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="DF4" s="8" t="s">
+      <c r="DF4" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="DG4" s="8" t="s">
+      <c r="DG4" s="2" t="s">
         <v>255</v>
       </c>
       <c r="DH4" s="2" t="s">
@@ -4472,10 +4456,10 @@
       <c r="DJ4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="DK4" s="8" t="s">
+      <c r="DK4" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="DL4" s="8" t="s">
+      <c r="DL4" s="2" t="s">
         <v>260</v>
       </c>
       <c r="DM4" s="2" t="s">
@@ -4487,7 +4471,7 @@
       <c r="DO4" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="DP4" s="8" t="s">
+      <c r="DP4" s="2" t="s">
         <v>264</v>
       </c>
       <c r="DQ4" s="2" t="s">
@@ -4502,10 +4486,10 @@
       <c r="DT4" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="DU4" s="8" t="s">
+      <c r="DU4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="DV4" s="8" t="s">
+      <c r="DV4" s="2" t="s">
         <v>270</v>
       </c>
       <c r="DW4" s="2" t="s">
@@ -4517,10 +4501,10 @@
       <c r="DY4" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="DZ4" s="8" t="s">
+      <c r="DZ4" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="EA4" s="8" t="s">
+      <c r="EA4" s="2" t="s">
         <v>275</v>
       </c>
       <c r="EB4" s="2" t="s">
@@ -4532,10 +4516,10 @@
       <c r="ED4" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="EE4" s="8" t="s">
+      <c r="EE4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="EF4" s="8" t="s">
+      <c r="EF4" s="2" t="s">
         <v>280</v>
       </c>
       <c r="EG4" s="2" t="s">
@@ -4547,10 +4531,10 @@
       <c r="EI4" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="EJ4" s="8" t="s">
+      <c r="EJ4" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="EK4" s="8" t="s">
+      <c r="EK4" s="2" t="s">
         <v>285</v>
       </c>
       <c r="EL4" s="2" t="s">
@@ -4562,10 +4546,10 @@
       <c r="EN4" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="EO4" s="8" t="s">
+      <c r="EO4" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="EP4" s="8" t="s">
+      <c r="EP4" s="2" t="s">
         <v>290</v>
       </c>
       <c r="EQ4" s="2" t="s">
@@ -4577,10 +4561,10 @@
       <c r="ES4" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="ET4" s="8" t="s">
+      <c r="ET4" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="EU4" s="8" t="s">
+      <c r="EU4" s="2" t="s">
         <v>295</v>
       </c>
       <c r="EV4" s="2" t="s">
@@ -4592,10 +4576,10 @@
       <c r="EX4" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="EY4" s="8" t="s">
+      <c r="EY4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="EZ4" s="8" t="s">
+      <c r="EZ4" s="2" t="s">
         <v>300</v>
       </c>
       <c r="FA4" s="2" t="s">
@@ -4607,7 +4591,7 @@
       <c r="FC4" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="FD4" s="8" t="s">
+      <c r="FD4" s="2" t="s">
         <v>304</v>
       </c>
       <c r="FE4" s="2" t="s">
@@ -4622,10 +4606,10 @@
       <c r="FH4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="FI4" s="8" t="s">
+      <c r="FI4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="FJ4" s="8" t="s">
+      <c r="FJ4" s="2" t="s">
         <v>310</v>
       </c>
       <c r="FK4" s="2" t="s">
@@ -4637,10 +4621,10 @@
       <c r="FM4" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="FN4" s="8" t="s">
+      <c r="FN4" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="FO4" s="8" t="s">
+      <c r="FO4" s="2" t="s">
         <v>315</v>
       </c>
       <c r="FP4" s="2" t="s">
@@ -4652,10 +4636,10 @@
       <c r="FR4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="FS4" s="8" t="s">
+      <c r="FS4" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="FT4" s="8" t="s">
+      <c r="FT4" s="2" t="s">
         <v>320</v>
       </c>
       <c r="FU4" s="2" t="s">
@@ -4667,10 +4651,10 @@
       <c r="FW4" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="FX4" s="8" t="s">
+      <c r="FX4" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="FY4" s="8" t="s">
+      <c r="FY4" s="2" t="s">
         <v>325</v>
       </c>
       <c r="FZ4" s="2" t="s">
@@ -4682,10 +4666,10 @@
       <c r="GB4" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="GC4" s="8" t="s">
+      <c r="GC4" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="GD4" s="8" t="s">
+      <c r="GD4" s="2" t="s">
         <v>330</v>
       </c>
       <c r="GE4" s="2" t="s">
@@ -4697,10 +4681,10 @@
       <c r="GG4" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="GH4" s="8" t="s">
+      <c r="GH4" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="GI4" s="8" t="s">
+      <c r="GI4" s="2" t="s">
         <v>335</v>
       </c>
       <c r="GJ4" s="2" t="s">
@@ -4712,10 +4696,10 @@
       <c r="GL4" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="GM4" s="8" t="s">
+      <c r="GM4" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="GN4" s="8" t="s">
+      <c r="GN4" s="2" t="s">
         <v>340</v>
       </c>
       <c r="GO4" s="2" t="s">
@@ -4727,7 +4711,7 @@
       <c r="GQ4" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="GR4" s="8" t="s">
+      <c r="GR4" s="2" t="s">
         <v>344</v>
       </c>
       <c r="GS4" s="2" t="s">
@@ -4742,10 +4726,10 @@
       <c r="GV4" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="GW4" s="8" t="s">
+      <c r="GW4" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="GX4" s="8" t="s">
+      <c r="GX4" s="2" t="s">
         <v>350</v>
       </c>
       <c r="GY4" s="2" t="s">
@@ -4757,10 +4741,10 @@
       <c r="HA4" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="HB4" s="8" t="s">
+      <c r="HB4" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="HC4" s="8" t="s">
+      <c r="HC4" s="2" t="s">
         <v>355</v>
       </c>
       <c r="HD4" s="2" t="s">
@@ -4772,10 +4756,10 @@
       <c r="HF4" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="HG4" s="8" t="s">
+      <c r="HG4" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="HH4" s="8" t="s">
+      <c r="HH4" s="2" t="s">
         <v>360</v>
       </c>
       <c r="HI4" s="2" t="s">
@@ -4787,10 +4771,10 @@
       <c r="HK4" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="HL4" s="8" t="s">
+      <c r="HL4" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="HM4" s="8" t="s">
+      <c r="HM4" s="2" t="s">
         <v>365</v>
       </c>
       <c r="HN4" s="2" t="s">
@@ -4802,10 +4786,10 @@
       <c r="HP4" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="HQ4" s="8" t="s">
+      <c r="HQ4" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="HR4" s="8" t="s">
+      <c r="HR4" s="2" t="s">
         <v>370</v>
       </c>
       <c r="HS4" s="2" t="s">
@@ -4817,10 +4801,10 @@
       <c r="HU4" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="HV4" s="8" t="s">
+      <c r="HV4" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="HW4" s="8" t="s">
+      <c r="HW4" s="2" t="s">
         <v>375</v>
       </c>
       <c r="HX4" s="2" t="s">
@@ -4832,10 +4816,10 @@
       <c r="HZ4" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="IA4" s="8" t="s">
+      <c r="IA4" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="IB4" s="8" t="s">
+      <c r="IB4" s="2" t="s">
         <v>380</v>
       </c>
       <c r="IC4" s="2" t="s">
@@ -4847,7 +4831,7 @@
       <c r="IE4" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="IF4" s="8" t="s">
+      <c r="IF4" s="2" t="s">
         <v>384</v>
       </c>
       <c r="IG4" s="2" t="s">
@@ -4862,10 +4846,10 @@
       <c r="IJ4" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="IK4" s="8" t="s">
+      <c r="IK4" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="IL4" s="8" t="s">
+      <c r="IL4" s="2" t="s">
         <v>390</v>
       </c>
       <c r="IM4" s="2" t="s">
@@ -4877,10 +4861,10 @@
       <c r="IO4" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="IP4" s="8" t="s">
+      <c r="IP4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="IQ4" s="8" t="s">
+      <c r="IQ4" s="2" t="s">
         <v>395</v>
       </c>
       <c r="IR4" s="2" t="s">
@@ -4892,10 +4876,10 @@
       <c r="IT4" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="IU4" s="8" t="s">
+      <c r="IU4" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="IV4" s="8" t="s">
+      <c r="IV4" s="2" t="s">
         <v>400</v>
       </c>
       <c r="IW4" s="2" t="s">
@@ -4907,10 +4891,10 @@
       <c r="IY4" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="IZ4" s="8" t="s">
+      <c r="IZ4" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="JA4" s="8" t="s">
+      <c r="JA4" s="2" t="s">
         <v>405</v>
       </c>
       <c r="JB4" s="2" t="s">
@@ -4922,10 +4906,10 @@
       <c r="JD4" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="JE4" s="8" t="s">
+      <c r="JE4" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="JF4" s="8" t="s">
+      <c r="JF4" s="2" t="s">
         <v>410</v>
       </c>
       <c r="JG4" s="2" t="s">
@@ -4937,10 +4921,10 @@
       <c r="JI4" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="JJ4" s="8" t="s">
+      <c r="JJ4" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="JK4" s="8" t="s">
+      <c r="JK4" s="2" t="s">
         <v>415</v>
       </c>
       <c r="JL4" s="2" t="s">
@@ -4952,10 +4936,10 @@
       <c r="JN4" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="JO4" s="8" t="s">
+      <c r="JO4" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="JP4" s="8" t="s">
+      <c r="JP4" s="2" t="s">
         <v>420</v>
       </c>
       <c r="JQ4" s="2" t="s">
@@ -4967,7 +4951,7 @@
       <c r="JS4" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="JT4" s="8" t="s">
+      <c r="JT4" s="2" t="s">
         <v>424</v>
       </c>
       <c r="JU4" s="2" t="s">
